--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -442,7 +442,7 @@
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="52" customWidth="1" min="8" max="8"/>
     <col width="71" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="10" max="10"/>
     <col width="22" customWidth="1" min="11" max="11"/>
@@ -514,472 +514,388 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACE-Step</t>
+          <t>Ilaria-RVC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A Step Towards Music Generation Foundation Model</t>
+          <t>Easily convert audio in Speech to Speech with built-in Text to Speech with RVC.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/ACE-Step</t>
+          <t>https://github.com/pinokiofactory/Ilaria-RVC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-05-07T11:25:33Z</t>
+          <t>2025-01-27T17:36:26Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08T12:02:23Z</t>
+          <t>2025-01-27T17:36:50Z</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08T12:01:49Z</t>
-        </is>
+          <t>2025-01-27T17:36:46Z</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/ace-step/ACE-Step</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2025-04-28T07:03:09Z</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-08-25T21:32:29Z</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>92</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AllTalk-TTS</t>
+          <t>Kokoro-TTS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(NVIDIA ONLY) Welcome to Kokoro, a high-quality text-to-speech synthesis program powered by deep learning. This tool converts any text into high-fidelity speech in just a few seconds. Simply input text, select a voice, adjust the speed, and enjoy the generated audio.</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/AllTalk-TTS</t>
+          <t>https://github.com/pinokiofactory/Kokoro-TTS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-02-05T16:24:30Z</t>
+          <t>2025-04-17T19:33:54Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-05T16:19:34Z</t>
+          <t>2025-07-12T17:51:17Z</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-03-29T16:44:51Z</t>
-        </is>
+          <t>2025-07-12T17:51:14Z</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/erew123/alltalk_tts</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2023-12-08T09:35:19Z</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-08-25T14:47:32Z</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>62</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Allegro-txt2vid</t>
+          <t>MFLUX-WEBUI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Allegro is a powerful text-to-video model that generates high-quality videos up to 6 seconds at 15 FPS and 720p resolution from simple text input.</t>
+          <t>A powerful and user-friendly web interface for MFLUX, powered by Gradio and MLX. https://github.com/CharafChnioune/MFLUX-WEBUI</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Allegro-txt2vid</t>
+          <t>https://github.com/pinokiofactory/MFLUX-WEBUI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-10-25T06:33:03Z</t>
+          <t>2024-09-29T11:23:11Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-11-05T23:56:50Z</t>
+          <t>2025-04-30T07:49:31Z</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-11-05T23:56:47Z</t>
-        </is>
+          <t>2025-04-16T17:12:16Z</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/rhymes-ai/Allegro</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2024-10-16T04:04:15Z</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-08-25T07:53:26Z</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>19</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Allegro-txt2vid-install</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Allegro-txt2vid. WARNING: takes a long time to generate a result, 1hr on a 3090. 12GB+ VRAM | 32GB+ RAM | 30GB Download. Check the README for details</t>
-        </is>
-      </c>
+          <t>MMAudio</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Allegro-txt2vid-install</t>
+          <t>https://github.com/pinokiofactory/MMAudio</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-10-27T14:58:05Z</t>
+          <t>2024-12-15T04:45:43Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-05T20:04:12Z</t>
+          <t>2025-08-09T14:23:58Z</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-03-16T23:27:46Z</t>
-        </is>
+          <t>2025-04-28T04:00:56Z</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/rhymes-ai/Allegro</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2024-10-16T04:04:15Z</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2025-08-25T07:53:26Z</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>19</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AudioX</t>
+          <t>MatAnyone</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AudioX: Diffusion Transformer for Anything-to-Audio Generation</t>
+          <t>[NVIDIA ONLY] "Stable Video Matting with Consistent Memory Propagation"   9GB install, 9GB+ VRAM</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/AudioX</t>
+          <t>https://github.com/pinokiofactory/MatAnyone</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-04-23T00:08:00Z</t>
+          <t>2025-02-21T04:25:40Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-12T12:25:25Z</t>
+          <t>2025-08-15T09:11:42Z</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-12T12:25:21Z</t>
-        </is>
+          <t>2025-04-23T21:30:28Z</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/ZeyueT/AudioX</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2025-03-13T10:18:21Z</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2025-08-25T19:41:30Z</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>49</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Frame-Pack</t>
+          <t>Nari-Dia-TTS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(NVIDIA) FramePack is a next-frame (next-frame-section) prediction neural network structure that generates videos progressively.</t>
+          <t>Nari Dia is a powerful text-to-speech (TTS) application based on the Dia-1.6B model from Nari Labs. This application allows you to convert text into natural-sounding speech with various customization options.</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Frame-Pack</t>
+          <t>https://github.com/pinokiofactory/Nari-Dia-TTS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-04-17T11:43:03Z</t>
+          <t>2025-04-22T11:51:10Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-23T10:45:41Z</t>
+          <t>2025-07-23T10:00:53Z</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-23T10:45:36Z</t>
-        </is>
+          <t>2025-04-22T12:03:27Z</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/lllyasviel/FramePack</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2025-04-12T14:45:22Z</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2025-08-25T22:35:18Z</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>438</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hunyuan3D-2</t>
+          <t>StreamDiffusion</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>StreamDiffusion: A Pipeline-Level Solution for Real-Time Interactive Generation</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3D-2</t>
+          <t>https://github.com/pinokiofactory/StreamDiffusion</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-01-25T04:41:01Z</t>
+          <t>2024-11-06T22:32:16Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-09T10:20:31Z</t>
+          <t>2025-03-23T00:07:51Z</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-03-16T22:55:58Z</t>
-        </is>
+          <t>2025-03-23T00:07:47Z</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/Tencent/Hunyuan3D-2</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2025-01-21T05:21:35Z</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2025-08-25T22:39:21Z</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>203</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hunyuan3D-2-mini</t>
+          <t>StyleTTS2_Studio</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Build your own StyleTTS 2 Voice!</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3D-2-mini</t>
+          <t>https://github.com/pinokiofactory/StyleTTS2_Studio</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-01-23T21:29:42Z</t>
+          <t>2024-12-25T23:02:32Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-01-25T03:18:46Z</t>
+          <t>2025-04-17T21:38:47Z</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-01-25T03:50:23Z</t>
-        </is>
+          <t>2025-04-10T01:50:13Z</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/Tencent/Hunyuan3D-2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2025-01-21T05:21:35Z</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2025-08-25T22:39:21Z</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>203</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hunyuan3d-2-lowvram</t>
+          <t>TRELLIS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A pinokio script for https://github.com/microsoft/TRELLIS</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3d-2-lowvram</t>
+          <t>https://github.com/pinokiofactory/TRELLIS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-01-25T04:44:25Z</t>
+          <t>2024-12-08T13:33:11Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-11T15:34:34Z</t>
+          <t>2025-05-07T23:10:29Z</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-23T20:08:09Z</t>
-        </is>
+          <t>2025-06-08T06:02:31Z</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/deepbeepmeep/Hunyuan3D-2GP</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2025-01-22T01:50:03Z</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2025-08-23T17:56:05Z</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>16</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ilaria-RVC</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Easily convert audio in Speech to Speech with built-in Text to Speech with RVC.</t>
-        </is>
-      </c>
+          <t>accdiffusion</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Ilaria-RVC</t>
+          <t>https://github.com/pinokiofactory/accdiffusion</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-01-27T17:36:26Z</t>
+          <t>2024-07-31T15:54:10Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-01-27T17:36:50Z</t>
+          <t>2024-07-31T15:55:00Z</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-01-27T17:36:46Z</t>
-        </is>
+          <t>2024-07-31T15:54:56Z</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -990,33 +906,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kokoro-TTS</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>(NVIDIA ONLY) Welcome to Kokoro, a high-quality text-to-speech synthesis program powered by deep learning. This tool converts any text into high-fidelity speech in just a few seconds. Simply input text, select a voice, adjust the speed, and enjoy the generated audio.</t>
-        </is>
-      </c>
+          <t>ai-video-composer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Kokoro-TTS</t>
+          <t>https://github.com/pinokiofactory/ai-video-composer</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-04-17T19:33:54Z</t>
+          <t>2024-11-26T00:57:07Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-12T17:51:17Z</t>
+          <t>2025-04-22T15:34:31Z</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-07-12T17:51:14Z</t>
-        </is>
+          <t>2025-04-01T04:28:20Z</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -1027,33 +942,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MFLUX-WEBUI</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>A powerful and user-friendly web interface for MFLUX, powered by Gradio and MLX. https://github.com/CharafChnioune/MFLUX-WEBUI</t>
-        </is>
-      </c>
+          <t>applio-old</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/MFLUX-WEBUI</t>
+          <t>https://github.com/pinokiofactory/applio-old</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-09-29T11:23:11Z</t>
+          <t>2024-06-17T22:35:00Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-30T07:49:31Z</t>
+          <t>2024-09-12T13:25:42Z</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-16T17:12:16Z</t>
-        </is>
+          <t>2024-06-24T21:39:45Z</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -1064,35 +978,35 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MMAudio</t>
-        </is>
-      </c>
+          <t>artist</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/MMAudio</t>
+          <t>https://github.com/pinokiofactory/artist</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-12-15T04:45:43Z</t>
+          <t>2024-07-30T14:02:34Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-08-09T14:23:58Z</t>
+          <t>2025-04-23T21:33:35Z</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-28T04:00:56Z</t>
-        </is>
+          <t>2025-04-23T21:33:31Z</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/hkchengrex/MMAudio.git</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1100,91 +1014,71 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MagicQuill</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>An intelligent, interactive Image Editing System. Easily erase and add objects on a user-friendly interface.</t>
-        </is>
-      </c>
+          <t>augmentoolkit</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/MagicQuill</t>
+          <t>https://github.com/pinokiofactory/augmentoolkit</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-02-19T03:58:52Z</t>
+          <t>2024-05-16T12:39:35Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-26T05:26:00Z</t>
+          <t>2024-10-19T17:14:02Z</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-26T05:25:56Z</t>
-        </is>
+          <t>2024-08-15T01:13:13Z</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/ant-research/MagicQuill</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2024-11-12T12:52:36Z</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2025-08-25T15:28:30Z</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>46</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MatAnyone</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[NVIDIA ONLY] "Stable Video Matting with Consistent Memory Propagation"   9GB install, 9GB+ VRAM</t>
-        </is>
-      </c>
+          <t>aura-sr-upscaler</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/MatAnyone</t>
+          <t>https://github.com/pinokiofactory/aura-sr-upscaler</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-02-21T04:25:40Z</t>
+          <t>2024-07-31T12:18:57Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-08-15T09:11:42Z</t>
+          <t>2025-05-02T06:38:24Z</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-23T21:30:28Z</t>
-        </is>
+          <t>2025-04-03T03:55:09Z</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/pq-yang/MatAnyone.git</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1192,40 +1086,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nari-Dia-TTS</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Nari Dia is a powerful text-to-speech (TTS) application based on the Dia-1.6B model from Nari Labs. This application allows you to convert text into natural-sounding speech with various customization options.</t>
-        </is>
-      </c>
+          <t>autogpt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Nari-Dia-TTS</t>
+          <t>https://github.com/pinokiofactory/autogpt</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-04-22T11:51:10Z</t>
+          <t>2024-07-19T14:00:12Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-23T10:00:53Z</t>
+          <t>2025-04-08T08:57:50Z</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-22T12:03:27Z</t>
-        </is>
+          <t>2024-09-11T05:57:21Z</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/user-attachments/assets</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1233,188 +1122,143 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Orpheus-TTS-FastAPI</t>
-        </is>
-      </c>
+          <t>controlyourself</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Orpheus-TTS-FastAPI</t>
+          <t>https://github.com/pinokiofactory/controlyourself</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-03-23T05:39:00Z</t>
+          <t>2024-11-26T09:11:44Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-08-25T11:26:07Z</t>
+          <t>2024-11-26T11:00:33Z</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-23T21:32:32Z</t>
-        </is>
+          <t>2024-11-26T11:00:30Z</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/Lex-au/Orpheus-FastAPI</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2025-03-21T15:24:16Z</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2025-08-25T18:40:03Z</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>10</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RMBG-2-Studio</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Enhanced background remove and replace app built around BRIA-RMBG-2.0.  Low VRAM/RAM | 6GB Install</t>
-        </is>
-      </c>
+          <t>diffrhythm</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/RMBG-2-Studio</t>
+          <t>https://github.com/pinokiofactory/diffrhythm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-11-15T07:13:23Z</t>
+          <t>2025-03-04T22:13:30Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-08-23T02:32:30Z</t>
+          <t>2025-08-26T00:13:13Z</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-30T19:29:17Z</t>
-        </is>
+          <t>2025-04-23T21:31:01Z</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/ZhengPeng7/BiRefNet</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2022-08-17T09:13:39Z</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2025-08-25T16:47:49Z</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>24</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RuinedFooocus</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(NVIDIA ONLY) Forget everything you thought you knew about AI art generation - RuinedFooocus is here to completely reinvent the game! This groundbreaking image creator combines the best aspects of Stable Diffusion and Midjourney into one seamless, cutting-edge experience. </t>
-        </is>
-      </c>
+          <t>diffusers-image-fill</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/RuinedFooocus</t>
+          <t>https://github.com/pinokiofactory/diffusers-image-fill</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-04-22T14:09:26Z</t>
+          <t>2024-09-27T17:14:28Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-08-12T18:53:54Z</t>
+          <t>2025-04-17T21:38:12Z</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-08-12T18:53:51Z</t>
-        </is>
+          <t>2025-04-15T20:43:01Z</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/runew0lf/RuinedFooocus</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2023-08-16T09:20:46Z</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2025-08-24T00:02:37Z</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>24</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreamDiffusion</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>StreamDiffusion: A Pipeline-Level Solution for Real-Time Interactive Generation</t>
-        </is>
-      </c>
+          <t>dough</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/StreamDiffusion</t>
+          <t>https://github.com/pinokiofactory/dough</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-11-06T22:32:16Z</t>
+          <t>2024-07-18T11:39:16Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-03-23T00:07:51Z</t>
+          <t>2024-07-19T12:30:00Z</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-03-23T00:07:47Z</t>
-        </is>
+          <t>2024-08-14T20:21:12Z</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/cumulo-autumn/StreamDiffusion.git</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1422,33 +1266,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>StyleTTS2_Studio</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Build your own StyleTTS 2 Voice!</t>
-        </is>
-      </c>
+          <t>e2-f5-tts</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/StyleTTS2_Studio</t>
+          <t>https://github.com/pinokiofactory/e2-f5-tts</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-12-25T23:02:32Z</t>
+          <t>2024-10-13T17:23:57Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-17T21:38:47Z</t>
+          <t>2025-08-15T14:33:06Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-10T01:50:13Z</t>
-        </is>
+          <t>2025-04-24T18:28:35Z</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1459,40 +1302,35 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TRELLIS</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>A pinokio script for https://github.com/microsoft/TRELLIS</t>
-        </is>
-      </c>
+          <t>errortest</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/TRELLIS</t>
+          <t>https://github.com/pinokiofactory/errortest</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-12-08T13:33:11Z</t>
+          <t>2024-11-12T02:01:21Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07T23:10:29Z</t>
+          <t>2024-11-16T03:20:20Z</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-08T06:02:31Z</t>
-        </is>
+          <t>2024-11-16T03:20:16Z</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/microsoft/TRELLIS.git</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1500,28 +1338,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>accdiffusion</t>
-        </is>
-      </c>
+          <t>facepoke</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/accdiffusion</t>
+          <t>https://github.com/pinokiofactory/facepoke</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-31T15:54:10Z</t>
+          <t>2024-10-07T13:28:53Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-07-31T15:55:00Z</t>
+          <t>2025-07-25T11:16:51Z</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-07-31T15:54:56Z</t>
-        </is>
+          <t>2025-03-16T23:37:31Z</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1532,28 +1374,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ai-video-composer</t>
-        </is>
-      </c>
+          <t>factory</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/ai-video-composer</t>
+          <t>https://github.com/pinokiofactory/factory</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-11-26T00:57:07Z</t>
+          <t>2024-08-27T21:49:02Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-22T15:34:31Z</t>
+          <t>2024-08-27T21:49:02Z</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-04-01T04:28:20Z</t>
-        </is>
+          <t>2024-08-27T21:49:02Z</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>8</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1564,79 +1410,68 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>applio</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Pinokio Installer for Applio</t>
-        </is>
-      </c>
+          <t>flashdiffusion</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/applio</t>
+          <t>https://github.com/pinokiofactory/flashdiffusion</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-09-13T18:29:14Z</t>
+          <t>2024-06-07T19:33:04Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-04T22:17:49Z</t>
+          <t>2025-03-17T00:27:35Z</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-04-04T03:23:37Z</t>
-        </is>
+          <t>2025-03-17T00:27:32Z</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/IAHispano/Applio</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2023-08-07T22:42:16Z</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2025-08-25T16:16:10Z</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>13</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>applio-old</t>
-        </is>
-      </c>
+          <t>florence-sam</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/applio-old</t>
+          <t>https://github.com/pinokiofactory/florence-sam</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-06-17T22:35:00Z</t>
+          <t>2024-08-01T14:15:49Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-09-12T13:25:42Z</t>
+          <t>2024-08-01T18:30:44Z</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-06-24T21:39:45Z</t>
-        </is>
+          <t>2024-08-01T18:30:41Z</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1647,28 +1482,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>artist</t>
-        </is>
-      </c>
+          <t>florence2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/artist</t>
+          <t>https://github.com/pinokiofactory/florence2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-30T14:02:34Z</t>
+          <t>2024-06-20T21:16:01Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-23T21:33:35Z</t>
+          <t>2025-03-17T00:22:46Z</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-04-23T21:33:31Z</t>
-        </is>
+          <t>2025-03-17T00:22:43Z</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1679,74 +1518,68 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>audiocraft_plus</t>
-        </is>
-      </c>
+          <t>flux-webui</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/audiocraft_plus</t>
+          <t>https://github.com/pinokiofactory/flux-webui</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-30T17:39:46Z</t>
+          <t>2024-08-07T15:22:56Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-03-17T00:02:40Z</t>
+          <t>2025-08-22T21:34:56Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-03-17T00:02:36Z</t>
-        </is>
+          <t>2025-03-17T00:00:23Z</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>21</v>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/GrandaddyShmax/audiocraft_plus</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2023-06-13T14:44:53Z</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2025-08-23T16:36:07Z</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>38</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>augmentoolkit</t>
-        </is>
-      </c>
+          <t>forge</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/augmentoolkit</t>
+          <t>https://github.com/pinokiofactory/forge</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-05-16T12:39:35Z</t>
+          <t>2024-05-11T09:24:03Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-10-19T17:14:02Z</t>
+          <t>2024-08-16T22:18:57Z</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-08-15T01:13:13Z</t>
-        </is>
+          <t>2024-08-16T22:18:54Z</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1757,28 +1590,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>aura-sr-upscaler</t>
-        </is>
-      </c>
+          <t>hallo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/aura-sr-upscaler</t>
+          <t>https://github.com/pinokiofactory/hallo</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-31T12:18:57Z</t>
+          <t>2024-06-15T21:19:25Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-02T06:38:24Z</t>
+          <t>2025-08-06T23:33:28Z</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-04-03T03:55:09Z</t>
-        </is>
+          <t>2025-03-17T00:26:25Z</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1789,28 +1626,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>autogpt</t>
-        </is>
-      </c>
+          <t>invoke</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/autogpt</t>
+          <t>https://github.com/pinokiofactory/invoke</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-19T14:00:12Z</t>
+          <t>2024-05-10T07:32:14Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-04-08T08:57:50Z</t>
+          <t>2024-10-25T07:58:44Z</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-09-11T05:57:21Z</t>
-        </is>
+          <t>2024-10-10T21:32:40Z</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>7</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1821,309 +1662,248 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>bolt</t>
-        </is>
-      </c>
+          <t>llamafactory</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/bolt</t>
+          <t>https://github.com/pinokiofactory/llamafactory</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-10-30T04:46:10Z</t>
+          <t>2024-05-09T06:38:54Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-08-10T17:36:10Z</t>
+          <t>2025-03-17T00:35:53Z</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-04-01T04:27:03Z</t>
-        </is>
+          <t>2025-03-17T00:35:50Z</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/coleam00/bolt.new-any-llm</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2024-10-13T18:40:54Z</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2025-08-25T20:00:20Z</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>258</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>browser-use</t>
-        </is>
-      </c>
+          <t>mcp</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/browser-use</t>
+          <t>https://github.com/pinokiofactory/mcp</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-01-19T21:55:50Z</t>
+          <t>2024-12-21T14:25:08Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-18T21:19:01Z</t>
+          <t>2025-04-28T07:12:22Z</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-04-01T04:25:12Z</t>
-        </is>
+          <t>2025-01-03T15:23:57Z</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/browser-use/web-ui</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>2025-01-02T01:29:44Z</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2025-08-25T22:28:48Z</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>286</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>clarity-refiners-ui</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Creative Image Enhancer/Upscaler. Powered By Refiners.  8GB VRAM | 10GB Install</t>
-        </is>
-      </c>
+          <t>mlx</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/clarity-refiners-ui</t>
+          <t>https://github.com/pinokiofactory/mlx</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-11-12T07:03:48Z</t>
+          <t>2024-06-11T18:20:24Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-08-06T06:12:42Z</t>
+          <t>2024-11-20T20:34:38Z</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-30T19:33:26Z</t>
-        </is>
+          <t>2024-11-20T20:34:34Z</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/philz1337x/clarity-upscaler</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2024-03-15T15:21:40Z</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2025-08-25T10:09:13Z</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>18</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>cogstudio</t>
-        </is>
-      </c>
+          <t>moshi</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/cogstudio</t>
+          <t>https://github.com/pinokiofactory/moshi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-09-20T10:46:17Z</t>
+          <t>2024-09-18T19:39:38Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-08-23T05:03:31Z</t>
+          <t>2025-03-16T23:50:32Z</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-03-16T23:49:17Z</t>
-        </is>
+          <t>2025-03-16T23:50:29Z</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/THUDM/CogVideo</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>2022-05-29T06:46:18Z</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2025-08-25T17:05:50Z</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>95</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>cogvideo</t>
-        </is>
-      </c>
+          <t>ominicontrol</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/cogvideo</t>
+          <t>https://github.com/pinokiofactory/ominicontrol</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-08-30T10:13:02Z</t>
+          <t>2024-11-25T21:32:15Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-16T03:00:05Z</t>
+          <t>2024-11-27T09:17:35Z</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-03-16T23:56:15Z</t>
-        </is>
+          <t>2024-11-27T09:17:32Z</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/THUDM/CogVideo</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>2022-05-29T06:46:18Z</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2025-08-25T17:05:50Z</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>95</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>comfy</t>
-        </is>
-      </c>
+          <t>omnigen</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/comfy</t>
+          <t>https://github.com/pinokiofactory/omnigen</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-08-13T19:47:18Z</t>
+          <t>2024-10-23T18:24:35Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-08-02T05:10:18Z</t>
+          <t>2025-07-27T14:48:33Z</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-07-03T09:17:46Z</t>
-        </is>
+          <t>2025-04-04T02:49:30Z</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/comfyanonymous/ComfyUI</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2023-01-17T03:15:56Z</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2025-08-25T23:03:17Z</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>2743</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>controlyourself</t>
-        </is>
-      </c>
+          <t>open-webui</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/controlyourself</t>
+          <t>https://github.com/pinokiofactory/open-webui</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-11-26T09:11:44Z</t>
+          <t>2024-07-23T16:53:00Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-11-26T11:00:33Z</t>
+          <t>2025-08-22T19:23:11Z</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2024-11-26T11:00:30Z</t>
-        </is>
+          <t>2025-04-01T04:26:52Z</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>11</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2134,170 +1914,140 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cube</t>
-        </is>
-      </c>
+          <t>openui</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/cube</t>
+          <t>https://github.com/pinokiofactory/openui</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-03-20T21:16:36Z</t>
+          <t>2024-05-08T08:33:21Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-04-23T21:31:18Z</t>
+          <t>2025-06-27T20:12:43Z</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-04-23T21:31:14Z</t>
-        </is>
+          <t>2024-11-28T23:09:18Z</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/Roblox/cube</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2025-03-11T22:09:47Z</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2025-08-25T21:23:46Z</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>15</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>dia</t>
-        </is>
-      </c>
+          <t>pcm</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/dia</t>
+          <t>https://github.com/pinokiofactory/pcm</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-04-22T14:57:53Z</t>
+          <t>2024-06-05T15:35:00Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-08-09T19:37:33Z</t>
+          <t>2025-03-20T03:06:10Z</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-04-24T18:28:53Z</t>
-        </is>
+          <t>2025-03-20T03:06:07Z</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/nari-labs/dia</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>2025-04-19T07:15:57Z</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2025-08-25T20:10:37Z</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>79</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>diamond</t>
-        </is>
-      </c>
+          <t>photomaker2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/diamond</t>
+          <t>https://github.com/pinokiofactory/photomaker2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-10-12T15:37:19Z</t>
+          <t>2024-07-22T16:01:32Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-04-07T18:54:02Z</t>
+          <t>2025-04-24T23:38:22Z</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-03-16T23:31:53Z</t>
-        </is>
+          <t>2025-03-17T00:06:17Z</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/eloialonso/diamond</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>2024-05-19T22:31:40Z</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2025-08-22T05:56:06Z</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>5</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>diffrhythm</t>
+          <t>rc-stableaudio</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/diffrhythm</t>
+          <t>https://github.com/pinokiofactory/rc-stableaudio</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-03-04T22:13:30Z</t>
+          <t>2024-07-29T14:44:01Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-08-26T00:13:13Z</t>
+          <t>2025-03-17T00:05:14Z</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-04-23T21:31:01Z</t>
+          <t>2025-03-17T00:05:11Z</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2308,28 +2058,32 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>diffusers-image-fill</t>
-        </is>
-      </c>
+          <t>sd35</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/diffusers-image-fill</t>
+          <t>https://github.com/pinokiofactory/sd35</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-09-27T17:14:28Z</t>
+          <t>2024-10-22T19:23:06Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-04-17T21:38:12Z</t>
+          <t>2024-10-22T19:50:14Z</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-04-15T20:43:01Z</t>
-        </is>
+          <t>2024-10-22T19:50:11Z</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2340,74 +2094,68 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ditto</t>
-        </is>
-      </c>
+          <t>sillytavern</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/ditto</t>
+          <t>https://github.com/pinokiofactory/sillytavern</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-10-15T21:29:32Z</t>
+          <t>2024-05-21T11:58:31Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-02-07T15:30:11Z</t>
+          <t>2025-04-18T23:43:10Z</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2024-10-15T22:47:07Z</t>
-        </is>
+          <t>2024-08-05T22:50:35Z</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
       </c>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/yoheinakajima/ditto</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>2024-10-15T19:45:13Z</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>2025-08-25T19:07:59Z</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>8</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>dough</t>
-        </is>
-      </c>
+          <t>stable-fast-3d</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/dough</t>
+          <t>https://github.com/pinokiofactory/stable-fast-3d</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-18T11:39:16Z</t>
+          <t>2024-08-01T18:33:57Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-07-19T12:30:00Z</t>
+          <t>2024-08-07T20:21:37Z</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2024-08-14T20:21:12Z</t>
-        </is>
+          <t>2024-08-01T18:34:06Z</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2418,28 +2166,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>e2-f5-tts</t>
-        </is>
-      </c>
+          <t>stableaudio</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/e2-f5-tts</t>
+          <t>https://github.com/pinokiofactory/stableaudio</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-10-13T17:23:57Z</t>
+          <t>2024-06-05T20:15:59Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-08-15T14:33:06Z</t>
+          <t>2025-03-26T18:32:55Z</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-04-24T18:28:35Z</t>
-        </is>
+          <t>2025-03-17T00:31:10Z</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2450,74 +2202,68 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>echomimic2</t>
-        </is>
-      </c>
+          <t>video-background-removal</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/echomimic2</t>
+          <t>https://github.com/pinokiofactory/video-background-removal</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-11-24T07:52:04Z</t>
+          <t>2024-10-11T16:00:13Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-23T21:39:28Z</t>
+          <t>2025-01-23T21:17:20Z</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-23T16:37:56Z</t>
-        </is>
+          <t>2024-10-11T17:35:54Z</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/antgroup/echomimic_v2</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>2024-11-20T08:35:35Z</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>2025-08-25T09:58:26Z</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>81</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>errortest</t>
-        </is>
-      </c>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/errortest</t>
+          <t>https://github.com/pinokiofactory/y</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-11-12T02:01:21Z</t>
+          <t>2024-05-20T15:06:00Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-11-16T03:20:20Z</t>
+          <t>2024-05-20T15:06:01Z</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2024-11-16T03:20:16Z</t>
-        </is>
+          <t>2024-05-20T15:06:01Z</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -2528,1267 +2274,1870 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>facepoke</t>
-        </is>
-      </c>
+          <t>text2midi</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/facepoke</t>
+          <t>https://github.com/pinokiofactory/text2midi</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-10-07T13:28:53Z</t>
+          <t>2024-12-27T18:31:20Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-25T11:16:51Z</t>
+          <t>2024-12-27T19:21:42Z</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-03-16T23:37:31Z</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+          <t>2024-12-27T19:21:39Z</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>AMAAI-Lab/Text2midi</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/AMAAI-Lab/Text2midi</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2024-12-19T07:51:33Z</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2025-08-23T09:27:20Z</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
-      </c>
+          <t>audiocraft_plus</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/factory</t>
+          <t>https://github.com/pinokiofactory/audiocraft_plus</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-08-27T21:49:02Z</t>
+          <t>2024-07-30T17:39:46Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-08-27T21:49:02Z</t>
+          <t>2025-03-17T00:02:40Z</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2024-08-27T21:49:02Z</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+          <t>2025-03-17T00:02:36Z</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>GrandaddyShmax/audiocraft_plus</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/GrandaddyShmax/audiocraft_plus</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2023-06-13T14:44:53Z</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2025-08-23T16:36:07Z</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>flashdiffusion</t>
+          <t>applio</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Pinokio Installer for Applio</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/flashdiffusion</t>
+          <t>https://github.com/pinokiofactory/applio</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-06-07T19:33:04Z</t>
+          <t>2024-09-13T18:29:14Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-03-17T00:27:35Z</t>
+          <t>2025-07-04T22:17:49Z</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-03-17T00:27:32Z</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+          <t>2025-04-04T03:23:37Z</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>IAHispano/Applio</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/IAHispano/Applio</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2023-08-07T22:42:16Z</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2025-08-25T16:16:10Z</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>florence-sam</t>
-        </is>
-      </c>
+          <t>liveportrait</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/florence-sam</t>
+          <t>https://github.com/pinokiofactory/liveportrait</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-08-01T14:15:49Z</t>
+          <t>2024-07-22T12:47:06Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-08-01T18:30:44Z</t>
+          <t>2025-05-19T22:59:51Z</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2024-08-01T18:30:41Z</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+          <t>2025-03-30T07:14:19Z</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>KwaiVGI/LivePortrait</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/KwaiVGI/LivePortrait</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2024-07-03T16:15:03Z</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2025-08-25T15:53:18Z</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>florence2</t>
-        </is>
-      </c>
+          <t>Orpheus-TTS-FastAPI</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/florence2</t>
+          <t>https://github.com/pinokiofactory/Orpheus-TTS-FastAPI</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-06-20T21:16:01Z</t>
+          <t>2025-03-23T05:39:00Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-03-17T00:22:46Z</t>
+          <t>2025-08-25T11:26:07Z</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-03-17T00:22:43Z</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+          <t>2025-04-23T21:32:32Z</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Lex-au/Orpheus-FastAPI</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/Lex-au/Orpheus-FastAPI</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2025-03-21T15:24:16Z</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2025-08-25T18:40:03Z</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>flux-webui</t>
-        </is>
-      </c>
+          <t>mlx-video-transcription</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/flux-webui</t>
+          <t>https://github.com/pinokiofactory/mlx-video-transcription</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-08-07T15:22:56Z</t>
+          <t>2024-08-19T17:41:12Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-08-22T21:34:56Z</t>
+          <t>2025-08-22T00:43:48Z</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-03-17T00:00:23Z</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+          <t>2024-10-03T19:11:23Z</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2024-07-30T08:44:41Z</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2025-08-25T12:16:40Z</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>forge</t>
-        </is>
-      </c>
+          <t>cube</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/forge</t>
+          <t>https://github.com/pinokiofactory/cube</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-05-11T09:24:03Z</t>
+          <t>2025-03-20T21:16:36Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-08-16T22:18:57Z</t>
+          <t>2025-04-23T21:31:18Z</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2024-08-16T22:18:54Z</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>2025-04-23T21:31:14Z</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Roblox/cube</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/Roblox/cube</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2025-03-11T22:09:47Z</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2025-08-26T00:20:50Z</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hallo</t>
-        </is>
-      </c>
+          <t>hertz</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/hallo</t>
+          <t>https://github.com/pinokiofactory/hertz</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-06-15T21:19:25Z</t>
+          <t>2024-11-04T01:04:51Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-08-06T23:33:28Z</t>
+          <t>2024-11-05T08:54:25Z</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-03-17T00:26:25Z</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>2024-11-05T08:54:21Z</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Standard-Intelligence/hertz-dev</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/Standard-Intelligence/hertz-dev</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2024-11-03T14:41:39Z</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2025-08-23T21:06:24Z</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>hertz</t>
-        </is>
-      </c>
+          <t>Hunyuan3D-2</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/hertz</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-11-04T01:04:51Z</t>
+          <t>2025-01-25T04:41:01Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-11-05T08:54:25Z</t>
+          <t>2025-04-09T10:20:31Z</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2024-11-05T08:54:21Z</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>2025-03-16T22:55:58Z</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
+        </is>
+      </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Standard-Intelligence/hertz-dev</t>
+          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2024-11-03T14:41:39Z</t>
+          <t>2025-01-21T05:21:35Z</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2025-08-23T21:06:24Z</t>
+          <t>2025-08-25T23:19:45Z</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>15</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>hunyuanvideo</t>
-        </is>
-      </c>
+          <t>Hunyuan3D-2-mini</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/hunyuanvideo</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3D-2-mini</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-12-11T01:55:53Z</t>
+          <t>2025-01-23T21:29:42Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-07-22T15:37:14Z</t>
+          <t>2025-01-25T03:18:46Z</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-04-23T20:07:52Z</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>2025-01-25T03:50:23Z</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
+        </is>
+      </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/HunyuanVideoGP</t>
+          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2024-12-10T18:34:42Z</t>
+          <t>2025-01-21T05:21:35Z</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2025-08-23T05:58:45Z</t>
+          <t>2025-08-25T23:19:45Z</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>13</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>instantir</t>
+          <t>AudioX</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>AudioX: Diffusion Transformer for Anything-to-Audio Generation</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/instantir</t>
+          <t>https://github.com/pinokiofactory/AudioX</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-11-08T08:05:55Z</t>
+          <t>2025-04-23T00:08:00Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-04-02T21:44:06Z</t>
+          <t>2025-07-12T12:25:25Z</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-04-02T21:44:02Z</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+          <t>2025-07-12T12:25:21Z</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>ZeyueT/AudioX</t>
+        </is>
+      </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/instantX-research/InstantIR</t>
+          <t>https://github.com/ZeyueT/AudioX</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2024-10-20T03:17:01Z</t>
+          <t>2025-03-13T10:18:21Z</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2025-08-25T17:22:40Z</t>
+          <t>2025-08-25T19:41:30Z</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>invoke</t>
+          <t>RMBG-2-Studio</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Enhanced background remove and replace app built around BRIA-RMBG-2.0.  Low VRAM/RAM | 6GB Install</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/invoke</t>
+          <t>https://github.com/pinokiofactory/RMBG-2-Studio</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-05-10T07:32:14Z</t>
+          <t>2024-11-15T07:13:23Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-10-25T07:58:44Z</t>
+          <t>2025-08-23T02:32:30Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2024-10-10T21:32:40Z</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+          <t>2025-05-30T19:29:17Z</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>ZhengPeng7/BiRefNet</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/ZhengPeng7/BiRefNet</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2022-08-17T09:13:39Z</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2025-08-25T16:47:49Z</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>janus</t>
-        </is>
-      </c>
+          <t>zonos</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/janus</t>
+          <t>https://github.com/pinokiofactory/zonos</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-01-27T18:23:47Z</t>
+          <t>2025-02-11T09:00:12Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-01-28T02:37:49Z</t>
+          <t>2025-06-22T00:16:08Z</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-01-28T02:37:46Z</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t>2025-04-10T03:41:12Z</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>11</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Zyphra/Zonos</t>
+        </is>
+      </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepseek-ai/Janus</t>
+          <t>https://github.com/Zyphra/Zonos</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2024-10-18T03:48:16Z</t>
+          <t>2025-02-07T00:32:44Z</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2025-08-25T14:25:25Z</t>
+          <t>2025-08-25T20:59:09Z</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>liveportrait</t>
+          <t>ACE-Step</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>A Step Towards Music Generation Foundation Model</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/liveportrait</t>
+          <t>https://github.com/pinokiofactory/ACE-Step</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-22T12:47:06Z</t>
+          <t>2025-05-07T11:25:33Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-19T22:59:51Z</t>
+          <t>2025-05-08T12:02:23Z</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-03-30T07:14:19Z</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>2025-05-08T12:01:49Z</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>ace-step/ACE-Step</t>
+        </is>
+      </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/KwaiVGI/LivePortrait</t>
+          <t>https://github.com/ace-step/ACE-Step</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2024-07-03T16:15:03Z</t>
+          <t>2025-04-28T07:03:09Z</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2025-08-25T15:53:18Z</t>
+          <t>2025-08-25T21:32:29Z</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>277</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>llamafactory</t>
+          <t>MagicQuill</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>An intelligent, interactive Image Editing System. Easily erase and add objects on a user-friendly interface.</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/llamafactory</t>
+          <t>https://github.com/pinokiofactory/MagicQuill</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-05-09T06:38:54Z</t>
+          <t>2025-02-19T03:58:52Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-03-17T00:35:53Z</t>
+          <t>2025-06-26T05:26:00Z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-03-17T00:35:50Z</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+          <t>2025-06-26T05:25:56Z</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ant-research/MagicQuill</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/ant-research/MagicQuill</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2024-11-12T12:52:36Z</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2025-08-25T15:28:30Z</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>macOS-use</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>We Make Mac apps accessible for AI agents</t>
-        </is>
-      </c>
+          <t>echomimic2</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/macOS-use</t>
+          <t>https://github.com/pinokiofactory/echomimic2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-02-18T16:54:37Z</t>
+          <t>2024-11-24T07:52:04Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-08-14T14:18:00Z</t>
+          <t>2025-06-23T21:39:28Z</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-04-01T04:14:59Z</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t>2025-06-23T16:37:56Z</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>antgroup/echomimic_v2</t>
+        </is>
+      </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/browser-use/macOS-use</t>
+          <t>https://github.com/antgroup/echomimic_v2</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2025-01-23T00:35:15Z</t>
+          <t>2024-11-20T08:35:35Z</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2025-08-25T20:16:49Z</t>
+          <t>2025-08-25T09:58:26Z</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mcp</t>
+          <t>macOS-use</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>We Make Mac apps accessible for AI agents</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/mcp</t>
+          <t>https://github.com/pinokiofactory/macOS-use</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-12-21T14:25:08Z</t>
+          <t>2025-02-18T16:54:37Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-04-28T07:12:22Z</t>
+          <t>2025-08-14T14:18:00Z</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-01-03T15:23:57Z</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
+          <t>2025-04-01T04:14:59Z</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>browser-use/macOS-use</t>
+        </is>
+      </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/user-attachments/assets</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+          <t>https://github.com/browser-use/macOS-use</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2025-01-23T00:35:15Z</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2025-08-25T20:16:49Z</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mlx</t>
-        </is>
-      </c>
+          <t>browser-use</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/mlx</t>
+          <t>https://github.com/pinokiofactory/browser-use</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-06-11T18:20:24Z</t>
+          <t>2025-01-19T21:55:50Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-11-20T20:34:38Z</t>
+          <t>2025-06-18T21:19:01Z</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2024-11-20T20:34:34Z</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+          <t>2025-04-01T04:25:12Z</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>browser-use/web-ui</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/browser-use/web-ui</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2025-01-02T01:29:44Z</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2025-08-25T22:28:48Z</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mlx-video-transcription</t>
-        </is>
-      </c>
+          <t>uno</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/mlx-video-transcription</t>
+          <t>https://github.com/pinokiofactory/uno</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-08-19T17:41:12Z</t>
+          <t>2025-04-10T18:31:57Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-08-22T00:43:48Z</t>
+          <t>2025-08-25T15:10:46Z</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2024-10-03T19:11:23Z</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+          <t>2025-04-23T21:32:48Z</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>bytedance/UNO</t>
+        </is>
+      </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
+          <t>https://github.com/bytedance/UNO</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2024-07-30T08:44:41Z</t>
+          <t>2025-04-01T13:25:11Z</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2025-08-25T12:16:40Z</t>
+          <t>2025-08-25T15:01:21Z</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mochi</t>
-        </is>
-      </c>
+          <t>comfy</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/mochi</t>
+          <t>https://github.com/pinokiofactory/comfy</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-10-23T18:51:07Z</t>
+          <t>2024-08-13T19:47:18Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-10-29T03:03:08Z</t>
+          <t>2025-08-02T05:10:18Z</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2024-10-29T03:03:04Z</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
+          <t>2025-07-03T09:17:46Z</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>comfyanonymous/ComfyUI</t>
+        </is>
+      </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/genmoai/models</t>
+          <t>https://github.com/comfyanonymous/ComfyUI</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2024-09-11T02:55:33Z</t>
+          <t>2023-01-17T03:15:56Z</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-08-24T03:39:01Z</t>
+          <t>2025-08-26T01:10:48Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>65</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>moshi</t>
-        </is>
-      </c>
+          <t>Hunyuan3d-2-lowvram</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/moshi</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3d-2-lowvram</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-09-18T19:39:38Z</t>
+          <t>2025-01-25T04:44:25Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-03-16T23:50:32Z</t>
+          <t>2025-08-11T15:34:34Z</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-03-16T23:50:29Z</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+          <t>2025-04-23T20:08:09Z</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>11</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>deepbeepmeep/Hunyuan3D-2GP</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/deepbeepmeep/Hunyuan3D-2GP</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2025-01-22T01:50:03Z</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2025-08-23T17:56:05Z</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>oasis</t>
-        </is>
-      </c>
+          <t>hunyuanvideo</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/oasis</t>
+          <t>https://github.com/pinokiofactory/hunyuanvideo</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-10-31T23:24:32Z</t>
+          <t>2024-12-11T01:55:53Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-10-31T23:47:38Z</t>
+          <t>2025-07-22T15:37:14Z</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2024-10-31T23:47:35Z</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
+          <t>2025-04-23T20:07:52Z</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>deepbeepmeep/HunyuanVideoGP</t>
+        </is>
+      </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/etched-ai/open-oasis</t>
+          <t>https://github.com/deepbeepmeep/HunyuanVideoGP</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2024-10-31T09:10:45Z</t>
+          <t>2024-12-10T18:34:42Z</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2025-08-25T07:49:01Z</t>
+          <t>2025-08-23T05:58:45Z</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ominicontrol</t>
-        </is>
-      </c>
+          <t>wan</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/ominicontrol</t>
+          <t>https://github.com/pinokiofactory/wan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-11-25T21:32:15Z</t>
+          <t>2025-03-03T17:32:45Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-11-27T09:17:35Z</t>
+          <t>2025-08-09T12:25:22Z</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2024-11-27T09:17:32Z</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+          <t>2025-04-23T20:08:01Z</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>11</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>deepbeepmeep/Wan2GP</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/deepbeepmeep/Wan2GP</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2025-02-27T23:52:36Z</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2025-08-25T20:39:51Z</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>omnigen</t>
-        </is>
-      </c>
+          <t>yue</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/omnigen</t>
+          <t>https://github.com/pinokiofactory/yue</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-10-23T18:24:35Z</t>
+          <t>2025-01-29T11:22:39Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-07-27T14:48:33Z</t>
+          <t>2025-04-01T04:26:29Z</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-04-04T02:49:30Z</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+          <t>2025-04-01T04:26:25Z</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>8</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>deepbeepmeep/YuEGP</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/deepbeepmeep/YuEGP</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2025-01-28T07:23:51Z</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2025-08-22T00:47:18Z</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>omniparser</t>
-        </is>
-      </c>
+          <t>janus</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/omniparser</t>
+          <t>https://github.com/pinokiofactory/janus</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-10-26T06:04:17Z</t>
+          <t>2025-01-27T18:23:47Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-10-28T04:49:07Z</t>
+          <t>2025-01-28T02:37:49Z</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2024-10-26T08:03:10Z</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>2025-01-28T02:37:46Z</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>deepseek-ai/Janus</t>
+        </is>
+      </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/microsoft/OmniParser</t>
+          <t>https://github.com/deepseek-ai/Janus</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2024-09-20T05:18:18Z</t>
+          <t>2024-10-18T03:48:16Z</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2025-08-25T22:36:10Z</t>
+          <t>2025-08-25T23:35:10Z</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>215</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>open-webui</t>
-        </is>
-      </c>
+          <t>diamond</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/open-webui</t>
+          <t>https://github.com/pinokiofactory/diamond</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-23T16:53:00Z</t>
+          <t>2024-10-12T15:37:19Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-08-22T19:23:11Z</t>
+          <t>2025-04-07T18:54:02Z</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-04-01T04:26:52Z</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+          <t>2025-03-16T23:31:53Z</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>eloialonso/diamond</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/eloialonso/diamond</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2024-05-19T22:31:40Z</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2025-08-22T05:56:06Z</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>openaudio</t>
-        </is>
-      </c>
+          <t>AllTalk-TTS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/openaudio</t>
+          <t>https://github.com/pinokiofactory/AllTalk-TTS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-11-02T08:47:31Z</t>
+          <t>2025-02-05T16:24:30Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-08-25T15:11:49Z</t>
+          <t>2025-04-05T16:19:34Z</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-06-06T21:48:46Z</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
+          <t>2025-03-29T16:44:51Z</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>erew123/alltalk_tts</t>
+        </is>
+      </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/fishaudio/fish-speech</t>
+          <t>https://github.com/erew123/alltalk_tts</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2023-10-10T03:16:51Z</t>
+          <t>2023-12-08T09:35:19Z</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2025-08-25T22:23:34Z</t>
+          <t>2025-08-25T14:47:32Z</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>openui</t>
-        </is>
-      </c>
+          <t>oasis</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/openui</t>
+          <t>https://github.com/pinokiofactory/oasis</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-05-08T08:33:21Z</t>
+          <t>2024-10-31T23:24:32Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-06-27T20:12:43Z</t>
+          <t>2024-10-31T23:47:38Z</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2024-11-28T23:09:18Z</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+          <t>2024-10-31T23:47:35Z</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>etched-ai/open-oasis</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/etched-ai/open-oasis</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2024-10-31T09:10:45Z</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2025-08-25T07:49:01Z</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>pcm</t>
-        </is>
-      </c>
+          <t>openaudio</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/pcm</t>
+          <t>https://github.com/pinokiofactory/openaudio</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-06-05T15:35:00Z</t>
+          <t>2024-11-02T08:47:31Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-03-20T03:06:10Z</t>
+          <t>2025-08-25T15:11:49Z</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-03-20T03:06:07Z</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+          <t>2025-06-06T21:48:46Z</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>6</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2023-10-10T03:16:51Z</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2025-08-26T00:13:06Z</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>photomaker2</t>
-        </is>
-      </c>
+          <t>mochi</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/photomaker2</t>
+          <t>https://github.com/pinokiofactory/mochi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-22T16:01:32Z</t>
+          <t>2024-10-23T18:51:07Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-04-24T23:38:22Z</t>
+          <t>2024-10-29T03:03:08Z</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-03-17T00:06:17Z</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+          <t>2024-10-29T03:03:04Z</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>genmoai/mochi</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/genmoai/mochi</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2024-09-11T02:55:33Z</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2025-08-24T03:39:01Z</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>pyramidflow</t>
-        </is>
-      </c>
+          <t>instantir</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/pyramidflow</t>
+          <t>https://github.com/pinokiofactory/instantir</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-11-16T08:35:22Z</t>
+          <t>2024-11-08T08:05:55Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-07-25T00:43:14Z</t>
+          <t>2025-04-02T21:44:06Z</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-04-01T04:29:33Z</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t>2025-04-02T21:44:02Z</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>instantX-research/InstantIR</t>
+        </is>
+      </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/jy0205/Pyramid-Flow</t>
+          <t>https://github.com/instantX-research/InstantIR</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2024-10-06T13:06:31Z</t>
+          <t>2024-10-20T03:17:01Z</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2025-08-24T15:39:48Z</t>
+          <t>2025-08-25T17:22:40Z</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>rc-stableaudio</t>
+          <t>whisper-webui</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Pinokio Installer for Whisper-Webui</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/rc-stableaudio</t>
+          <t>https://github.com/pinokiofactory/whisper-webui</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-29T14:44:01Z</t>
+          <t>2024-09-21T20:42:20Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-03-17T00:05:14Z</t>
+          <t>2025-08-20T16:40:06Z</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-03-17T00:05:11Z</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+          <t>2025-08-20T16:40:02Z</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>jhj0517/Whisper-WebUI</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jhj0517/Whisper-WebUI</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2023-03-02T13:42:01Z</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2025-08-25T14:34:39Z</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sd35</t>
-        </is>
-      </c>
+          <t>pyramidflow</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/sd35</t>
+          <t>https://github.com/pinokiofactory/pyramidflow</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-10-22T19:23:06Z</t>
+          <t>2024-11-16T08:35:22Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-10-22T19:50:14Z</t>
+          <t>2025-07-25T00:43:14Z</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2024-10-22T19:50:11Z</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+          <t>2025-04-01T04:29:33Z</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>jy0205/Pyramid-Flow</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jy0205/Pyramid-Flow</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2024-10-06T13:06:31Z</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2025-08-24T15:39:48Z</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sillytavern</t>
+          <t>Frame-Pack</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>(NVIDIA) FramePack is a next-frame (next-frame-section) prediction neural network structure that generates videos progressively.</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/sillytavern</t>
+          <t>https://github.com/pinokiofactory/Frame-Pack</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-05-21T11:58:31Z</t>
+          <t>2025-04-17T11:43:03Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-04-18T23:43:10Z</t>
+          <t>2025-05-23T10:45:41Z</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2024-08-05T22:50:35Z</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+          <t>2025-05-23T10:45:36Z</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>7</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>lllyasviel/FramePack</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/lllyasviel/FramePack</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2025-04-12T14:45:22Z</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2025-08-26T00:58:58Z</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>438</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3796,6 +4145,7 @@
           <t>stable-diffusion-webui-forge</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
           <t>https://github.com/pinokiofactory/stable-diffusion-webui-forge</t>
@@ -3816,7 +4166,14 @@
           <t>2025-03-25T04:35:05Z</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>lllyasviel/stable-diffusion-webui-forge</t>
+        </is>
+      </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
           <t>https://github.com/lllyasviel/stable-diffusion-webui-forge</t>
@@ -3829,7 +4186,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-08-25T22:04:16Z</t>
+          <t>2025-08-26T00:40:14Z</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3839,558 +4196,699 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>stable-fast-3d</t>
-        </is>
-      </c>
+          <t>omniparser</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/stable-fast-3d</t>
+          <t>https://github.com/pinokiofactory/omniparser</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-08-01T18:33:57Z</t>
+          <t>2024-10-26T06:04:17Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-08-07T20:21:37Z</t>
+          <t>2024-10-28T04:49:07Z</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2024-08-01T18:34:06Z</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+          <t>2024-10-26T08:03:10Z</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>microsoft/OmniParser</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/microsoft/OmniParser</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2024-09-20T05:18:18Z</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2025-08-26T00:53:23Z</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>stableaudio</t>
-        </is>
-      </c>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/stableaudio</t>
+          <t>https://github.com/pinokiofactory/dia</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-06-05T20:15:59Z</t>
+          <t>2025-04-22T14:57:53Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-03-26T18:32:55Z</t>
+          <t>2025-08-09T19:37:33Z</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-03-17T00:31:10Z</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+          <t>2025-04-24T18:28:53Z</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>nari-labs/dia</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/nari-labs/dia</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2025-04-19T07:15:57Z</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2025-08-26T00:30:47Z</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>text2midi</t>
+          <t>clarity-refiners-ui</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Creative Image Enhancer/Upscaler. Powered By Refiners.  8GB VRAM | 10GB Install</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/text2midi</t>
+          <t>https://github.com/pinokiofactory/clarity-refiners-ui</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-12-27T18:31:20Z</t>
+          <t>2024-11-12T07:03:48Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-12-27T19:21:42Z</t>
+          <t>2025-08-06T06:12:42Z</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2024-12-27T19:21:39Z</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
+          <t>2025-05-30T19:33:26Z</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>8</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>philz1337x/clarity-upscaler</t>
+        </is>
+      </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/AMAAI-Lab/Text2midi</t>
+          <t>https://github.com/philz1337x/clarity-upscaler</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2024-12-19T07:51:33Z</t>
+          <t>2024-03-15T15:21:40Z</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2025-08-23T09:27:20Z</t>
+          <t>2025-08-25T10:09:13Z</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>uno</t>
+          <t>Allegro-txt2vid</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Allegro is a powerful text-to-video model that generates high-quality videos up to 6 seconds at 15 FPS and 720p resolution from simple text input.</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/uno</t>
+          <t>https://github.com/pinokiofactory/Allegro-txt2vid</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-04-10T18:31:57Z</t>
+          <t>2024-10-25T06:33:03Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-08-25T15:10:46Z</t>
+          <t>2024-11-05T23:56:50Z</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-04-23T21:32:48Z</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
+          <t>2024-11-05T23:56:47Z</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>rhymes-ai/Allegro</t>
+        </is>
+      </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/bytedance/UNO</t>
+          <t>https://github.com/rhymes-ai/Allegro</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2025-04-01T13:25:11Z</t>
+          <t>2024-10-16T04:04:15Z</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2025-08-25T15:01:21Z</t>
+          <t>2025-08-25T07:53:26Z</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>video-background-removal</t>
+          <t>Allegro-txt2vid-install</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Allegro-txt2vid. WARNING: takes a long time to generate a result, 1hr on a 3090. 12GB+ VRAM | 32GB+ RAM | 30GB Download. Check the README for details</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/video-background-removal</t>
+          <t>https://github.com/pinokiofactory/Allegro-txt2vid-install</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-10-11T16:00:13Z</t>
+          <t>2024-10-27T14:58:05Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-01-23T21:17:20Z</t>
+          <t>2025-06-05T20:04:12Z</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2024-10-11T17:35:54Z</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+          <t>2025-03-16T23:27:46Z</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>rhymes-ai/Allegro</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/rhymes-ai/Allegro</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2024-10-16T04:04:15Z</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2025-08-25T07:53:26Z</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>wan</t>
+          <t>RuinedFooocus</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(NVIDIA ONLY) Forget everything you thought you knew about AI art generation - RuinedFooocus is here to completely reinvent the game! This groundbreaking image creator combines the best aspects of Stable Diffusion and Midjourney into one seamless, cutting-edge experience. </t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/wan</t>
+          <t>https://github.com/pinokiofactory/RuinedFooocus</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-03-03T17:32:45Z</t>
+          <t>2025-04-22T14:09:26Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-08-09T12:25:22Z</t>
+          <t>2025-08-12T18:53:54Z</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-04-23T20:08:01Z</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
+          <t>2025-08-12T18:53:51Z</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>runew0lf/RuinedFooocus</t>
+        </is>
+      </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/Wan2GP</t>
+          <t>https://github.com/runew0lf/RuinedFooocus</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2025-02-27T23:52:36Z</t>
+          <t>2023-08-16T09:20:46Z</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2025-08-25T20:39:51Z</t>
+          <t>2025-08-24T00:02:37Z</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>285</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>whisper-webui</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Pinokio Installer for Whisper-Webui</t>
-        </is>
-      </c>
+          <t>bolt</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/whisper-webui</t>
+          <t>https://github.com/pinokiofactory/bolt</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-09-21T20:42:20Z</t>
+          <t>2024-10-30T04:46:10Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-08-20T16:40:06Z</t>
+          <t>2025-08-10T17:36:10Z</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-08-20T16:40:02Z</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
+          <t>2025-04-01T04:27:03Z</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>16</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>stackblitz-labs/bolt.diy</t>
+        </is>
+      </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/jhj0517/Whisper-WebUI</t>
+          <t>https://github.com/stackblitz-labs/bolt.diy</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2023-03-02T13:42:01Z</t>
+          <t>2024-10-13T18:40:54Z</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2025-08-25T14:34:39Z</t>
+          <t>2025-08-26T00:41:58Z</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>124</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>ditto</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/y</t>
+          <t>https://github.com/pinokiofactory/ditto</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-05-20T15:06:00Z</t>
+          <t>2024-10-15T21:29:32Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-05-20T15:06:01Z</t>
+          <t>2025-02-07T15:30:11Z</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2024-05-20T15:06:01Z</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+          <t>2024-10-15T22:47:07Z</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>yoheinakajima/ditto</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/yoheinakajima/ditto</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2024-10-15T19:45:13Z</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2025-08-25T19:07:59Z</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>yue</t>
-        </is>
-      </c>
+          <t>cogstudio</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/yue</t>
+          <t>https://github.com/pinokiofactory/cogstudio</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025-01-29T11:22:39Z</t>
+          <t>2024-09-20T10:46:17Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-04-01T04:26:29Z</t>
+          <t>2025-08-23T05:03:31Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-04-01T04:26:25Z</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
+          <t>2025-03-16T23:49:17Z</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>37</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>zai-org/CogVideo</t>
+        </is>
+      </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/YuEGP</t>
+          <t>https://github.com/zai-org/CogVideo</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2025-01-28T07:23:51Z</t>
+          <t>2022-05-29T06:46:18Z</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-08-22T00:47:18Z</t>
+          <t>2025-08-25T17:05:50Z</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>zonos</t>
-        </is>
-      </c>
+          <t>cogvideo</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/zonos</t>
+          <t>https://github.com/pinokiofactory/cogvideo</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-02-11T09:00:12Z</t>
+          <t>2024-08-30T10:13:02Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-06-22T00:16:08Z</t>
+          <t>2025-05-16T03:00:05Z</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-04-10T03:41:12Z</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
+          <t>2025-03-16T23:56:15Z</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>zai-org/CogVideo</t>
+        </is>
+      </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Zyphra/Zonos</t>
+          <t>https://github.com/zai-org/CogVideo</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2025-02-07T00:32:44Z</t>
+          <t>2022-05-29T06:46:18Z</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2025-08-25T20:59:09Z</t>
+          <t>2025-08-25T17:05:50Z</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I3" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I4" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I5" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I6" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I7" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I8" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I9" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I10" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C11" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C12" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C13" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I14" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I15" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I16" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C17" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I17" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I18" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C19" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I19" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C20" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I20" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I21" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C22" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C23" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I23" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C24" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C25" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C26" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I26" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C27" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C28" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I29" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C30" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C31" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C32" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C33" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I33" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C34" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I34" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I35" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C36" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I36" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C37" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I37" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C38" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I38" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C39" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C40" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I40" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C41" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I41" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C42" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I42" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C43" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C44" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C45" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I45" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C46" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C47" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C48" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I48" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C49" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C50" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C51" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C52" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C53" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C54" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C55" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C56" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C57" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C58" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I58" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C59" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I59" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C60" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I60" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C61" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C62" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I62" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C63" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I63" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C64" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C65" r:id="rId100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I65" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C66" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I66" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C67" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C68" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I68" r:id="rId106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C69" r:id="rId107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I69" r:id="rId108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C70" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C71" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I71" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C72" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C73" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C74" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I74" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C75" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C76" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I76" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C77" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C78" r:id="rId120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C79" r:id="rId121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C80" r:id="rId122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I80" r:id="rId123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C81" r:id="rId124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C82" r:id="rId125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C83" r:id="rId126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C84" r:id="rId127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I84" r:id="rId128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C85" r:id="rId129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C86" r:id="rId130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C87" r:id="rId131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I87" r:id="rId132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C88" r:id="rId133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I88" r:id="rId134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C89" r:id="rId135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C90" r:id="rId136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I90" r:id="rId137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C91" r:id="rId138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I91" r:id="rId139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C92" r:id="rId140"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C93" r:id="rId141"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I93" r:id="rId142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C94" r:id="rId143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I94" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C38" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C39" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C40" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C41" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C42" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C43" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C44" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C45" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I50" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C51" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I51" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C52" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I52" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C53" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I53" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C54" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I54" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C55" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I55" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C56" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I56" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C57" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I57" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C58" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I58" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C59" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I59" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C60" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I60" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C61" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I61" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C62" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I62" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C63" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I63" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C64" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I64" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C65" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I65" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C66" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I66" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C67" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I67" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C68" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I68" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C69" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I69" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C70" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I70" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C71" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I71" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C72" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I72" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C73" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I73" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C74" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I74" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C75" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I75" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C76" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I76" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C77" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I77" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C78" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I78" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C79" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I79" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C80" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I80" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C81" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I81" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C82" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I82" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C83" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I83" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C84" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I84" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C85" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I85" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C86" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I86" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C87" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I87" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C88" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I88" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C89" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I89" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C90" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I90" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C91" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I91" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C92" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I92" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C93" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I93" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C94" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I94" r:id="rId138"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-08-26T00:13:13Z</t>
+          <t>2025-08-26T15:39:13Z</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-03-26T18:32:55Z</t>
+          <t>2025-08-26T07:03:13Z</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-08-23T02:32:30Z</t>
+          <t>2025-08-28T10:01:55Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-08-25T16:47:49Z</t>
+          <t>2025-08-30T09:42:59Z</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-08-23T05:03:31Z</t>
+          <t>2025-08-26T22:32:59Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-08-25T17:05:50Z</t>
+          <t>2025-08-30T11:54:31Z</t>
         </is>
       </c>
       <c r="L93" t="n">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -1102,7 +1102,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-08T08:57:50Z</t>
+          <t>2025-09-03T18:51:19Z</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-04T22:17:49Z</t>
+          <t>2025-09-01T17:52:31Z</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-04-04T03:23:37Z</t>
+          <t>2025-09-01T17:52:27Z</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2430,11 +2430,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-08-25T16:16:10Z</t>
+          <t>2025-09-06T22:22:17Z</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-08-25T15:11:49Z</t>
+          <t>2025-09-02T01:06:16Z</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3854,11 +3854,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2025-08-26T00:13:06Z</t>
+          <t>2025-09-06T23:51:01Z</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-23T10:45:41Z</t>
+          <t>2025-09-05T21:07:56Z</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-23T10:45:36Z</t>
+          <t>2025-09-05T21:07:52Z</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -4132,11 +4132,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2025-08-26T00:58:58Z</t>
+          <t>2025-09-07T06:01:03Z</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-08-06T06:12:42Z</t>
+          <t>2025-09-03T13:36:41Z</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4333,7 +4333,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2025-08-25T10:09:13Z</t>
+          <t>2025-09-07T03:14:15Z</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-02-07T15:30:11Z</t>
+          <t>2025-09-03T08:30:00Z</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2025-08-25T19:07:59Z</t>
+          <t>2025-09-03T08:30:00Z</t>
         </is>
       </c>
       <c r="L92" t="n">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -574,12 +574,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-12T17:51:17Z</t>
+          <t>2025-09-11T15:25:32Z</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-12T17:51:14Z</t>
+          <t>2025-09-11T15:25:29Z</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-09T14:23:58Z</t>
+          <t>2025-09-08T19:29:13Z</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-08-22T21:34:56Z</t>
+          <t>2025-09-12T15:52:28Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-03-17T00:35:53Z</t>
+          <t>2025-09-08T21:05:58Z</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-09-01T17:52:31Z</t>
+          <t>2025-09-11T17:19:43Z</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-09-01T17:52:27Z</t>
+          <t>2025-09-09T23:35:35Z</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2430,11 +2430,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-09-06T22:22:17Z</t>
+          <t>2025-09-13T20:38:52Z</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-08-28T10:01:55Z</t>
+          <t>2025-09-12T20:34:23Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-08-30T09:42:59Z</t>
+          <t>2025-09-13T23:59:50Z</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-08-14T14:18:00Z</t>
+          <t>2025-09-10T02:12:38Z</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-08-25T20:16:49Z</t>
+          <t>2025-09-13T22:18:55Z</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-18T21:19:01Z</t>
+          <t>2025-09-09T09:14:05Z</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3260,11 +3260,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-08-25T22:28:48Z</t>
+          <t>2025-09-13T20:57:59Z</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-08-02T05:10:18Z</t>
+          <t>2025-09-12T12:34:19Z</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-08-26T01:10:48Z</t>
+          <t>2025-09-14T05:33:17Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2742</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="70">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-08-09T12:25:22Z</t>
+          <t>2025-09-10T10:29:37Z</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3530,11 +3530,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-08-25T20:39:51Z</t>
+          <t>2025-09-13T18:03:30Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>285</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-08-20T16:40:06Z</t>
+          <t>2025-09-09T09:18:40Z</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4020,11 +4020,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2025-08-25T14:34:39Z</t>
+          <t>2025-09-14T04:35:01Z</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-08-09T19:37:33Z</t>
+          <t>2025-09-13T16:37:07Z</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4294,11 +4294,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2025-08-26T00:30:47Z</t>
+          <t>2025-09-13T23:07:42Z</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -574,12 +574,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-11T15:25:32Z</t>
+          <t>2025-09-16T14:13:32Z</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-11T15:25:29Z</t>
+          <t>2025-09-16T14:13:28Z</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-30T07:49:31Z</t>
+          <t>2025-09-18T15:33:13Z</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-23T10:00:53Z</t>
+          <t>2025-09-16T21:53:10Z</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2025-08-23T09:27:20Z</t>
+          <t>2025-09-16T02:18:45Z</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2025-08-23T16:36:07Z</t>
+          <t>2025-09-11T15:44:40Z</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2430,11 +2430,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-09-13T20:38:52Z</t>
+          <t>2025-09-21T00:57:49Z</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2025-08-25T15:53:18Z</t>
+          <t>2025-09-21T03:32:13Z</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2538,11 +2538,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-08-25T18:40:03Z</t>
+          <t>2025-09-18T20:13:40Z</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2025-08-25T12:16:40Z</t>
+          <t>2025-09-19T03:34:34Z</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2646,11 +2646,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2025-08-26T00:20:50Z</t>
+          <t>2025-09-19T06:58:17Z</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2025-08-23T21:06:24Z</t>
+          <t>2025-09-20T23:21:59Z</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2754,11 +2754,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2025-08-25T23:19:45Z</t>
+          <t>2025-09-21T05:25:21Z</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2025-08-25T23:19:45Z</t>
+          <t>2025-09-21T05:25:21Z</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60">
@@ -2866,11 +2866,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2025-08-25T19:41:30Z</t>
+          <t>2025-09-19T21:15:54Z</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-09-12T20:34:23Z</t>
+          <t>2025-09-20T18:00:15Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-09-13T23:59:50Z</t>
+          <t>2025-09-21T05:51:27Z</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2978,11 +2978,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2025-08-25T20:59:09Z</t>
+          <t>2025-09-20T20:06:39Z</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63">
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3036,11 +3036,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2025-08-25T21:32:29Z</t>
+          <t>2025-09-21T01:57:49Z</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-08-25T15:28:30Z</t>
+          <t>2025-09-20T13:29:33Z</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -3148,11 +3148,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2025-08-25T09:58:26Z</t>
+          <t>2025-09-20T10:05:20Z</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-09-13T22:18:55Z</t>
+          <t>2025-09-19T21:11:25Z</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-09-13T20:57:59Z</t>
+          <t>2025-09-21T05:20:56Z</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -3314,11 +3314,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2025-08-25T15:01:21Z</t>
+          <t>2025-09-18T23:04:32Z</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-09-14T05:33:17Z</t>
+          <t>2025-09-21T06:34:02Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2867</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="70">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2025-08-23T17:56:05Z</t>
+          <t>2025-09-19T20:44:45Z</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2025-08-23T05:58:45Z</t>
+          <t>2025-09-08T11:52:06Z</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -3530,11 +3530,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-09-13T18:03:30Z</t>
+          <t>2025-09-21T04:35:26Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>342</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-08-22T00:47:18Z</t>
+          <t>2025-09-13T09:21:02Z</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -3638,11 +3638,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2025-08-25T23:35:10Z</t>
+          <t>2025-09-21T05:17:00Z</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2025-08-22T05:56:06Z</t>
+          <t>2025-09-21T06:16:48Z</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3746,11 +3746,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2025-08-25T14:47:32Z</t>
+          <t>2025-09-20T09:40:05Z</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2025-08-25T07:49:01Z</t>
+          <t>2025-09-20T23:40:37Z</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3854,11 +3854,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2025-09-06T23:51:01Z</t>
+          <t>2025-09-21T06:24:27Z</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
@@ -3908,11 +3908,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2025-08-24T03:39:01Z</t>
+          <t>2025-09-21T03:27:15Z</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2025-08-25T17:22:40Z</t>
+          <t>2025-09-20T11:35:32Z</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2025-09-14T04:35:01Z</t>
+          <t>2025-09-21T05:36:38Z</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -4074,11 +4074,11 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2025-08-24T15:39:48Z</t>
+          <t>2025-09-21T03:20:18Z</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83">
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4132,11 +4132,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2025-09-07T06:01:03Z</t>
+          <t>2025-09-21T05:31:13Z</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84">
@@ -4186,11 +4186,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-08-26T00:40:14Z</t>
+          <t>2025-09-20T11:40:56Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1091</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="85">
@@ -4240,11 +4240,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2025-08-26T00:53:23Z</t>
+          <t>2025-09-21T04:28:36Z</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86">
@@ -4294,11 +4294,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2025-09-13T23:07:42Z</t>
+          <t>2025-09-21T04:56:32Z</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87">
@@ -4333,7 +4333,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2025-09-07T03:14:15Z</t>
+          <t>2025-09-20T22:34:24Z</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2025-08-25T07:53:26Z</t>
+          <t>2025-09-17T07:16:22Z</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2025-08-25T07:53:26Z</t>
+          <t>2025-09-17T07:16:22Z</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -4526,11 +4526,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2025-08-24T00:02:37Z</t>
+          <t>2025-09-14T03:24:01Z</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
@@ -4580,11 +4580,11 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2025-08-26T00:41:58Z</t>
+          <t>2025-09-21T06:09:07Z</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>258</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2025-09-03T08:30:00Z</t>
+          <t>2025-09-14T05:30:12Z</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-08-26T22:32:59Z</t>
+          <t>2025-09-16T00:31:01Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4688,11 +4688,11 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-08-30T11:54:31Z</t>
+          <t>2025-09-21T00:29:29Z</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94">
@@ -4742,11 +4742,11 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2025-08-25T17:05:50Z</t>
+          <t>2025-09-21T00:29:29Z</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -730,7 +730,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-16T21:53:10Z</t>
+          <t>2025-09-27T04:26:33Z</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-08-15T14:33:06Z</t>
+          <t>2025-09-27T11:38:47Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-10-25T07:58:44Z</t>
+          <t>2025-09-27T19:37:36Z</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-03-17T00:05:14Z</t>
+          <t>2025-09-27T04:27:09Z</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-08-25T11:26:07Z</t>
+          <t>2025-09-26T03:47:29Z</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-09-18T20:13:40Z</t>
+          <t>2025-09-27T09:22:28Z</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-09-10T02:12:38Z</t>
+          <t>2025-09-22T21:23:38Z</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-09-19T21:11:25Z</t>
+          <t>2025-09-28T05:16:15Z</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-09-12T12:34:19Z</t>
+          <t>2025-09-26T20:40:39Z</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-09-21T06:34:02Z</t>
+          <t>2025-09-28T06:30:42Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2926</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="70">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-09-02T01:06:16Z</t>
+          <t>2025-09-23T09:24:42Z</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3854,11 +3854,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2025-09-21T06:24:27Z</t>
+          <t>2025-09-28T05:58:50Z</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-09-05T21:07:56Z</t>
+          <t>2025-09-27T07:32:34Z</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4132,11 +4132,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2025-09-21T05:31:13Z</t>
+          <t>2025-09-28T06:30:01Z</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -574,12 +574,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-16T14:13:32Z</t>
+          <t>2025-09-30T19:49:28Z</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-16T14:13:28Z</t>
+          <t>2025-09-30T19:49:25Z</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-17T21:38:47Z</t>
+          <t>2025-10-04T15:42:37Z</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07T23:10:29Z</t>
+          <t>2025-10-03T23:36:25Z</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-09-27T11:38:47Z</t>
+          <t>2025-09-29T13:52:39Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-25T11:16:51Z</t>
+          <t>2025-10-03T23:35:21Z</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-09-12T15:52:28Z</t>
+          <t>2025-10-04T13:56:10Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-27T20:12:43Z</t>
+          <t>2025-10-04T13:56:06Z</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-09-20T18:00:15Z</t>
+          <t>2025-10-03T03:44:15Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-09-21T05:51:27Z</t>
+          <t>2025-10-04T14:48:20Z</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-09-26T20:40:39Z</t>
+          <t>2025-10-04T13:56:10Z</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-09-28T06:30:42Z</t>
+          <t>2025-10-05T06:00:45Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2961</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="70">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-09-10T10:29:37Z</t>
+          <t>2025-10-03T20:13:42Z</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3530,11 +3530,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-09-21T04:35:26Z</t>
+          <t>2025-10-05T02:39:21Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-04-01T04:26:29Z</t>
+          <t>2025-09-28T21:00:54Z</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-09-13T09:21:02Z</t>
+          <t>2025-10-04T14:03:41Z</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-09-09T09:18:40Z</t>
+          <t>2025-10-01T17:34:29Z</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4001,7 +4001,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4020,11 +4020,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2025-09-21T05:36:38Z</t>
+          <t>2025-10-05T02:59:58Z</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-08-09T03:48:12Z</t>
+          <t>2025-10-04T13:56:10Z</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4186,11 +4186,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-09-20T11:40:56Z</t>
+          <t>2025-10-05T04:39:40Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="85">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-08-12T18:53:54Z</t>
+          <t>2025-09-30T19:49:55Z</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-08-12T18:53:51Z</t>
+          <t>2025-09-30T19:49:51Z</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4526,11 +4526,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2025-09-14T03:24:01Z</t>
+          <t>2025-10-04T14:21:30Z</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-09-16T00:31:01Z</t>
+          <t>2025-09-28T13:21:04Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4688,11 +4688,11 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-09-21T00:29:29Z</t>
+          <t>2025-10-05T03:29:14Z</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -850,7 +850,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-03T23:36:25Z</t>
+          <t>2025-10-06T09:31:47Z</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-10-03T23:35:21Z</t>
+          <t>2025-10-06T09:30:36Z</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-10-04T13:56:10Z</t>
+          <t>2025-10-07T12:37:35Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-10-04T13:56:06Z</t>
+          <t>2025-10-07T12:37:30Z</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-09-26T03:47:29Z</t>
+          <t>2025-10-08T15:53:20Z</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2538,11 +2538,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-09-27T09:22:28Z</t>
+          <t>2025-10-09T12:16:13Z</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-10-03T03:44:15Z</t>
+          <t>2025-10-11T14:21:12Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-10-04T14:48:20Z</t>
+          <t>2025-10-11T10:58:10Z</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-10-04T13:56:10Z</t>
+          <t>2025-10-07T12:37:36Z</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3368,11 +3368,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-10-05T06:00:45Z</t>
+          <t>2025-10-12T06:25:40Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3012</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="70">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-10-04T13:56:10Z</t>
+          <t>2025-10-07T12:37:36Z</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4186,11 +4186,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-10-05T04:39:40Z</t>
+          <t>2025-10-11T16:45:00Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="85">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-08-10T17:36:10Z</t>
+          <t>2025-10-09T16:39:05Z</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4561,7 +4561,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -4580,11 +4580,11 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2025-09-21T06:09:07Z</t>
+          <t>2025-10-12T06:28:04Z</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-09-28T13:21:04Z</t>
+          <t>2025-10-05T12:32:40Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4688,11 +4688,11 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-10-05T03:29:14Z</t>
+          <t>2025-10-12T03:59:39Z</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -810,7 +810,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-04T15:42:37Z</t>
+          <t>2025-10-18T02:16:10Z</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-09-29T13:52:39Z</t>
+          <t>2025-10-18T14:51:08Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-09-27T19:37:36Z</t>
+          <t>2025-10-18T18:16:21Z</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-27T14:48:33Z</t>
+          <t>2025-10-18T02:24:05Z</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2025-09-16T02:18:45Z</t>
+          <t>2025-10-13T03:24:48Z</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2025-09-11T15:44:40Z</t>
+          <t>2025-10-10T14:07:21Z</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2430,11 +2430,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-09-21T00:57:49Z</t>
+          <t>2025-10-19T06:09:47Z</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
@@ -2484,11 +2484,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2025-09-21T03:32:13Z</t>
+          <t>2025-10-18T17:04:59Z</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-10-09T12:16:13Z</t>
+          <t>2025-10-18T13:43:10Z</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2025-09-19T03:34:34Z</t>
+          <t>2025-10-15T05:57:36Z</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2025-09-19T06:58:17Z</t>
+          <t>2025-10-17T06:19:52Z</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2700,11 +2700,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2025-09-20T23:21:59Z</t>
+          <t>2025-10-14T13:56:38Z</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -2754,11 +2754,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2025-09-21T05:25:21Z</t>
+          <t>2025-10-19T04:54:00Z</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2025-09-21T05:25:21Z</t>
+          <t>2025-10-19T04:54:00Z</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60">
@@ -2866,11 +2866,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2025-09-19T21:15:54Z</t>
+          <t>2025-10-18T08:11:50Z</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-10-11T14:21:12Z</t>
+          <t>2025-10-17T10:58:55Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-10-11T10:58:10Z</t>
+          <t>2025-10-19T05:46:28Z</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -2978,11 +2978,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2025-09-20T20:06:39Z</t>
+          <t>2025-10-18T19:08:19Z</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63">
@@ -3036,11 +3036,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2025-09-21T01:57:49Z</t>
+          <t>2025-10-18T17:40:57Z</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
@@ -3094,11 +3094,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-09-20T13:29:33Z</t>
+          <t>2025-10-15T20:47:29Z</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65">
@@ -3148,11 +3148,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2025-09-20T10:05:20Z</t>
+          <t>2025-10-17T15:25:30Z</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-09-28T05:16:15Z</t>
+          <t>2025-10-16T21:28:50Z</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -3260,11 +3260,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-09-21T05:20:56Z</t>
+          <t>2025-10-19T01:14:30Z</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68">
@@ -3314,11 +3314,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2025-09-18T23:04:32Z</t>
+          <t>2025-10-18T06:08:55Z</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-10-12T06:25:40Z</t>
+          <t>2025-10-19T06:29:44Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3029</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="70">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-08-11T15:34:34Z</t>
+          <t>2025-10-16T13:07:41Z</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3422,11 +3422,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2025-09-19T20:44:45Z</t>
+          <t>2025-10-16T13:06:46Z</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2025-09-08T11:52:06Z</t>
+          <t>2025-10-09T04:28:18Z</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -3530,11 +3530,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-10-05T02:39:21Z</t>
+          <t>2025-10-19T00:31:04Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-10-04T14:03:41Z</t>
+          <t>2025-10-16T21:45:10Z</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2025-09-21T05:17:00Z</t>
+          <t>2025-10-19T02:26:39Z</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2025-09-21T06:16:48Z</t>
+          <t>2025-10-18T09:04:17Z</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3746,11 +3746,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2025-09-20T09:40:05Z</t>
+          <t>2025-10-18T16:16:21Z</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2025-09-20T23:40:37Z</t>
+          <t>2025-10-15T09:30:43Z</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3854,11 +3854,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2025-09-28T05:58:50Z</t>
+          <t>2025-10-19T05:58:13Z</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2025-09-21T03:27:15Z</t>
+          <t>2025-10-19T03:22:18Z</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2025-09-20T11:35:32Z</t>
+          <t>2025-10-09T09:20:09Z</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -4020,11 +4020,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2025-10-05T02:59:58Z</t>
+          <t>2025-10-18T08:07:39Z</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2025-09-21T03:20:18Z</t>
+          <t>2025-10-17T01:25:07Z</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-09-27T07:32:34Z</t>
+          <t>2025-10-18T02:19:25Z</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4132,11 +4132,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2025-09-28T06:30:01Z</t>
+          <t>2025-10-18T21:14:21Z</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84">
@@ -4186,11 +4186,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-10-11T16:45:00Z</t>
+          <t>2025-10-19T03:50:46Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1108</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="85">
@@ -4240,11 +4240,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2025-09-21T04:28:36Z</t>
+          <t>2025-10-19T04:49:02Z</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2025-09-21T04:56:32Z</t>
+          <t>2025-10-19T06:16:15Z</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2025-09-20T22:34:24Z</t>
+          <t>2025-10-18T15:29:07Z</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -4410,11 +4410,11 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2025-09-17T07:16:22Z</t>
+          <t>2025-10-15T16:11:03Z</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -4468,11 +4468,11 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2025-09-17T07:16:22Z</t>
+          <t>2025-10-15T16:11:03Z</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -4526,11 +4526,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2025-10-04T14:21:30Z</t>
+          <t>2025-10-18T17:02:28Z</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-10-09T16:39:05Z</t>
+          <t>2025-10-17T18:56:53Z</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4580,11 +4580,11 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2025-10-12T06:28:04Z</t>
+          <t>2025-10-18T21:07:30Z</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2025-09-14T05:30:12Z</t>
+          <t>2025-10-18T15:55:19Z</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-10-05T12:32:40Z</t>
+          <t>2025-10-16T10:04:22Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4688,11 +4688,11 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-10-12T03:59:39Z</t>
+          <t>2025-10-19T04:31:40Z</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
@@ -4742,11 +4742,11 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2025-09-21T00:29:29Z</t>
+          <t>2025-10-19T04:31:40Z</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-10-01T17:34:29Z</t>
+          <t>2025-10-22T20:55:22Z</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2025-10-18T08:07:39Z</t>
+          <t>2025-10-25T10:31:01Z</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-10-18T02:19:25Z</t>
+          <t>2025-10-21T16:48:57Z</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4132,11 +4132,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2025-10-18T21:14:21Z</t>
+          <t>2025-10-26T06:08:31Z</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-18T15:33:13Z</t>
+          <t>2025-11-01T03:21:48Z</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2025-10-13T03:24:48Z</t>
+          <t>2025-10-29T19:15:49Z</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2025-10-10T14:07:21Z</t>
+          <t>2025-10-23T07:23:48Z</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-10-19T06:09:47Z</t>
+          <t>2025-11-01T16:39:53Z</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2484,11 +2484,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2025-10-18T17:04:59Z</t>
+          <t>2025-11-01T22:35:18Z</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-10-18T13:43:10Z</t>
+          <t>2025-11-01T21:52:07Z</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2025-10-15T05:57:36Z</t>
+          <t>2025-10-30T03:01:19Z</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2025-10-17T06:19:52Z</t>
+          <t>2025-11-01T18:10:49Z</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2025-10-14T13:56:38Z</t>
+          <t>2025-11-01T14:45:59Z</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2754,11 +2754,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2025-10-19T04:54:00Z</t>
+          <t>2025-11-02T03:16:09Z</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2025-10-19T04:54:00Z</t>
+          <t>2025-11-02T03:16:09Z</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2025-10-18T08:11:50Z</t>
+          <t>2025-11-01T02:15:17Z</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-10-17T10:58:55Z</t>
+          <t>2025-10-30T14:55:40Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-10-19T05:46:28Z</t>
+          <t>2025-11-02T03:08:59Z</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2025-10-18T19:08:19Z</t>
+          <t>2025-11-02T04:02:30Z</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08T12:02:23Z</t>
+          <t>2025-10-28T20:11:36Z</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08T12:01:49Z</t>
+          <t>2025-10-28T20:11:32Z</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -3036,11 +3036,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2025-10-18T17:40:57Z</t>
+          <t>2025-11-02T01:01:01Z</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-26T05:26:00Z</t>
+          <t>2025-11-01T05:04:57Z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-26T05:25:56Z</t>
+          <t>2025-11-01T05:04:53Z</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-10-15T20:47:29Z</t>
+          <t>2025-10-31T06:53:05Z</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -3148,11 +3148,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2025-10-17T15:25:30Z</t>
+          <t>2025-11-01T04:45:46Z</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-10-16T21:28:50Z</t>
+          <t>2025-11-02T01:02:28Z</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -3260,11 +3260,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-10-19T01:14:30Z</t>
+          <t>2025-11-02T02:44:56Z</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68">
@@ -3314,11 +3314,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2025-10-18T06:08:55Z</t>
+          <t>2025-11-02T04:56:14Z</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-10-19T06:29:44Z</t>
+          <t>2025-11-02T06:32:27Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3065</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="70">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2025-10-16T13:06:46Z</t>
+          <t>2025-10-27T15:34:28Z</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2025-10-09T04:28:18Z</t>
+          <t>2025-10-31T11:02:40Z</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -3530,11 +3530,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-10-19T00:31:04Z</t>
+          <t>2025-11-02T04:49:10Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-10-16T21:45:10Z</t>
+          <t>2025-10-28T03:11:53Z</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3638,11 +3638,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2025-10-19T02:26:39Z</t>
+          <t>2025-11-02T05:55:10Z</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2025-10-18T09:04:17Z</t>
+          <t>2025-11-01T08:21:52Z</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2025-10-18T16:16:21Z</t>
+          <t>2025-11-02T03:59:24Z</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2025-10-15T09:30:43Z</t>
+          <t>2025-11-01T13:55:02Z</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3854,11 +3854,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2025-10-19T05:58:13Z</t>
+          <t>2025-11-02T01:27:06Z</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
@@ -3908,11 +3908,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2025-10-19T03:22:18Z</t>
+          <t>2025-10-31T08:15:58Z</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80">
@@ -4020,11 +4020,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2025-10-25T10:31:01Z</t>
+          <t>2025-11-01T11:57:57Z</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2025-10-17T01:25:07Z</t>
+          <t>2025-10-30T09:52:09Z</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -4132,11 +4132,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2025-10-26T06:08:31Z</t>
+          <t>2025-11-02T03:20:26Z</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84">
@@ -4186,11 +4186,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-10-19T03:50:46Z</t>
+          <t>2025-11-02T03:26:42Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1111</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="85">
@@ -4240,11 +4240,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2025-10-19T04:49:02Z</t>
+          <t>2025-11-01T11:37:12Z</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2025-10-19T06:16:15Z</t>
+          <t>2025-11-02T02:57:19Z</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -4324,16 +4324,16 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-09-03T13:36:41Z</t>
+          <t>2025-10-26T23:06:53Z</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-30T19:33:26Z</t>
+          <t>2025-10-26T23:06:48Z</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2025-10-18T15:29:07Z</t>
+          <t>2025-11-02T02:51:23Z</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2025-10-15T16:11:03Z</t>
+          <t>2025-10-30T10:36:47Z</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2025-10-15T16:11:03Z</t>
+          <t>2025-10-30T10:36:47Z</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-09-30T19:49:55Z</t>
+          <t>2025-10-30T19:53:32Z</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-09-30T19:49:51Z</t>
+          <t>2025-10-30T19:53:29Z</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4526,11 +4526,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2025-10-18T17:02:28Z</t>
+          <t>2025-10-30T12:45:32Z</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
@@ -4580,11 +4580,11 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2025-10-18T21:07:30Z</t>
+          <t>2025-11-02T02:49:53Z</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2025-10-18T15:55:19Z</t>
+          <t>2025-10-26T10:46:39Z</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -4688,11 +4688,11 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-10-19T04:31:40Z</t>
+          <t>2025-11-02T06:26:20Z</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94">
@@ -4742,11 +4742,11 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2025-10-19T04:31:40Z</t>
+          <t>2025-11-02T06:26:20Z</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -574,12 +574,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-30T19:49:28Z</t>
+          <t>2025-11-02T19:01:25Z</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-30T19:49:25Z</t>
+          <t>2025-11-02T19:01:22Z</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -650,12 +650,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-08T19:29:13Z</t>
+          <t>2025-11-02T20:31:52Z</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-28T04:00:56Z</t>
+          <t>2025-11-02T20:31:48Z</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -690,12 +690,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-15T09:11:42Z</t>
+          <t>2025-11-04T01:32:55Z</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-23T21:30:28Z</t>
+          <t>2025-11-04T01:32:51Z</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-08-26T15:39:13Z</t>
+          <t>2025-11-06T06:07:33Z</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-23T21:31:01Z</t>
+          <t>2025-11-06T06:07:28Z</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-10-06T09:30:36Z</t>
+          <t>2025-11-06T14:56:54Z</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-03-17T00:22:46Z</t>
+          <t>2025-11-06T04:53:27Z</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-03-17T00:22:43Z</t>
+          <t>2025-11-06T04:53:23Z</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-10-07T12:37:35Z</t>
+          <t>2025-11-05T03:55:04Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1642,16 +1642,16 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-10-18T18:16:21Z</t>
+          <t>2025-11-06T07:55:15Z</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-10-10T21:32:40Z</t>
+          <t>2025-11-06T07:55:09Z</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-11-20T20:34:38Z</t>
+          <t>2025-11-04T13:12:35Z</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-10-07T12:37:30Z</t>
+          <t>2025-11-04T12:30:09Z</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-09-27T04:27:09Z</t>
+          <t>2025-11-03T21:06:34Z</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-08-26T07:03:13Z</t>
+          <t>2025-11-03T21:07:18Z</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-09-11T17:19:43Z</t>
+          <t>2025-11-04T04:24:13Z</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-09-09T23:35:35Z</t>
+          <t>2025-11-04T04:24:09Z</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2430,11 +2430,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-11-01T16:39:53Z</t>
+          <t>2025-11-07T17:48:36Z</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-10-08T15:53:20Z</t>
+          <t>2025-11-03T01:50:17Z</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-11-01T21:52:07Z</t>
+          <t>2025-11-08T17:20:22Z</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-10-28T20:11:36Z</t>
+          <t>2025-11-06T02:01:42Z</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-10-28T20:11:32Z</t>
+          <t>2025-11-05T13:29:45Z</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -3036,11 +3036,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2025-11-02T01:01:01Z</t>
+          <t>2025-11-09T00:26:53Z</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-11-01T05:04:57Z</t>
+          <t>2025-11-04T21:00:20Z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-11-01T05:04:53Z</t>
+          <t>2025-11-04T21:00:16Z</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-10-31T06:53:05Z</t>
+          <t>2025-11-08T20:20:50Z</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-09-22T21:23:38Z</t>
+          <t>2025-11-04T13:06:11Z</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-11-02T01:02:28Z</t>
+          <t>2025-11-08T03:41:23Z</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-09-09T09:14:05Z</t>
+          <t>2025-11-04T13:08:58Z</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3260,11 +3260,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-11-02T02:44:56Z</t>
+          <t>2025-11-09T05:57:27Z</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68">
@@ -3340,16 +3340,16 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-10-07T12:37:36Z</t>
+          <t>2025-11-07T09:17:14Z</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-07-03T09:17:46Z</t>
+          <t>2025-11-07T07:16:18Z</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3368,11 +3368,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-11-02T06:32:27Z</t>
+          <t>2025-11-09T06:08:29Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3083</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="70">
@@ -3448,12 +3448,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-07-22T15:37:14Z</t>
+          <t>2025-11-06T05:51:12Z</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-04-23T20:07:52Z</t>
+          <t>2025-11-06T05:51:07Z</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2025-10-31T11:02:40Z</t>
+          <t>2025-11-07T19:25:00Z</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-10-03T20:13:42Z</t>
+          <t>2025-11-03T16:13:19Z</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3530,11 +3530,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-11-02T04:49:10Z</t>
+          <t>2025-11-09T05:37:50Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-09-23T09:24:42Z</t>
+          <t>2025-11-03T08:48:06Z</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3854,11 +3854,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2025-11-02T01:27:06Z</t>
+          <t>2025-11-08T22:50:10Z</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-04-02T21:44:06Z</t>
+          <t>2025-11-07T04:08:44Z</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2025-10-09T09:20:09Z</t>
+          <t>2025-11-02T06:48:16Z</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-09-03T08:30:00Z</t>
+          <t>2025-11-06T00:05:04Z</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2025-10-26T10:46:39Z</t>
+          <t>2025-11-05T15:28:00Z</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -4660,12 +4660,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-10-16T10:04:22Z</t>
+          <t>2025-11-06T07:37:42Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-03-16T23:49:17Z</t>
+          <t>2025-11-05T18:19:52Z</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4688,11 +4688,11 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-11-02T06:26:20Z</t>
+          <t>2025-11-09T01:31:18Z</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -690,7 +690,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-11-04T01:32:55Z</t>
+          <t>2025-11-11T10:19:29Z</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-27T04:26:33Z</t>
+          <t>2025-11-16T04:58:13Z</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1282,16 +1282,16 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-10-18T14:51:08Z</t>
+          <t>2025-11-15T19:46:47Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-24T18:28:35Z</t>
+          <t>2025-11-15T19:46:41Z</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-11-05T03:55:04Z</t>
+          <t>2025-11-13T19:41:58Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-08-22T19:23:11Z</t>
+          <t>2025-11-09T23:43:36Z</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-04-01T04:26:52Z</t>
+          <t>2025-11-09T23:43:32Z</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2025-10-29T19:15:49Z</t>
+          <t>2025-11-15T04:41:44Z</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2025-10-23T07:23:48Z</t>
+          <t>2025-11-05T05:42:24Z</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2430,11 +2430,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-11-07T17:48:36Z</t>
+          <t>2025-11-15T23:50:50Z</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
@@ -2469,12 +2469,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>KwaiVGI/LivePortrait</t>
+          <t>KlingTeam/LivePortrait</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/KwaiVGI/LivePortrait</t>
+          <t>https://github.com/KlingTeam/LivePortrait</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2025-11-01T22:35:18Z</t>
+          <t>2025-11-16T06:24:59Z</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2510,12 +2510,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-11-03T01:50:17Z</t>
+          <t>2025-11-14T14:20:24Z</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-04-23T21:32:32Z</t>
+          <t>2025-11-14T14:20:21Z</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-11-08T17:20:22Z</t>
+          <t>2025-11-15T22:32:41Z</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2618,12 +2618,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-04-23T21:31:18Z</t>
+          <t>2025-11-15T16:18:44Z</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-04-23T21:31:14Z</t>
+          <t>2025-11-15T16:18:40Z</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2646,11 +2646,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2025-11-01T18:10:49Z</t>
+          <t>2025-11-10T17:52:58Z</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2025-11-01T14:45:59Z</t>
+          <t>2025-11-14T16:05:18Z</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2726,12 +2726,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-04-09T10:20:31Z</t>
+          <t>2025-11-09T20:06:13Z</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-03-16T22:55:58Z</t>
+          <t>2025-11-09T20:06:10Z</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2754,11 +2754,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2025-11-02T03:16:09Z</t>
+          <t>2025-11-16T06:33:02Z</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2025-11-02T03:16:09Z</t>
+          <t>2025-11-16T06:33:02Z</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2025-11-01T02:15:17Z</t>
+          <t>2025-11-14T16:45:52Z</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-10-30T14:55:40Z</t>
+          <t>2025-11-13T19:42:00Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-11-02T03:08:59Z</t>
+          <t>2025-11-14T10:13:41Z</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -2950,16 +2950,16 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-22T00:16:08Z</t>
+          <t>2025-11-13T18:52:13Z</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-04-10T03:41:12Z</t>
+          <t>2025-11-13T18:52:08Z</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2978,11 +2978,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2025-11-02T04:02:30Z</t>
+          <t>2025-11-15T21:17:20Z</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63">
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3036,11 +3036,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2025-11-09T00:26:53Z</t>
+          <t>2025-11-16T04:00:36Z</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-11-04T21:00:20Z</t>
+          <t>2025-11-10T06:30:25Z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-11-04T21:00:16Z</t>
+          <t>2025-11-10T06:30:21Z</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-11-08T20:20:50Z</t>
+          <t>2025-11-12T14:57:40Z</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -3120,12 +3120,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-23T21:39:28Z</t>
+          <t>2025-11-11T05:28:44Z</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-23T16:37:56Z</t>
+          <t>2025-11-11T05:28:39Z</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2025-11-01T04:45:46Z</t>
+          <t>2025-11-14T07:04:27Z</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-11-08T03:41:23Z</t>
+          <t>2025-11-14T12:34:29Z</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-11-09T05:57:27Z</t>
+          <t>2025-11-16T06:15:26Z</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-08-25T15:10:46Z</t>
+          <t>2025-11-14T14:05:37Z</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-04-23T21:32:48Z</t>
+          <t>2025-11-14T14:05:33Z</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2025-11-02T04:56:14Z</t>
+          <t>2025-11-13T02:05:29Z</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -3340,12 +3340,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-11-07T09:17:14Z</t>
+          <t>2025-11-14T17:20:33Z</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-11-07T07:16:18Z</t>
+          <t>2025-11-14T17:20:29Z</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-11-09T06:08:29Z</t>
+          <t>2025-11-16T05:22:41Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3111</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="70">
@@ -3394,12 +3394,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-10-16T13:07:41Z</t>
+          <t>2025-11-09T20:06:03Z</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-04-23T20:08:09Z</t>
+          <t>2025-11-09T20:06:00Z</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2025-10-27T15:34:28Z</t>
+          <t>2025-11-15T23:28:40Z</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -3448,12 +3448,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-11-06T05:51:12Z</t>
+          <t>2025-11-09T20:06:24Z</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-11-06T05:51:07Z</t>
+          <t>2025-11-09T20:06:21Z</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-11-03T16:13:19Z</t>
+          <t>2025-11-13T20:41:29Z</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-04-23T20:08:01Z</t>
+          <t>2025-11-13T20:41:24Z</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3530,11 +3530,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-11-09T05:37:50Z</t>
+          <t>2025-11-15T23:52:12Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73">
@@ -3556,16 +3556,16 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-09-28T21:00:54Z</t>
+          <t>2025-11-10T23:40:20Z</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-04-01T04:26:25Z</t>
+          <t>2025-11-10T23:40:14Z</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-10-28T03:11:53Z</t>
+          <t>2025-11-10T18:51:05Z</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2025-11-02T05:55:10Z</t>
+          <t>2025-11-15T15:45:09Z</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -3692,11 +3692,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2025-11-01T08:21:52Z</t>
+          <t>2025-11-15T13:26:04Z</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3746,11 +3746,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2025-11-02T03:59:24Z</t>
+          <t>2025-11-15T23:50:46Z</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2025-11-01T13:55:02Z</t>
+          <t>2025-11-14T05:41:47Z</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3826,12 +3826,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-11-03T08:48:06Z</t>
+          <t>2025-11-14T12:30:40Z</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-06-06T21:48:46Z</t>
+          <t>2025-11-14T12:30:36Z</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3854,11 +3854,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2025-11-08T22:50:10Z</t>
+          <t>2025-11-15T21:15:05Z</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -3908,11 +3908,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2025-10-31T08:15:58Z</t>
+          <t>2025-11-15T23:14:45Z</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-11-07T04:08:44Z</t>
+          <t>2025-11-11T10:19:19Z</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2025-11-02T06:48:16Z</t>
+          <t>2025-11-12T15:12:16Z</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2025-11-01T11:57:57Z</t>
+          <t>2025-11-14T18:17:05Z</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2025-10-30T09:52:09Z</t>
+          <t>2025-11-15T08:40:08Z</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-10-21T16:48:57Z</t>
+          <t>2025-11-14T15:21:05Z</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4132,11 +4132,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2025-11-02T03:20:26Z</t>
+          <t>2025-11-16T06:16:11Z</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84">
@@ -4186,11 +4186,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-11-02T03:26:42Z</t>
+          <t>2025-11-15T21:03:07Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1114</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="85">
@@ -4240,11 +4240,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2025-11-01T11:37:12Z</t>
+          <t>2025-11-16T06:25:49Z</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86">
@@ -4266,12 +4266,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-09-13T16:37:07Z</t>
+          <t>2025-11-14T13:52:06Z</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-04-24T18:28:53Z</t>
+          <t>2025-11-14T13:52:01Z</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2025-11-02T02:57:19Z</t>
+          <t>2025-11-16T00:10:06Z</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2025-11-02T02:51:23Z</t>
+          <t>2025-11-15T05:25:29Z</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2025-10-30T10:36:47Z</t>
+          <t>2025-11-07T08:32:13Z</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2025-10-30T10:36:47Z</t>
+          <t>2025-11-07T08:32:13Z</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2025-10-30T12:45:32Z</t>
+          <t>2025-11-15T08:55:10Z</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-10-17T18:56:53Z</t>
+          <t>2025-11-13T19:42:03Z</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4580,11 +4580,11 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2025-11-02T02:49:53Z</t>
+          <t>2025-11-15T21:39:46Z</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2025-11-05T15:28:00Z</t>
+          <t>2025-11-11T07:07:11Z</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-11-06T07:37:42Z</t>
+          <t>2025-11-15T08:55:11Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4688,11 +4688,11 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-11-09T01:31:18Z</t>
+          <t>2025-11-16T05:56:36Z</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
@@ -4742,11 +4742,11 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2025-11-02T06:26:20Z</t>
+          <t>2025-11-16T05:56:36Z</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -810,16 +810,16 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-18T02:16:10Z</t>
+          <t>2025-11-18T20:20:00Z</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-10T01:50:13Z</t>
+          <t>2025-11-18T20:19:55Z</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -922,16 +922,16 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-22T15:34:31Z</t>
+          <t>2025-11-19T17:01:08Z</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-01T04:28:20Z</t>
+          <t>2025-11-19T17:01:05Z</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-09-03T18:51:19Z</t>
+          <t>2025-11-17T23:33:17Z</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-10-18T02:24:05Z</t>
+          <t>2025-11-22T23:35:57Z</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-04-04T02:49:30Z</t>
+          <t>2025-11-22T23:35:52Z</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-11-09T23:43:36Z</t>
+          <t>2025-11-20T22:52:17Z</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-04-24T23:38:22Z</t>
+          <t>2025-11-17T22:06:21Z</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-03-17T00:06:17Z</t>
+          <t>2025-11-17T22:06:16Z</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-11-04T04:24:13Z</t>
+          <t>2025-11-16T17:12:14Z</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-11-04T04:24:09Z</t>
+          <t>2025-11-16T17:12:11Z</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2430,11 +2430,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-11-15T23:50:50Z</t>
+          <t>2025-11-23T00:02:35Z</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-11-13T19:42:00Z</t>
+          <t>2025-11-20T16:17:03Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-11-14T10:13:41Z</t>
+          <t>2025-11-23T04:44:08Z</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-11-10T06:30:25Z</t>
+          <t>2025-11-21T09:24:24Z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-11-10T06:30:21Z</t>
+          <t>2025-11-21T09:24:20Z</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-11-12T14:57:40Z</t>
+          <t>2025-11-22T23:45:24Z</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -3120,12 +3120,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-11-11T05:28:44Z</t>
+          <t>2025-11-21T16:25:52Z</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-11-11T05:28:39Z</t>
+          <t>2025-11-21T16:25:49Z</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2025-11-14T07:04:27Z</t>
+          <t>2025-11-22T13:55:30Z</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-11-04T13:08:58Z</t>
+          <t>2025-11-19T15:34:36Z</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3260,11 +3260,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-11-16T06:15:26Z</t>
+          <t>2025-11-22T16:44:52Z</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68">
@@ -3556,12 +3556,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-11-10T23:40:20Z</t>
+          <t>2025-11-21T14:34:23Z</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-11-10T23:40:14Z</t>
+          <t>2025-11-21T14:34:18Z</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3934,12 +3934,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-11-11T10:19:19Z</t>
+          <t>2025-11-21T18:55:09Z</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-04-02T21:44:02Z</t>
+          <t>2025-11-21T18:55:04Z</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2025-11-12T15:12:16Z</t>
+          <t>2025-11-18T05:16:33Z</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -4046,16 +4046,16 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-07-25T00:43:14Z</t>
+          <t>2025-11-19T18:46:58Z</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-04-01T04:29:33Z</t>
+          <t>2025-11-19T18:46:54Z</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2025-11-15T08:40:08Z</t>
+          <t>2025-11-19T15:58:57Z</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-11-14T15:21:05Z</t>
+          <t>2025-11-21T11:21:19Z</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4132,11 +4132,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2025-11-16T06:16:11Z</t>
+          <t>2025-11-23T01:25:26Z</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84">
@@ -4158,12 +4158,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-10-07T12:37:36Z</t>
+          <t>2025-11-17T01:56:31Z</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-03-25T04:35:05Z</t>
+          <t>2025-11-17T01:56:27Z</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -4186,11 +4186,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-11-15T21:03:07Z</t>
+          <t>2025-11-23T05:57:50Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="85">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-11-15T08:55:11Z</t>
+          <t>2025-11-19T15:34:27Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-11-16T05:56:36Z</t>
+          <t>2025-11-23T04:22:15Z</t>
         </is>
       </c>
       <c r="L93" t="n">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,12 +574,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-11-02T19:01:25Z</t>
+          <t>2025-11-27T21:12:49Z</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-02T19:01:22Z</t>
+          <t>2025-11-27T21:12:45Z</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-11-02T20:31:52Z</t>
+          <t>2025-11-26T10:33:32Z</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-11-11T10:19:29Z</t>
+          <t>2025-11-30T00:32:59Z</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-11-04T01:32:51Z</t>
+          <t>2025-11-30T00:32:55Z</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -730,7 +730,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-11-16T04:58:13Z</t>
+          <t>2025-11-24T18:19:49Z</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1606,12 +1606,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-08-06T23:33:28Z</t>
+          <t>2025-11-27T21:34:34Z</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-03-17T00:26:25Z</t>
+          <t>2025-11-27T21:34:29Z</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-11-20T22:52:17Z</t>
+          <t>2025-11-25T11:48:01Z</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-11-09T23:43:32Z</t>
+          <t>2025-11-25T11:47:58Z</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2110,16 +2110,16 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-04-18T23:43:10Z</t>
+          <t>2025-11-26T23:36:51Z</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2024-08-05T22:50:35Z</t>
+          <t>2025-11-26T23:36:47Z</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-19T22:59:51Z</t>
+          <t>2025-11-28T23:23:33Z</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-03-30T07:14:19Z</t>
+          <t>2025-11-28T23:23:29Z</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2025-11-16T06:24:59Z</t>
+          <t>2025-11-30T06:16:40Z</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2656,28 +2656,32 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hertz</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>Ultimate-TTS-Studio</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>🟢 NVIDIA ONLY – All-in-One TTS App with Kokoro, KittenTTS, Higgs audio, Chatterbox, Fish-Speech, F5 &amp; index-tts &amp; indextts2, Supports Conversation Mode &amp; eBook-to-Audiobook. All features work across all engines in a unified interface except vibe voice which is it's own app panel.</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/hertz</t>
+          <t>https://github.com/pinokiofactory/Ultimate-TTS-Studio</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-11-04T01:04:51Z</t>
+          <t>2025-11-25T20:10:36Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-11-05T08:54:25Z</t>
+          <t>2025-11-26T02:49:43Z</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2024-11-05T08:54:21Z</t>
+          <t>2025-11-25T20:11:09Z</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2685,111 +2689,111 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Standard-Intelligence/hertz-dev</t>
+          <t>SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Standard-Intelligence/hertz-dev</t>
+          <t>https://github.com/SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2024-11-03T14:41:39Z</t>
+          <t>2025-06-06T14:54:06Z</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2025-11-14T16:05:18Z</t>
+          <t>2025-11-27T13:52:16Z</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hunyuan3D-2</t>
+          <t>hertz</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3D-2</t>
+          <t>https://github.com/pinokiofactory/hertz</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-01-25T04:41:01Z</t>
+          <t>2024-11-04T01:04:51Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:13Z</t>
+          <t>2024-11-05T08:54:25Z</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:10Z</t>
+          <t>2024-11-05T08:54:21Z</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
+          <t>Standard-Intelligence/hertz-dev</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
+          <t>https://github.com/Standard-Intelligence/hertz-dev</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2025-01-21T05:21:35Z</t>
+          <t>2024-11-03T14:41:39Z</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2025-11-16T06:33:02Z</t>
+          <t>2025-11-14T16:05:18Z</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hunyuan3D-2-mini</t>
+          <t>Hunyuan3D-2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3D-2-mini</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-01-23T21:29:42Z</t>
+          <t>2025-01-25T04:41:01Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-01-25T03:18:46Z</t>
+          <t>2025-11-09T20:06:13Z</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-01-25T03:50:23Z</t>
+          <t>2025-11-09T20:06:10Z</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2818,32 +2822,28 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AudioX</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>AudioX: Diffusion Transformer for Anything-to-Audio Generation</t>
-        </is>
-      </c>
+          <t>Hunyuan3D-2-mini</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/AudioX</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3D-2-mini</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-04-23T00:08:00Z</t>
+          <t>2025-01-23T21:29:42Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-07-12T12:25:25Z</t>
+          <t>2025-01-25T03:18:46Z</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-07-12T12:25:21Z</t>
+          <t>2025-01-25T03:50:23Z</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2851,825 +2851,829 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>ZeyueT/AudioX</t>
+          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ZeyueT/AudioX</t>
+          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2025-03-13T10:18:21Z</t>
+          <t>2025-01-21T05:21:35Z</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2025-11-14T16:45:52Z</t>
+          <t>2025-11-16T06:33:02Z</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>52</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RMBG-2-Studio</t>
+          <t>AudioX</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Enhanced background remove and replace app built around BRIA-RMBG-2.0.  Low VRAM/RAM | 6GB Install</t>
+          <t>AudioX: Diffusion Transformer for Anything-to-Audio Generation</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/RMBG-2-Studio</t>
+          <t>https://github.com/pinokiofactory/AudioX</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-11-15T07:13:23Z</t>
+          <t>2025-04-23T00:08:00Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-11-20T16:17:03Z</t>
+          <t>2025-07-12T12:25:25Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-30T19:29:17Z</t>
+          <t>2025-07-12T12:25:21Z</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ZhengPeng7/BiRefNet</t>
+          <t>ZeyueT/AudioX</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ZhengPeng7/BiRefNet</t>
+          <t>https://github.com/ZeyueT/AudioX</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2022-08-17T09:13:39Z</t>
+          <t>2025-03-13T10:18:21Z</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-11-23T04:44:08Z</t>
+          <t>2025-11-14T16:45:52Z</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>zonos</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>RMBG-2-Studio</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Enhanced background remove and replace app built around BRIA-RMBG-2.0.  Low VRAM/RAM | 6GB Install</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/zonos</t>
+          <t>https://github.com/pinokiofactory/RMBG-2-Studio</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-02-11T09:00:12Z</t>
+          <t>2024-11-15T07:13:23Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-11-13T18:52:13Z</t>
+          <t>2025-11-30T00:43:42Z</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-11-13T18:52:08Z</t>
+          <t>2025-05-30T19:29:17Z</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Zyphra/Zonos</t>
+          <t>ZhengPeng7/BiRefNet</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Zyphra/Zonos</t>
+          <t>https://github.com/ZhengPeng7/BiRefNet</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2025-02-07T00:32:44Z</t>
+          <t>2022-08-17T09:13:39Z</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2025-11-15T21:17:20Z</t>
+          <t>2025-11-30T02:42:20Z</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ACE-Step</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>A Step Towards Music Generation Foundation Model</t>
-        </is>
-      </c>
+          <t>zonos</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/ACE-Step</t>
+          <t>https://github.com/pinokiofactory/zonos</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-05-07T11:25:33Z</t>
+          <t>2025-02-11T09:00:12Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-11-06T02:01:42Z</t>
+          <t>2025-11-13T18:52:13Z</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-11-05T13:29:45Z</t>
+          <t>2025-11-13T18:52:08Z</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>ace-step/ACE-Step</t>
+          <t>Zyphra/Zonos</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ace-step/ACE-Step</t>
+          <t>https://github.com/Zyphra/Zonos</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2025-04-28T07:03:09Z</t>
+          <t>2025-02-07T00:32:44Z</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2025-11-16T04:00:36Z</t>
+          <t>2025-11-15T21:17:20Z</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>112</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MagicQuill</t>
+          <t>ACE-Step</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>An intelligent, interactive Image Editing System. Easily erase and add objects on a user-friendly interface.</t>
+          <t>A Step Towards Music Generation Foundation Model</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/MagicQuill</t>
+          <t>https://github.com/pinokiofactory/ACE-Step</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-02-19T03:58:52Z</t>
+          <t>2025-05-07T11:25:33Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-11-21T09:24:24Z</t>
+          <t>2025-11-06T02:01:42Z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-11-21T09:24:20Z</t>
+          <t>2025-11-05T13:29:45Z</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ant-research/MagicQuill</t>
+          <t>ace-step/ACE-Step</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ant-research/MagicQuill</t>
+          <t>https://github.com/ace-step/ACE-Step</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2024-11-12T12:52:36Z</t>
+          <t>2025-04-28T07:03:09Z</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-11-22T23:45:24Z</t>
+          <t>2025-11-16T04:00:36Z</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>47</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>echomimic2</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>MagicQuill</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>An intelligent, interactive Image Editing System. Easily erase and add objects on a user-friendly interface.</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/echomimic2</t>
+          <t>https://github.com/pinokiofactory/MagicQuill</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-11-24T07:52:04Z</t>
+          <t>2025-02-19T03:58:52Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-11-21T16:25:52Z</t>
+          <t>2025-11-21T09:24:24Z</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-11-21T16:25:49Z</t>
+          <t>2025-11-21T09:24:20Z</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>antgroup/echomimic_v2</t>
+          <t>ant-research/MagicQuill</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/antgroup/echomimic_v2</t>
+          <t>https://github.com/ant-research/MagicQuill</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2024-11-20T08:35:35Z</t>
+          <t>2024-11-12T12:52:36Z</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2025-11-22T13:55:30Z</t>
+          <t>2025-11-22T23:45:24Z</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>macOS-use</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>We Make Mac apps accessible for AI agents</t>
-        </is>
-      </c>
+          <t>echomimic2</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/macOS-use</t>
+          <t>https://github.com/pinokiofactory/echomimic2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-02-18T16:54:37Z</t>
+          <t>2024-11-24T07:52:04Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-11-04T13:06:11Z</t>
+          <t>2025-11-21T16:25:52Z</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-04-01T04:14:59Z</t>
+          <t>2025-11-21T16:25:49Z</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>browser-use/macOS-use</t>
+          <t>antgroup/echomimic_v2</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/browser-use/macOS-use</t>
+          <t>https://github.com/antgroup/echomimic_v2</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2025-01-23T00:35:15Z</t>
+          <t>2024-11-20T08:35:35Z</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-11-14T12:34:29Z</t>
+          <t>2025-11-22T13:55:30Z</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>browser-use</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
+          <t>macOS-use</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>We Make Mac apps accessible for AI agents</t>
+        </is>
+      </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/browser-use</t>
+          <t>https://github.com/pinokiofactory/macOS-use</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-01-19T21:55:50Z</t>
+          <t>2025-02-18T16:54:37Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-11-19T15:34:36Z</t>
+          <t>2025-11-04T13:06:11Z</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-04-01T04:25:12Z</t>
+          <t>2025-04-01T04:14:59Z</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>browser-use/web-ui</t>
+          <t>browser-use/macOS-use</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/browser-use/web-ui</t>
+          <t>https://github.com/browser-use/macOS-use</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2025-01-02T01:29:44Z</t>
+          <t>2025-01-23T00:35:15Z</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-11-22T16:44:52Z</t>
+          <t>2025-11-14T12:34:29Z</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>299</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>uno</t>
+          <t>browser-use</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/uno</t>
+          <t>https://github.com/pinokiofactory/browser-use</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-04-10T18:31:57Z</t>
+          <t>2025-01-19T21:55:50Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-11-14T14:05:37Z</t>
+          <t>2025-11-19T15:34:36Z</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-11-14T14:05:33Z</t>
+          <t>2025-04-01T04:25:12Z</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>bytedance/UNO</t>
+          <t>browser-use/web-ui</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/bytedance/UNO</t>
+          <t>https://github.com/browser-use/web-ui</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2025-04-01T13:25:11Z</t>
+          <t>2025-01-02T01:29:44Z</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2025-11-13T02:05:29Z</t>
+          <t>2025-11-22T16:44:52Z</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>28</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>comfy</t>
+          <t>uno</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/comfy</t>
+          <t>https://github.com/pinokiofactory/uno</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-08-13T19:47:18Z</t>
+          <t>2025-04-10T18:31:57Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-11-14T17:20:33Z</t>
+          <t>2025-11-14T14:05:37Z</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-11-14T17:20:29Z</t>
+          <t>2025-11-14T14:05:33Z</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>comfyanonymous/ComfyUI</t>
+          <t>bytedance/UNO</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/comfyanonymous/ComfyUI</t>
+          <t>https://github.com/bytedance/UNO</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2023-01-17T03:15:56Z</t>
+          <t>2025-04-01T13:25:11Z</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-11-16T05:22:41Z</t>
+          <t>2025-11-13T02:05:29Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3139</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Hunyuan3d-2-lowvram</t>
+          <t>comfy</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3d-2-lowvram</t>
+          <t>https://github.com/pinokiofactory/comfy</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-01-25T04:44:25Z</t>
+          <t>2024-08-13T19:47:18Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:03Z</t>
+          <t>2025-11-14T17:20:33Z</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:00Z</t>
+          <t>2025-11-14T17:20:29Z</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>deepbeepmeep/Hunyuan3D-2GP</t>
+          <t>comfyanonymous/ComfyUI</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/Hunyuan3D-2GP</t>
+          <t>https://github.com/comfyanonymous/ComfyUI</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2025-01-22T01:50:03Z</t>
+          <t>2023-01-17T03:15:56Z</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2025-11-15T23:28:40Z</t>
+          <t>2025-11-16T05:22:41Z</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>17</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>hunyuanvideo</t>
+          <t>Hunyuan3d-2-lowvram</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/hunyuanvideo</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3d-2-lowvram</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-12-11T01:55:53Z</t>
+          <t>2025-01-25T04:44:25Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:24Z</t>
+          <t>2025-11-09T20:06:03Z</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:21Z</t>
+          <t>2025-11-09T20:06:00Z</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>deepbeepmeep/HunyuanVideoGP</t>
+          <t>deepbeepmeep/Hunyuan3D-2GP</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/HunyuanVideoGP</t>
+          <t>https://github.com/deepbeepmeep/Hunyuan3D-2GP</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2024-12-10T18:34:42Z</t>
+          <t>2025-01-22T01:50:03Z</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2025-11-07T19:25:00Z</t>
+          <t>2025-11-15T23:28:40Z</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>wan</t>
+          <t>hunyuanvideo</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/wan</t>
+          <t>https://github.com/pinokiofactory/hunyuanvideo</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-03-03T17:32:45Z</t>
+          <t>2024-12-11T01:55:53Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-11-13T20:41:29Z</t>
+          <t>2025-11-09T20:06:24Z</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-11-13T20:41:24Z</t>
+          <t>2025-11-09T20:06:21Z</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>deepbeepmeep/Wan2GP</t>
+          <t>deepbeepmeep/HunyuanVideoGP</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/Wan2GP</t>
+          <t>https://github.com/deepbeepmeep/HunyuanVideoGP</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2025-02-27T23:52:36Z</t>
+          <t>2024-12-10T18:34:42Z</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-11-15T23:52:12Z</t>
+          <t>2025-11-07T19:25:00Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>446</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>yue</t>
+          <t>wan</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/yue</t>
+          <t>https://github.com/pinokiofactory/wan</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-01-29T11:22:39Z</t>
+          <t>2025-03-03T17:32:45Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-11-21T14:34:23Z</t>
+          <t>2025-11-27T12:49:14Z</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-11-21T14:34:18Z</t>
+          <t>2025-11-13T20:41:24Z</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>deepbeepmeep/YuEGP</t>
+          <t>deepbeepmeep/Wan2GP</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/YuEGP</t>
+          <t>https://github.com/deepbeepmeep/Wan2GP</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2025-01-28T07:23:51Z</t>
+          <t>2025-02-27T23:52:36Z</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-11-10T18:51:05Z</t>
+          <t>2025-11-30T06:11:23Z</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>20</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>janus</t>
+          <t>yue</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/janus</t>
+          <t>https://github.com/pinokiofactory/yue</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-01-27T18:23:47Z</t>
+          <t>2025-01-29T11:22:39Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-01-28T02:37:49Z</t>
+          <t>2025-11-21T14:34:23Z</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-01-28T02:37:46Z</t>
+          <t>2025-11-21T14:34:18Z</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>deepseek-ai/Janus</t>
+          <t>deepbeepmeep/YuEGP</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepseek-ai/Janus</t>
+          <t>https://github.com/deepbeepmeep/YuEGP</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2024-10-18T03:48:16Z</t>
+          <t>2025-01-28T07:23:51Z</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2025-11-15T15:45:09Z</t>
+          <t>2025-11-10T18:51:05Z</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>janus</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/diamond</t>
+          <t>https://github.com/pinokiofactory/janus</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-10-12T15:37:19Z</t>
+          <t>2025-01-27T18:23:47Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-04-07T18:54:02Z</t>
+          <t>2025-01-28T02:37:49Z</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-03-16T23:31:53Z</t>
+          <t>2025-01-28T02:37:46Z</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3677,775 +3681,771 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>eloialonso/diamond</t>
+          <t>deepseek-ai/Janus</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/eloialonso/diamond</t>
+          <t>https://github.com/deepseek-ai/Janus</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2024-05-19T22:31:40Z</t>
+          <t>2024-10-18T03:48:16Z</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2025-11-15T13:26:04Z</t>
+          <t>2025-11-15T15:45:09Z</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AllTalk-TTS</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/AllTalk-TTS</t>
+          <t>https://github.com/pinokiofactory/diamond</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-02-05T16:24:30Z</t>
+          <t>2024-10-12T15:37:19Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-04-05T16:19:34Z</t>
+          <t>2025-04-07T18:54:02Z</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-03-29T16:44:51Z</t>
+          <t>2025-03-16T23:31:53Z</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>erew123/alltalk_tts</t>
+          <t>eloialonso/diamond</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/erew123/alltalk_tts</t>
+          <t>https://github.com/eloialonso/diamond</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2023-12-08T09:35:19Z</t>
+          <t>2024-05-19T22:31:40Z</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2025-11-15T23:50:46Z</t>
+          <t>2025-11-15T13:26:04Z</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>oasis</t>
+          <t>AllTalk-TTS</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/oasis</t>
+          <t>https://github.com/pinokiofactory/AllTalk-TTS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-10-31T23:24:32Z</t>
+          <t>2025-02-05T16:24:30Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-10-31T23:47:38Z</t>
+          <t>2025-04-05T16:19:34Z</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2024-10-31T23:47:35Z</t>
+          <t>2025-03-29T16:44:51Z</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>etched-ai/open-oasis</t>
+          <t>erew123/alltalk_tts</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/etched-ai/open-oasis</t>
+          <t>https://github.com/erew123/alltalk_tts</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2024-10-31T09:10:45Z</t>
+          <t>2023-12-08T09:35:19Z</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2025-11-14T05:41:47Z</t>
+          <t>2025-11-15T23:50:46Z</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>openaudio</t>
+          <t>oasis</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/openaudio</t>
+          <t>https://github.com/pinokiofactory/oasis</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-11-02T08:47:31Z</t>
+          <t>2024-10-31T23:24:32Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-11-14T12:30:40Z</t>
+          <t>2024-10-31T23:47:38Z</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-11-14T12:30:36Z</t>
+          <t>2024-10-31T23:47:35Z</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>fishaudio/fish-speech</t>
+          <t>etched-ai/open-oasis</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/fishaudio/fish-speech</t>
+          <t>https://github.com/etched-ai/open-oasis</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2023-10-10T03:16:51Z</t>
+          <t>2024-10-31T09:10:45Z</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2025-11-15T21:15:05Z</t>
+          <t>2025-11-14T05:41:47Z</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>mochi</t>
+          <t>openaudio</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/mochi</t>
+          <t>https://github.com/pinokiofactory/openaudio</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-10-23T18:51:07Z</t>
+          <t>2024-11-02T08:47:31Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-10-29T03:03:08Z</t>
+          <t>2025-11-14T12:30:40Z</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2024-10-29T03:03:04Z</t>
+          <t>2025-11-14T12:30:36Z</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>genmoai/mochi</t>
+          <t>fishaudio/fish-speech</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/genmoai/mochi</t>
+          <t>https://github.com/fishaudio/fish-speech</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2024-09-11T02:55:33Z</t>
+          <t>2023-10-10T03:16:51Z</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2025-11-15T23:14:45Z</t>
+          <t>2025-11-15T21:15:05Z</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>instantir</t>
+          <t>mochi</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/instantir</t>
+          <t>https://github.com/pinokiofactory/mochi</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-11-08T08:05:55Z</t>
+          <t>2024-10-23T18:51:07Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-11-21T18:55:09Z</t>
+          <t>2024-10-29T03:03:08Z</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-11-21T18:55:04Z</t>
+          <t>2024-10-29T03:03:04Z</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>instantX-research/InstantIR</t>
+          <t>genmoai/mochi</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/instantX-research/InstantIR</t>
+          <t>https://github.com/genmoai/mochi</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2024-10-20T03:17:01Z</t>
+          <t>2024-09-11T02:55:33Z</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2025-11-18T05:16:33Z</t>
+          <t>2025-11-15T23:14:45Z</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>whisper-webui</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Pinokio Installer for Whisper-Webui</t>
-        </is>
-      </c>
+          <t>instantir</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/whisper-webui</t>
+          <t>https://github.com/pinokiofactory/instantir</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-09-21T20:42:20Z</t>
+          <t>2024-11-08T08:05:55Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-10-22T20:55:22Z</t>
+          <t>2025-11-30T00:45:01Z</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-08-20T16:40:02Z</t>
+          <t>2025-11-21T18:55:04Z</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>jhj0517/Whisper-WebUI</t>
+          <t>instantX-research/InstantIR</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/jhj0517/Whisper-WebUI</t>
+          <t>https://github.com/instantX-research/InstantIR</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2023-03-02T13:42:01Z</t>
+          <t>2024-10-20T03:17:01Z</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2025-11-14T18:17:05Z</t>
+          <t>2025-11-26T08:31:35Z</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>132</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>pyramidflow</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>whisper-webui</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Pinokio Installer for Whisper-Webui</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/pyramidflow</t>
+          <t>https://github.com/pinokiofactory/whisper-webui</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-11-16T08:35:22Z</t>
+          <t>2024-09-21T20:42:20Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-11-19T18:46:58Z</t>
+          <t>2025-10-22T20:55:22Z</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-11-19T18:46:54Z</t>
+          <t>2025-08-20T16:40:02Z</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>jy0205/Pyramid-Flow</t>
+          <t>jhj0517/Whisper-WebUI</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/jy0205/Pyramid-Flow</t>
+          <t>https://github.com/jhj0517/Whisper-WebUI</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2024-10-06T13:06:31Z</t>
+          <t>2023-03-02T13:42:01Z</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2025-11-19T15:58:57Z</t>
+          <t>2025-11-14T18:17:05Z</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Frame-Pack</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>(NVIDIA) FramePack is a next-frame (next-frame-section) prediction neural network structure that generates videos progressively.</t>
-        </is>
-      </c>
+          <t>pyramidflow</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Frame-Pack</t>
+          <t>https://github.com/pinokiofactory/pyramidflow</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-04-17T11:43:03Z</t>
+          <t>2024-11-16T08:35:22Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-11-21T11:21:19Z</t>
+          <t>2025-11-19T18:46:58Z</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-09-05T21:07:52Z</t>
+          <t>2025-11-19T18:46:54Z</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>lllyasviel/FramePack</t>
+          <t>jy0205/Pyramid-Flow</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/lllyasviel/FramePack</t>
+          <t>https://github.com/jy0205/Pyramid-Flow</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2025-04-12T14:45:22Z</t>
+          <t>2024-10-06T13:06:31Z</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2025-11-23T01:25:26Z</t>
+          <t>2025-11-19T15:58:57Z</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>466</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>stable-diffusion-webui-forge</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
+          <t>Frame-Pack</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>(NVIDIA) FramePack is a next-frame (next-frame-section) prediction neural network structure that generates videos progressively.</t>
+        </is>
+      </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/stable-diffusion-webui-forge</t>
+          <t>https://github.com/pinokiofactory/Frame-Pack</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-08-12T12:38:49Z</t>
+          <t>2025-04-17T11:43:03Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-11-17T01:56:31Z</t>
+          <t>2025-11-23T13:02:32Z</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-11-17T01:56:27Z</t>
+          <t>2025-09-05T21:07:52Z</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>lllyasviel/stable-diffusion-webui-forge</t>
+          <t>lllyasviel/FramePack</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/lllyasviel/stable-diffusion-webui-forge</t>
+          <t>https://github.com/lllyasviel/FramePack</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2024-01-14T11:39:30Z</t>
+          <t>2025-04-12T14:45:22Z</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-11-23T05:57:50Z</t>
+          <t>2025-11-30T06:16:13Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1119</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>omniparser</t>
+          <t>stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/omniparser</t>
+          <t>https://github.com/pinokiofactory/stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-10-26T06:04:17Z</t>
+          <t>2024-08-12T12:38:49Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-10-28T04:49:07Z</t>
+          <t>2025-11-17T01:56:31Z</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2024-10-26T08:03:10Z</t>
+          <t>2025-11-17T01:56:27Z</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>microsoft/OmniParser</t>
+          <t>lllyasviel/stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/microsoft/OmniParser</t>
+          <t>https://github.com/lllyasviel/stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2024-09-20T05:18:18Z</t>
+          <t>2024-01-14T11:39:30Z</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2025-11-16T06:25:49Z</t>
+          <t>2025-11-23T05:57:50Z</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>225</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>dia</t>
+          <t>omniparser</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/dia</t>
+          <t>https://github.com/pinokiofactory/omniparser</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-04-22T14:57:53Z</t>
+          <t>2024-10-26T06:04:17Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-11-14T13:52:06Z</t>
+          <t>2024-10-28T04:49:07Z</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-11-14T13:52:01Z</t>
+          <t>2024-10-26T08:03:10Z</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>nari-labs/dia</t>
+          <t>microsoft/OmniParser</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/nari-labs/dia</t>
+          <t>https://github.com/microsoft/OmniParser</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2025-04-19T07:15:57Z</t>
+          <t>2024-09-20T05:18:18Z</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2025-11-16T00:10:06Z</t>
+          <t>2025-11-16T06:25:49Z</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>83</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>clarity-refiners-ui</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Creative Image Enhancer/Upscaler. Powered By Refiners.  8GB VRAM | 10GB Install</t>
-        </is>
-      </c>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/clarity-refiners-ui</t>
+          <t>https://github.com/pinokiofactory/dia</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-11-12T07:03:48Z</t>
+          <t>2025-04-22T14:57:53Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-10-26T23:06:53Z</t>
+          <t>2025-11-28T18:06:01Z</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-10-26T23:06:48Z</t>
+          <t>2025-11-14T13:52:01Z</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>philz1337x/clarity-upscaler</t>
+          <t>nari-labs/dia</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/philz1337x/clarity-upscaler</t>
+          <t>https://github.com/nari-labs/dia</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2024-03-15T15:21:40Z</t>
+          <t>2025-04-19T07:15:57Z</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2025-11-15T05:25:29Z</t>
+          <t>2025-11-30T06:18:14Z</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Allegro-txt2vid</t>
+          <t>clarity-refiners-ui</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Allegro is a powerful text-to-video model that generates high-quality videos up to 6 seconds at 15 FPS and 720p resolution from simple text input.</t>
+          <t>Creative Image Enhancer/Upscaler. Powered By Refiners.  8GB VRAM | 10GB Install</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Allegro-txt2vid</t>
+          <t>https://github.com/pinokiofactory/clarity-refiners-ui</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-10-25T06:33:03Z</t>
+          <t>2024-11-12T07:03:48Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-11-05T23:56:50Z</t>
+          <t>2025-11-26T06:10:54Z</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2024-11-05T23:56:47Z</t>
+          <t>2025-10-26T23:06:48Z</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>rhymes-ai/Allegro</t>
+          <t>philz1337x/clarity-upscaler</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/rhymes-ai/Allegro</t>
+          <t>https://github.com/philz1337x/clarity-upscaler</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2024-10-16T04:04:15Z</t>
+          <t>2024-03-15T15:21:40Z</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2025-11-07T08:32:13Z</t>
+          <t>2025-11-30T01:44:01Z</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Allegro-txt2vid-install</t>
+          <t>Allegro-txt2vid</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Allegro-txt2vid. WARNING: takes a long time to generate a result, 1hr on a 3090. 12GB+ VRAM | 32GB+ RAM | 30GB Download. Check the README for details</t>
+          <t>Allegro is a powerful text-to-video model that generates high-quality videos up to 6 seconds at 15 FPS and 720p resolution from simple text input.</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Allegro-txt2vid-install</t>
+          <t>https://github.com/pinokiofactory/Allegro-txt2vid</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-10-27T14:58:05Z</t>
+          <t>2024-10-25T06:33:03Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-06-05T20:04:12Z</t>
+          <t>2024-11-05T23:56:50Z</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-03-16T23:27:46Z</t>
+          <t>2024-11-05T23:56:47Z</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -4478,274 +4478,332 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RuinedFooocus</t>
+          <t>Allegro-txt2vid-install</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">(NVIDIA ONLY) Forget everything you thought you knew about AI art generation - RuinedFooocus is here to completely reinvent the game! This groundbreaking image creator combines the best aspects of Stable Diffusion and Midjourney into one seamless, cutting-edge experience. </t>
+          <t>Allegro-txt2vid. WARNING: takes a long time to generate a result, 1hr on a 3090. 12GB+ VRAM | 32GB+ RAM | 30GB Download. Check the README for details</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/RuinedFooocus</t>
+          <t>https://github.com/pinokiofactory/Allegro-txt2vid-install</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-04-22T14:09:26Z</t>
+          <t>2024-10-27T14:58:05Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-10-30T19:53:32Z</t>
+          <t>2025-06-05T20:04:12Z</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-10-30T19:53:29Z</t>
+          <t>2025-03-16T23:27:46Z</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>runew0lf/RuinedFooocus</t>
+          <t>rhymes-ai/Allegro</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/runew0lf/RuinedFooocus</t>
+          <t>https://github.com/rhymes-ai/Allegro</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2023-08-16T09:20:46Z</t>
+          <t>2024-10-16T04:04:15Z</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2025-11-15T08:55:10Z</t>
+          <t>2025-11-07T08:32:13Z</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bolt</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
+          <t>RuinedFooocus</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(NVIDIA ONLY) Forget everything you thought you knew about AI art generation - RuinedFooocus is here to completely reinvent the game! This groundbreaking image creator combines the best aspects of Stable Diffusion and Midjourney into one seamless, cutting-edge experience. </t>
+        </is>
+      </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/bolt</t>
+          <t>https://github.com/pinokiofactory/RuinedFooocus</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-10-30T04:46:10Z</t>
+          <t>2025-04-22T14:09:26Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-11-13T19:42:03Z</t>
+          <t>2025-10-30T19:53:32Z</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-04-01T04:27:03Z</t>
+          <t>2025-10-30T19:53:29Z</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>stackblitz-labs/bolt.diy</t>
+          <t>runew0lf/RuinedFooocus</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/stackblitz-labs/bolt.diy</t>
+          <t>https://github.com/runew0lf/RuinedFooocus</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2024-10-13T18:40:54Z</t>
+          <t>2023-08-16T09:20:46Z</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2025-11-15T21:39:46Z</t>
+          <t>2025-11-15T08:55:10Z</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ditto</t>
+          <t>bolt</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/ditto</t>
+          <t>https://github.com/pinokiofactory/bolt</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-10-15T21:29:32Z</t>
+          <t>2024-10-30T04:46:10Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-11-06T00:05:04Z</t>
+          <t>2025-11-13T19:42:03Z</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2024-10-15T22:47:07Z</t>
+          <t>2025-04-01T04:27:03Z</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>yoheinakajima/ditto</t>
+          <t>stackblitz-labs/bolt.diy</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/yoheinakajima/ditto</t>
+          <t>https://github.com/stackblitz-labs/bolt.diy</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2024-10-15T19:45:13Z</t>
+          <t>2024-10-13T18:40:54Z</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2025-11-11T07:07:11Z</t>
+          <t>2025-11-15T21:39:46Z</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>cogstudio</t>
+          <t>ditto</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/cogstudio</t>
+          <t>https://github.com/pinokiofactory/ditto</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-09-20T10:46:17Z</t>
+          <t>2024-10-15T21:29:32Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-11-19T15:34:27Z</t>
+          <t>2025-11-06T00:05:04Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-11-05T18:19:52Z</t>
+          <t>2024-10-15T22:47:07Z</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>zai-org/CogVideo</t>
+          <t>yoheinakajima/ditto</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/zai-org/CogVideo</t>
+          <t>https://github.com/yoheinakajima/ditto</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2022-05-29T06:46:18Z</t>
+          <t>2024-10-15T19:45:13Z</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-11-23T04:22:15Z</t>
+          <t>2025-11-11T07:07:11Z</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>cogvideo</t>
+          <t>cogstudio</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
+          <t>https://github.com/pinokiofactory/cogstudio</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2024-09-20T10:46:17Z</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025-11-24T01:51:51Z</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2025-11-05T18:19:52Z</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>37</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>zai-org/CogVideo</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/zai-org/CogVideo</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2022-05-29T06:46:18Z</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2025-11-27T10:50:07Z</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>cogvideo</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
           <t>https://github.com/pinokiofactory/cogvideo</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>2024-08-30T10:13:02Z</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2025-05-16T03:00:05Z</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>2025-03-16T23:56:15Z</t>
         </is>
       </c>
-      <c r="G94" t="n">
+      <c r="G95" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>zai-org/CogVideo</t>
         </is>
       </c>
-      <c r="I94" s="2" t="inlineStr">
+      <c r="I95" s="2" t="inlineStr">
         <is>
           <t>https://github.com/zai-org/CogVideo</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>2022-05-29T06:46:18Z</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>2025-11-16T05:56:36Z</t>
         </is>
       </c>
-      <c r="L94" t="n">
+      <c r="L95" t="n">
         <v>102</v>
       </c>
     </row>
@@ -4889,6 +4947,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I93" r:id="rId136"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C94" r:id="rId137"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I94" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C95" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I95" r:id="rId140"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,12 +614,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-11-01T03:21:48Z</t>
+          <t>2025-12-05T20:32:47Z</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-16T17:12:16Z</t>
+          <t>2025-12-05T20:32:43Z</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -650,16 +650,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-11-26T10:33:32Z</t>
+          <t>2025-12-02T22:00:13Z</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-11-02T20:31:48Z</t>
+          <t>2025-12-02T22:00:10Z</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-11-30T00:32:59Z</t>
+          <t>2025-12-02T21:43:31Z</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-11-30T00:32:55Z</t>
+          <t>2025-12-02T21:43:28Z</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -730,7 +730,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-11-24T18:19:49Z</t>
+          <t>2025-12-01T21:07:49Z</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-11-18T20:20:00Z</t>
+          <t>2025-12-02T21:58:18Z</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-11-18T20:19:55Z</t>
+          <t>2025-12-02T21:58:14Z</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -922,12 +922,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-11-19T17:01:08Z</t>
+          <t>2025-12-02T22:14:39Z</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-11-19T17:01:05Z</t>
+          <t>2025-12-02T22:14:35Z</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-11-06T06:07:33Z</t>
+          <t>2025-12-05T01:50:32Z</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-11-06T06:07:28Z</t>
+          <t>2025-12-05T01:50:29Z</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-17T21:38:12Z</t>
+          <t>2025-12-03T13:16:26Z</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-11-15T19:46:47Z</t>
+          <t>2025-12-02T23:07:18Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-11-15T19:46:41Z</t>
+          <t>2025-12-02T23:07:14Z</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-11-06T14:56:54Z</t>
+          <t>2025-12-04T03:24:42Z</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-03-16T23:37:31Z</t>
+          <t>2025-12-04T03:24:37Z</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-11-13T19:41:58Z</t>
+          <t>2025-12-04T07:59:32Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1642,12 +1642,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-11-06T07:55:15Z</t>
+          <t>2025-12-04T05:43:06Z</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-11-06T07:55:09Z</t>
+          <t>2025-12-04T05:43:02Z</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-11-22T23:35:57Z</t>
+          <t>2025-12-02T23:04:52Z</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-11-22T23:35:52Z</t>
+          <t>2025-12-02T23:04:48Z</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-11-25T11:48:01Z</t>
+          <t>2025-12-05T18:23:58Z</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2274,140 +2274,118 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>text2midi</t>
+          <t>z-image-turbo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/text2midi</t>
+          <t>https://github.com/pinokiofactory/z-image-turbo</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-12-27T18:31:20Z</t>
+          <t>2025-12-01T15:28:39Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-12-27T19:21:42Z</t>
+          <t>2025-12-01T19:45:36Z</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2024-12-27T19:21:39Z</t>
+          <t>2025-12-01T15:28:52Z</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>AMAAI-Lab/Text2midi</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>https://github.com/AMAAI-Lab/Text2midi</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>2024-12-19T07:51:33Z</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2025-11-15T04:41:44Z</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>2</v>
-      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>audiocraft_plus</t>
+          <t>ovis</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/audiocraft_plus</t>
+          <t>https://github.com/pinokiofactory/ovis</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-30T17:39:46Z</t>
+          <t>2025-12-01T17:31:10Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-03-17T00:02:40Z</t>
+          <t>2025-12-01T19:45:35Z</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-03-17T00:02:36Z</t>
+          <t>2025-12-01T17:31:27Z</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>GrandaddyShmax/audiocraft_plus</t>
+          <t>AIDC-AI/Ovis-Image</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/GrandaddyShmax/audiocraft_plus</t>
+          <t>https://github.com/AIDC-AI/Ovis-Image</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2023-06-13T14:44:53Z</t>
+          <t>2025-11-18T03:46:26Z</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2025-11-05T05:42:24Z</t>
+          <t>2025-12-07T06:14:47Z</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>applio</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Pinokio Installer for Applio</t>
-        </is>
-      </c>
+          <t>text2midi</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/applio</t>
+          <t>https://github.com/pinokiofactory/text2midi</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-09-13T18:29:14Z</t>
+          <t>2024-12-27T18:31:20Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-11-16T17:12:14Z</t>
+          <t>2024-12-27T19:21:42Z</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-11-16T17:12:11Z</t>
+          <t>2024-12-27T19:21:39Z</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2415,273 +2393,273 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>IAHispano/Applio</t>
+          <t>AMAAI-Lab/Text2midi</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/IAHispano/Applio</t>
+          <t>https://github.com/AMAAI-Lab/Text2midi</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2023-08-07T22:42:16Z</t>
+          <t>2024-12-19T07:51:33Z</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-11-23T00:02:35Z</t>
+          <t>2025-11-15T04:41:44Z</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>liveportrait</t>
+          <t>audiocraft_plus</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/liveportrait</t>
+          <t>https://github.com/pinokiofactory/audiocraft_plus</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-22T12:47:06Z</t>
+          <t>2024-07-30T17:39:46Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-11-28T23:23:33Z</t>
+          <t>2025-03-17T00:02:40Z</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-11-28T23:23:29Z</t>
+          <t>2025-03-17T00:02:36Z</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>KlingTeam/LivePortrait</t>
+          <t>GrandaddyShmax/audiocraft_plus</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/KlingTeam/LivePortrait</t>
+          <t>https://github.com/GrandaddyShmax/audiocraft_plus</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2024-07-03T16:15:03Z</t>
+          <t>2023-06-13T14:44:53Z</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2025-11-30T06:16:40Z</t>
+          <t>2025-11-05T05:42:24Z</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>279</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Orpheus-TTS-FastAPI</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>applio</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pinokio Installer for Applio</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Orpheus-TTS-FastAPI</t>
+          <t>https://github.com/pinokiofactory/applio</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-23T05:39:00Z</t>
+          <t>2024-09-13T18:29:14Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-11-14T14:20:24Z</t>
+          <t>2025-11-16T17:12:14Z</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-11-14T14:20:21Z</t>
+          <t>2025-11-16T17:12:11Z</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Lex-au/Orpheus-FastAPI</t>
+          <t>IAHispano/Applio</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Lex-au/Orpheus-FastAPI</t>
+          <t>https://github.com/IAHispano/Applio</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2025-03-21T15:24:16Z</t>
+          <t>2023-08-07T22:42:16Z</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-11-15T22:32:41Z</t>
+          <t>2025-11-23T00:02:35Z</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mlx-video-transcription</t>
+          <t>liveportrait</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/mlx-video-transcription</t>
+          <t>https://github.com/pinokiofactory/liveportrait</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-08-19T17:41:12Z</t>
+          <t>2024-07-22T12:47:06Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-08-22T00:43:48Z</t>
+          <t>2025-11-28T23:23:33Z</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2024-10-03T19:11:23Z</t>
+          <t>2025-11-28T23:23:29Z</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
+          <t>KlingTeam/LivePortrait</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
+          <t>https://github.com/KlingTeam/LivePortrait</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2024-07-30T08:44:41Z</t>
+          <t>2024-07-03T16:15:03Z</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2025-10-30T03:01:19Z</t>
+          <t>2025-11-30T06:16:40Z</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cube</t>
+          <t>Orpheus-TTS-FastAPI</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/cube</t>
+          <t>https://github.com/pinokiofactory/Orpheus-TTS-FastAPI</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-03-20T21:16:36Z</t>
+          <t>2025-03-23T05:39:00Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-11-15T16:18:44Z</t>
+          <t>2025-12-02T20:56:23Z</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-11-15T16:18:40Z</t>
+          <t>2025-12-02T20:56:20Z</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Roblox/cube</t>
+          <t>Lex-au/Orpheus-FastAPI</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Roblox/cube</t>
+          <t>https://github.com/Lex-au/Orpheus-FastAPI</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2025-03-11T22:09:47Z</t>
+          <t>2025-03-21T15:24:16Z</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2025-11-10T17:52:58Z</t>
+          <t>2025-12-05T23:32:46Z</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ultimate-TTS-Studio</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>🟢 NVIDIA ONLY – All-in-One TTS App with Kokoro, KittenTTS, Higgs audio, Chatterbox, Fish-Speech, F5 &amp; index-tts &amp; indextts2, Supports Conversation Mode &amp; eBook-to-Audiobook. All features work across all engines in a unified interface except vibe voice which is it's own app panel.</t>
-        </is>
-      </c>
+          <t>mlx-video-transcription</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Ultimate-TTS-Studio</t>
+          <t>https://github.com/pinokiofactory/mlx-video-transcription</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-11-25T20:10:36Z</t>
+          <t>2024-08-19T17:41:12Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-11-26T02:49:43Z</t>
+          <t>2025-12-03T01:26:28Z</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-11-25T20:11:09Z</t>
+          <t>2024-10-03T19:11:23Z</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2689,161 +2667,165 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
+          <t>RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
+          <t>https://github.com/RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2025-06-06T14:54:06Z</t>
+          <t>2024-07-30T08:44:41Z</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2025-11-27T13:52:16Z</t>
+          <t>2025-12-03T01:26:57Z</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>hertz</t>
+          <t>cube</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/hertz</t>
+          <t>https://github.com/pinokiofactory/cube</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-11-04T01:04:51Z</t>
+          <t>2025-03-20T21:16:36Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-11-05T08:54:25Z</t>
+          <t>2025-12-02T21:01:24Z</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2024-11-05T08:54:21Z</t>
+          <t>2025-12-02T21:01:20Z</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Standard-Intelligence/hertz-dev</t>
+          <t>Roblox/cube</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Standard-Intelligence/hertz-dev</t>
+          <t>https://github.com/Roblox/cube</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2024-11-03T14:41:39Z</t>
+          <t>2025-03-11T22:09:47Z</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2025-11-14T16:05:18Z</t>
+          <t>2025-12-04T19:09:56Z</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hunyuan3D-2</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>Ultimate-TTS-Studio</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>🟢 NVIDIA ONLY – All-in-One TTS App with Kokoro, KittenTTS, Higgs audio, Chatterbox, Fish-Speech, F5 &amp; index-tts &amp; indextts2, Supports Conversation Mode &amp; eBook-to-Audiobook. All features work across all engines in a unified interface except vibe voice which is it's own app panel.</t>
+        </is>
+      </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3D-2</t>
+          <t>https://github.com/pinokiofactory/Ultimate-TTS-Studio</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-01-25T04:41:01Z</t>
+          <t>2025-11-25T20:10:36Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:13Z</t>
+          <t>2025-12-06T23:38:15Z</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:10Z</t>
+          <t>2025-12-06T23:38:11Z</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
+          <t>SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
+          <t>https://github.com/SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2025-01-21T05:21:35Z</t>
+          <t>2025-06-06T14:54:06Z</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2025-11-16T06:33:02Z</t>
+          <t>2025-12-07T06:07:56Z</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>219</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Hunyuan3D-2-mini</t>
+          <t>hertz</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3D-2-mini</t>
+          <t>https://github.com/pinokiofactory/hertz</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-01-23T21:29:42Z</t>
+          <t>2024-11-04T01:04:51Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-01-25T03:18:46Z</t>
+          <t>2024-11-05T08:54:25Z</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-01-25T03:50:23Z</t>
+          <t>2024-11-05T08:54:21Z</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2851,991 +2833,991 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
+          <t>Standard-Intelligence/hertz-dev</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
+          <t>https://github.com/Standard-Intelligence/hertz-dev</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2025-01-21T05:21:35Z</t>
+          <t>2024-11-03T14:41:39Z</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2025-11-16T06:33:02Z</t>
+          <t>2025-11-14T16:05:18Z</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AudioX</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>AudioX: Diffusion Transformer for Anything-to-Audio Generation</t>
-        </is>
-      </c>
+          <t>Hunyuan3D-2</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/AudioX</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-04-23T00:08:00Z</t>
+          <t>2025-01-25T04:41:01Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-07-12T12:25:25Z</t>
+          <t>2025-11-09T20:06:13Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-07-12T12:25:21Z</t>
+          <t>2025-11-09T20:06:10Z</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ZeyueT/AudioX</t>
+          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ZeyueT/AudioX</t>
+          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2025-03-13T10:18:21Z</t>
+          <t>2025-01-21T05:21:35Z</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-11-14T16:45:52Z</t>
+          <t>2025-11-16T06:33:02Z</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>52</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RMBG-2-Studio</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Enhanced background remove and replace app built around BRIA-RMBG-2.0.  Low VRAM/RAM | 6GB Install</t>
-        </is>
-      </c>
+          <t>Hunyuan3D-2-mini</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/RMBG-2-Studio</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3D-2-mini</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-11-15T07:13:23Z</t>
+          <t>2025-01-23T21:29:42Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-11-30T00:43:42Z</t>
+          <t>2025-01-25T03:18:46Z</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-30T19:29:17Z</t>
+          <t>2025-01-25T03:50:23Z</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ZhengPeng7/BiRefNet</t>
+          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ZhengPeng7/BiRefNet</t>
+          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2022-08-17T09:13:39Z</t>
+          <t>2025-01-21T05:21:35Z</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2025-11-30T02:42:20Z</t>
+          <t>2025-11-16T06:33:02Z</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>21</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>zonos</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>AudioX</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>AudioX: Diffusion Transformer for Anything-to-Audio Generation</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/zonos</t>
+          <t>https://github.com/pinokiofactory/AudioX</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-02-11T09:00:12Z</t>
+          <t>2025-04-23T00:08:00Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-11-13T18:52:13Z</t>
+          <t>2025-07-12T12:25:25Z</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-11-13T18:52:08Z</t>
+          <t>2025-07-12T12:25:21Z</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Zyphra/Zonos</t>
+          <t>ZeyueT/AudioX</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Zyphra/Zonos</t>
+          <t>https://github.com/ZeyueT/AudioX</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2025-02-07T00:32:44Z</t>
+          <t>2025-03-13T10:18:21Z</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2025-11-15T21:17:20Z</t>
+          <t>2025-11-14T16:45:52Z</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>167</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ACE-Step</t>
+          <t>RMBG-2-Studio</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A Step Towards Music Generation Foundation Model</t>
+          <t>Enhanced background remove and replace app built around BRIA-RMBG-2.0.  Low VRAM/RAM | 6GB Install</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/ACE-Step</t>
+          <t>https://github.com/pinokiofactory/RMBG-2-Studio</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-05-07T11:25:33Z</t>
+          <t>2024-11-15T07:13:23Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-11-06T02:01:42Z</t>
+          <t>2025-12-05T02:43:51Z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-11-05T13:29:45Z</t>
+          <t>2025-12-02T22:50:55Z</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ace-step/ACE-Step</t>
+          <t>ZhengPeng7/BiRefNet</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ace-step/ACE-Step</t>
+          <t>https://github.com/ZhengPeng7/BiRefNet</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2025-04-28T07:03:09Z</t>
+          <t>2022-08-17T09:13:39Z</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-11-16T04:00:36Z</t>
+          <t>2025-12-06T10:04:30Z</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MagicQuill</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>An intelligent, interactive Image Editing System. Easily erase and add objects on a user-friendly interface.</t>
-        </is>
-      </c>
+          <t>zonos</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/MagicQuill</t>
+          <t>https://github.com/pinokiofactory/zonos</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-02-19T03:58:52Z</t>
+          <t>2025-02-11T09:00:12Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-11-21T09:24:24Z</t>
+          <t>2025-12-06T22:44:56Z</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-11-21T09:24:20Z</t>
+          <t>2025-12-06T22:44:52Z</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ant-research/MagicQuill</t>
+          <t>Zyphra/Zonos</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ant-research/MagicQuill</t>
+          <t>https://github.com/Zyphra/Zonos</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2024-11-12T12:52:36Z</t>
+          <t>2025-02-07T00:32:44Z</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2025-11-22T23:45:24Z</t>
+          <t>2025-12-06T07:10:48Z</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>echomimic2</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
+          <t>ACE-Step</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A Step Towards Music Generation Foundation Model</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/echomimic2</t>
+          <t>https://github.com/pinokiofactory/ACE-Step</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-11-24T07:52:04Z</t>
+          <t>2025-05-07T11:25:33Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-11-21T16:25:52Z</t>
+          <t>2025-12-06T11:35:01Z</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-11-21T16:25:49Z</t>
+          <t>2025-12-06T11:34:57Z</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>antgroup/echomimic_v2</t>
+          <t>ace-step/ACE-Step</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/antgroup/echomimic_v2</t>
+          <t>https://github.com/ace-step/ACE-Step</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2024-11-20T08:35:35Z</t>
+          <t>2025-04-28T07:03:09Z</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-11-22T13:55:30Z</t>
+          <t>2025-12-07T04:48:04Z</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>79</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>macOS-use</t>
+          <t>MagicQuill</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>We Make Mac apps accessible for AI agents</t>
+          <t>An intelligent, interactive Image Editing System. Easily erase and add objects on a user-friendly interface.</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/macOS-use</t>
+          <t>https://github.com/pinokiofactory/MagicQuill</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-02-18T16:54:37Z</t>
+          <t>2025-02-19T03:58:52Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-11-04T13:06:11Z</t>
+          <t>2025-12-02T21:45:17Z</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-04-01T04:14:59Z</t>
+          <t>2025-12-02T21:45:13Z</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>browser-use/macOS-use</t>
+          <t>ant-research/MagicQuill</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/browser-use/macOS-use</t>
+          <t>https://github.com/ant-research/MagicQuill</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2025-01-23T00:35:15Z</t>
+          <t>2024-11-12T12:52:36Z</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-11-14T12:34:29Z</t>
+          <t>2025-12-06T23:35:19Z</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>browser-use</t>
+          <t>echomimic2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/browser-use</t>
+          <t>https://github.com/pinokiofactory/echomimic2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-01-19T21:55:50Z</t>
+          <t>2024-11-24T07:52:04Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-11-19T15:34:36Z</t>
+          <t>2025-12-06T05:47:59Z</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-04-01T04:25:12Z</t>
+          <t>2025-12-06T05:47:56Z</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>browser-use/web-ui</t>
+          <t>antgroup/echomimic_v2</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/browser-use/web-ui</t>
+          <t>https://github.com/antgroup/echomimic_v2</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2025-01-02T01:29:44Z</t>
+          <t>2024-11-20T08:35:35Z</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2025-11-22T16:44:52Z</t>
+          <t>2025-12-06T17:52:50Z</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>299</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>uno</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>macOS-use</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>We Make Mac apps accessible for AI agents</t>
+        </is>
+      </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/uno</t>
+          <t>https://github.com/pinokiofactory/macOS-use</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-04-10T18:31:57Z</t>
+          <t>2025-02-18T16:54:37Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-11-14T14:05:37Z</t>
+          <t>2025-11-04T13:06:11Z</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-11-14T14:05:33Z</t>
+          <t>2025-04-01T04:14:59Z</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>bytedance/UNO</t>
+          <t>browser-use/macOS-use</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/bytedance/UNO</t>
+          <t>https://github.com/browser-use/macOS-use</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2025-04-01T13:25:11Z</t>
+          <t>2025-01-23T00:35:15Z</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-11-13T02:05:29Z</t>
+          <t>2025-11-14T12:34:29Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>comfy</t>
+          <t>browser-use</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/comfy</t>
+          <t>https://github.com/pinokiofactory/browser-use</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-08-13T19:47:18Z</t>
+          <t>2025-01-19T21:55:50Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-11-14T17:20:33Z</t>
+          <t>2025-11-19T15:34:36Z</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-11-14T17:20:29Z</t>
+          <t>2025-04-01T04:25:12Z</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>comfyanonymous/ComfyUI</t>
+          <t>browser-use/web-ui</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/comfyanonymous/ComfyUI</t>
+          <t>https://github.com/browser-use/web-ui</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2023-01-17T03:15:56Z</t>
+          <t>2025-01-02T01:29:44Z</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2025-11-16T05:22:41Z</t>
+          <t>2025-11-22T16:44:52Z</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3139</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hunyuan3d-2-lowvram</t>
+          <t>uno</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3d-2-lowvram</t>
+          <t>https://github.com/pinokiofactory/uno</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-01-25T04:44:25Z</t>
+          <t>2025-04-10T18:31:57Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:03Z</t>
+          <t>2025-12-02T20:55:29Z</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:00Z</t>
+          <t>2025-12-02T20:55:25Z</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>deepbeepmeep/Hunyuan3D-2GP</t>
+          <t>bytedance/UNO</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/Hunyuan3D-2GP</t>
+          <t>https://github.com/bytedance/UNO</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2025-01-22T01:50:03Z</t>
+          <t>2025-04-01T13:25:11Z</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2025-11-15T23:28:40Z</t>
+          <t>2025-12-04T05:12:09Z</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>hunyuanvideo</t>
+          <t>comfy</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/hunyuanvideo</t>
+          <t>https://github.com/pinokiofactory/comfy</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-12-11T01:55:53Z</t>
+          <t>2024-08-13T19:47:18Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:24Z</t>
+          <t>2025-12-02T21:35:18Z</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:21Z</t>
+          <t>2025-12-02T21:35:15Z</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>deepbeepmeep/HunyuanVideoGP</t>
+          <t>comfyanonymous/ComfyUI</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/HunyuanVideoGP</t>
+          <t>https://github.com/comfyanonymous/ComfyUI</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2024-12-10T18:34:42Z</t>
+          <t>2023-01-17T03:15:56Z</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-11-07T19:25:00Z</t>
+          <t>2025-12-07T06:28:25Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>13</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>wan</t>
+          <t>Hunyuan3d-2-lowvram</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/wan</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3d-2-lowvram</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-03-03T17:32:45Z</t>
+          <t>2025-01-25T04:44:25Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-11-27T12:49:14Z</t>
+          <t>2025-12-02T21:00:31Z</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-11-13T20:41:24Z</t>
+          <t>2025-12-02T21:00:28Z</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>deepbeepmeep/Wan2GP</t>
+          <t>deepbeepmeep/Hunyuan3D-2GP</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/Wan2GP</t>
+          <t>https://github.com/deepbeepmeep/Hunyuan3D-2GP</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2025-02-27T23:52:36Z</t>
+          <t>2025-01-22T01:50:03Z</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-11-30T06:11:23Z</t>
+          <t>2025-12-02T08:09:48Z</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>469</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>yue</t>
+          <t>hunyuanvideo</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/yue</t>
+          <t>https://github.com/pinokiofactory/hunyuanvideo</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-01-29T11:22:39Z</t>
+          <t>2024-12-11T01:55:53Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-11-21T14:34:23Z</t>
+          <t>2025-12-02T20:58:59Z</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-11-21T14:34:18Z</t>
+          <t>2025-12-02T20:58:56Z</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>deepbeepmeep/YuEGP</t>
+          <t>deepbeepmeep/HunyuanVideoGP</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/YuEGP</t>
+          <t>https://github.com/deepbeepmeep/HunyuanVideoGP</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2025-01-28T07:23:51Z</t>
+          <t>2024-12-10T18:34:42Z</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2025-11-10T18:51:05Z</t>
+          <t>2025-12-03T13:16:36Z</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>janus</t>
+          <t>wan</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/janus</t>
+          <t>https://github.com/pinokiofactory/wan</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-01-27T18:23:47Z</t>
+          <t>2025-03-03T17:32:45Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-01-28T02:37:49Z</t>
+          <t>2025-12-04T20:14:10Z</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-01-28T02:37:46Z</t>
+          <t>2025-12-04T20:14:06Z</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>deepseek-ai/Janus</t>
+          <t>deepbeepmeep/Wan2GP</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepseek-ai/Janus</t>
+          <t>https://github.com/deepbeepmeep/Wan2GP</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2024-10-18T03:48:16Z</t>
+          <t>2025-02-27T23:52:36Z</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2025-11-15T15:45:09Z</t>
+          <t>2025-12-07T06:13:44Z</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>177</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>yue</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/diamond</t>
+          <t>https://github.com/pinokiofactory/yue</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-10-12T15:37:19Z</t>
+          <t>2025-01-29T11:22:39Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-04-07T18:54:02Z</t>
+          <t>2025-12-02T21:56:08Z</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-03-16T23:31:53Z</t>
+          <t>2025-12-02T21:56:04Z</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>eloialonso/diamond</t>
+          <t>deepbeepmeep/YuEGP</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/eloialonso/diamond</t>
+          <t>https://github.com/deepbeepmeep/YuEGP</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2024-05-19T22:31:40Z</t>
+          <t>2025-01-28T07:23:51Z</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2025-11-15T13:26:04Z</t>
+          <t>2025-12-06T23:11:18Z</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AllTalk-TTS</t>
+          <t>janus</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/AllTalk-TTS</t>
+          <t>https://github.com/pinokiofactory/janus</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-02-05T16:24:30Z</t>
+          <t>2025-01-27T18:23:47Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-04-05T16:19:34Z</t>
+          <t>2025-01-28T02:37:49Z</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-03-29T16:44:51Z</t>
+          <t>2025-01-28T02:37:46Z</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>erew123/alltalk_tts</t>
+          <t>deepseek-ai/Janus</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/erew123/alltalk_tts</t>
+          <t>https://github.com/deepseek-ai/Janus</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2023-12-08T09:35:19Z</t>
+          <t>2024-10-18T03:48:16Z</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2025-11-15T23:50:46Z</t>
+          <t>2025-11-15T15:45:09Z</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>71</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>oasis</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/oasis</t>
+          <t>https://github.com/pinokiofactory/diamond</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-10-31T23:24:32Z</t>
+          <t>2024-10-12T15:37:19Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-10-31T23:47:38Z</t>
+          <t>2025-12-02T23:46:53Z</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2024-10-31T23:47:35Z</t>
+          <t>2025-12-02T23:46:49Z</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3843,107 +3825,107 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>etched-ai/open-oasis</t>
+          <t>eloialonso/diamond</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/etched-ai/open-oasis</t>
+          <t>https://github.com/eloialonso/diamond</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2024-10-31T09:10:45Z</t>
+          <t>2024-05-19T22:31:40Z</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2025-11-14T05:41:47Z</t>
+          <t>2025-12-06T01:55:14Z</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>openaudio</t>
+          <t>AllTalk-TTS</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/openaudio</t>
+          <t>https://github.com/pinokiofactory/AllTalk-TTS</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-11-02T08:47:31Z</t>
+          <t>2025-02-05T16:24:30Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-11-14T12:30:40Z</t>
+          <t>2025-04-05T16:19:34Z</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-11-14T12:30:36Z</t>
+          <t>2025-03-29T16:44:51Z</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>fishaudio/fish-speech</t>
+          <t>erew123/alltalk_tts</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/fishaudio/fish-speech</t>
+          <t>https://github.com/erew123/alltalk_tts</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2023-10-10T03:16:51Z</t>
+          <t>2023-12-08T09:35:19Z</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2025-11-15T21:15:05Z</t>
+          <t>2025-11-15T23:50:46Z</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mochi</t>
+          <t>oasis</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/mochi</t>
+          <t>https://github.com/pinokiofactory/oasis</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-10-23T18:51:07Z</t>
+          <t>2024-10-31T23:24:32Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-10-29T03:03:08Z</t>
+          <t>2024-10-31T23:47:38Z</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2024-10-29T03:03:04Z</t>
+          <t>2024-10-31T23:47:35Z</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3951,725 +3933,721 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>genmoai/mochi</t>
+          <t>etched-ai/open-oasis</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/genmoai/mochi</t>
+          <t>https://github.com/etched-ai/open-oasis</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2024-09-11T02:55:33Z</t>
+          <t>2024-10-31T09:10:45Z</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2025-11-15T23:14:45Z</t>
+          <t>2025-11-14T05:41:47Z</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>instantir</t>
+          <t>openaudio</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/instantir</t>
+          <t>https://github.com/pinokiofactory/openaudio</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-11-08T08:05:55Z</t>
+          <t>2024-11-02T08:47:31Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-11-30T00:45:01Z</t>
+          <t>2025-12-02T20:35:54Z</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-11-21T18:55:04Z</t>
+          <t>2025-12-02T20:35:50Z</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>instantX-research/InstantIR</t>
+          <t>fishaudio/fish-speech</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/instantX-research/InstantIR</t>
+          <t>https://github.com/fishaudio/fish-speech</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2024-10-20T03:17:01Z</t>
+          <t>2023-10-10T03:16:51Z</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2025-11-26T08:31:35Z</t>
+          <t>2025-12-07T03:48:23Z</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>whisper-webui</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Pinokio Installer for Whisper-Webui</t>
-        </is>
-      </c>
+          <t>mochi</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/whisper-webui</t>
+          <t>https://github.com/pinokiofactory/mochi</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-09-21T20:42:20Z</t>
+          <t>2024-10-23T18:51:07Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-10-22T20:55:22Z</t>
+          <t>2024-10-29T03:03:08Z</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-08-20T16:40:02Z</t>
+          <t>2024-10-29T03:03:04Z</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>jhj0517/Whisper-WebUI</t>
+          <t>genmoai/mochi</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/jhj0517/Whisper-WebUI</t>
+          <t>https://github.com/genmoai/mochi</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2023-03-02T13:42:01Z</t>
+          <t>2024-09-11T02:55:33Z</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2025-11-14T18:17:05Z</t>
+          <t>2025-11-15T23:14:45Z</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>132</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>pyramidflow</t>
+          <t>instantir</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/pyramidflow</t>
+          <t>https://github.com/pinokiofactory/instantir</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-11-16T08:35:22Z</t>
+          <t>2024-11-08T08:05:55Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-11-19T18:46:58Z</t>
+          <t>2025-12-02T22:52:18Z</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-11-19T18:46:54Z</t>
+          <t>2025-12-02T22:52:15Z</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>jy0205/Pyramid-Flow</t>
+          <t>instantX-research/InstantIR</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/jy0205/Pyramid-Flow</t>
+          <t>https://github.com/instantX-research/InstantIR</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2024-10-06T13:06:31Z</t>
+          <t>2024-10-20T03:17:01Z</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2025-11-19T15:58:57Z</t>
+          <t>2025-11-26T08:31:35Z</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Frame-Pack</t>
+          <t>whisper-webui</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>(NVIDIA) FramePack is a next-frame (next-frame-section) prediction neural network structure that generates videos progressively.</t>
+          <t>Pinokio Installer for Whisper-Webui</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Frame-Pack</t>
+          <t>https://github.com/pinokiofactory/whisper-webui</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-04-17T11:43:03Z</t>
+          <t>2024-09-21T20:42:20Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-11-23T13:02:32Z</t>
+          <t>2025-10-22T20:55:22Z</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-09-05T21:07:52Z</t>
+          <t>2025-08-20T16:40:02Z</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>lllyasviel/FramePack</t>
+          <t>jhj0517/Whisper-WebUI</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/lllyasviel/FramePack</t>
+          <t>https://github.com/jhj0517/Whisper-WebUI</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2025-04-12T14:45:22Z</t>
+          <t>2023-03-02T13:42:01Z</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-11-30T06:16:13Z</t>
+          <t>2025-11-14T18:17:05Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>469</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>stable-diffusion-webui-forge</t>
+          <t>pyramidflow</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/stable-diffusion-webui-forge</t>
+          <t>https://github.com/pinokiofactory/pyramidflow</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-08-12T12:38:49Z</t>
+          <t>2024-11-16T08:35:22Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-11-17T01:56:31Z</t>
+          <t>2025-12-04T18:28:05Z</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-11-17T01:56:27Z</t>
+          <t>2025-12-04T18:28:01Z</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>lllyasviel/stable-diffusion-webui-forge</t>
+          <t>jy0205/Pyramid-Flow</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/lllyasviel/stable-diffusion-webui-forge</t>
+          <t>https://github.com/jy0205/Pyramid-Flow</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2024-01-14T11:39:30Z</t>
+          <t>2024-10-06T13:06:31Z</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2025-11-23T05:57:50Z</t>
+          <t>2025-12-06T20:01:25Z</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>omniparser</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
+          <t>Frame-Pack</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>(NVIDIA) FramePack is a next-frame (next-frame-section) prediction neural network structure that generates videos progressively.</t>
+        </is>
+      </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/omniparser</t>
+          <t>https://github.com/pinokiofactory/Frame-Pack</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-10-26T06:04:17Z</t>
+          <t>2025-04-17T11:43:03Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-10-28T04:49:07Z</t>
+          <t>2025-12-02T20:48:22Z</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2024-10-26T08:03:10Z</t>
+          <t>2025-12-02T20:48:18Z</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>microsoft/OmniParser</t>
+          <t>lllyasviel/FramePack</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/microsoft/OmniParser</t>
+          <t>https://github.com/lllyasviel/FramePack</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2024-09-20T05:18:18Z</t>
+          <t>2025-04-12T14:45:22Z</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2025-11-16T06:25:49Z</t>
+          <t>2025-12-07T00:08:45Z</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>225</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dia</t>
+          <t>stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/dia</t>
+          <t>https://github.com/pinokiofactory/stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-04-22T14:57:53Z</t>
+          <t>2024-08-12T12:38:49Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-11-28T18:06:01Z</t>
+          <t>2025-11-17T01:56:31Z</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-11-14T13:52:01Z</t>
+          <t>2025-11-17T01:56:27Z</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>nari-labs/dia</t>
+          <t>lllyasviel/stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/nari-labs/dia</t>
+          <t>https://github.com/lllyasviel/stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2025-04-19T07:15:57Z</t>
+          <t>2024-01-14T11:39:30Z</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2025-11-30T06:18:14Z</t>
+          <t>2025-11-23T05:57:50Z</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>85</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>clarity-refiners-ui</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Creative Image Enhancer/Upscaler. Powered By Refiners.  8GB VRAM | 10GB Install</t>
-        </is>
-      </c>
+          <t>omniparser</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/clarity-refiners-ui</t>
+          <t>https://github.com/pinokiofactory/omniparser</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-11-12T07:03:48Z</t>
+          <t>2024-10-26T06:04:17Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-11-26T06:10:54Z</t>
+          <t>2024-10-28T04:49:07Z</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-10-26T23:06:48Z</t>
+          <t>2024-10-26T08:03:10Z</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>philz1337x/clarity-upscaler</t>
+          <t>microsoft/OmniParser</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/philz1337x/clarity-upscaler</t>
+          <t>https://github.com/microsoft/OmniParser</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2024-03-15T15:21:40Z</t>
+          <t>2024-09-20T05:18:18Z</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2025-11-30T01:44:01Z</t>
+          <t>2025-11-16T06:25:49Z</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>18</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Allegro-txt2vid</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Allegro is a powerful text-to-video model that generates high-quality videos up to 6 seconds at 15 FPS and 720p resolution from simple text input.</t>
-        </is>
-      </c>
+          <t>vibevoice-realtime</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Allegro-txt2vid</t>
+          <t>https://github.com/pinokiofactory/vibevoice-realtime</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-10-25T06:33:03Z</t>
+          <t>2025-12-04T21:57:09Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-11-05T23:56:50Z</t>
+          <t>2025-12-04T23:12:30Z</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2024-11-05T23:56:47Z</t>
+          <t>2025-12-04T23:12:27Z</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>rhymes-ai/Allegro</t>
+          <t>microsoft/VibeVoice</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/rhymes-ai/Allegro</t>
+          <t>https://github.com/microsoft/VibeVoice</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2024-10-16T04:04:15Z</t>
+          <t>2025-08-25T13:24:01Z</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2025-11-07T08:32:13Z</t>
+          <t>2025-12-07T06:35:39Z</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Allegro-txt2vid-install</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Allegro-txt2vid. WARNING: takes a long time to generate a result, 1hr on a 3090. 12GB+ VRAM | 32GB+ RAM | 30GB Download. Check the README for details</t>
-        </is>
-      </c>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Allegro-txt2vid-install</t>
+          <t>https://github.com/pinokiofactory/dia</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-10-27T14:58:05Z</t>
+          <t>2025-04-22T14:57:53Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-06-05T20:04:12Z</t>
+          <t>2025-12-05T00:36:48Z</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-03-16T23:27:46Z</t>
+          <t>2025-12-05T00:36:45Z</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>rhymes-ai/Allegro</t>
+          <t>nari-labs/dia</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/rhymes-ai/Allegro</t>
+          <t>https://github.com/nari-labs/dia</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2024-10-16T04:04:15Z</t>
+          <t>2025-04-19T07:15:57Z</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2025-11-07T08:32:13Z</t>
+          <t>2025-12-07T03:43:46Z</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RuinedFooocus</t>
+          <t>clarity-refiners-ui</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">(NVIDIA ONLY) Forget everything you thought you knew about AI art generation - RuinedFooocus is here to completely reinvent the game! This groundbreaking image creator combines the best aspects of Stable Diffusion and Midjourney into one seamless, cutting-edge experience. </t>
+          <t>Creative Image Enhancer/Upscaler. Powered By Refiners.  8GB VRAM | 10GB Install</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/RuinedFooocus</t>
+          <t>https://github.com/pinokiofactory/clarity-refiners-ui</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-04-22T14:09:26Z</t>
+          <t>2024-11-12T07:03:48Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-10-30T19:53:32Z</t>
+          <t>2025-12-02T22:18:31Z</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-10-30T19:53:29Z</t>
+          <t>2025-12-02T22:18:28Z</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>runew0lf/RuinedFooocus</t>
+          <t>philz1337x/clarity-upscaler</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/runew0lf/RuinedFooocus</t>
+          <t>https://github.com/philz1337x/clarity-upscaler</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2023-08-16T09:20:46Z</t>
+          <t>2024-03-15T15:21:40Z</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2025-11-15T08:55:10Z</t>
+          <t>2025-12-06T20:21:48Z</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>bolt</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>Allegro-txt2vid</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Allegro is a powerful text-to-video model that generates high-quality videos up to 6 seconds at 15 FPS and 720p resolution from simple text input.</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/bolt</t>
+          <t>https://github.com/pinokiofactory/Allegro-txt2vid</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-10-30T04:46:10Z</t>
+          <t>2024-10-25T06:33:03Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-11-13T19:42:03Z</t>
+          <t>2024-11-05T23:56:50Z</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-04-01T04:27:03Z</t>
+          <t>2024-11-05T23:56:47Z</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>stackblitz-labs/bolt.diy</t>
+          <t>rhymes-ai/Allegro</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/stackblitz-labs/bolt.diy</t>
+          <t>https://github.com/rhymes-ai/Allegro</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2024-10-13T18:40:54Z</t>
+          <t>2024-10-16T04:04:15Z</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2025-11-15T21:39:46Z</t>
+          <t>2025-11-07T08:32:13Z</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ditto</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
+          <t>Allegro-txt2vid-install</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Allegro-txt2vid. WARNING: takes a long time to generate a result, 1hr on a 3090. 12GB+ VRAM | 32GB+ RAM | 30GB Download. Check the README for details</t>
+        </is>
+      </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/ditto</t>
+          <t>https://github.com/pinokiofactory/Allegro-txt2vid-install</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-10-15T21:29:32Z</t>
+          <t>2024-10-27T14:58:05Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-11-06T00:05:04Z</t>
+          <t>2025-12-04T05:36:24Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2024-10-15T22:47:07Z</t>
+          <t>2025-12-04T05:36:20Z</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4677,133 +4655,299 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>yoheinakajima/ditto</t>
+          <t>rhymes-ai/Allegro</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/yoheinakajima/ditto</t>
+          <t>https://github.com/rhymes-ai/Allegro</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2024-10-15T19:45:13Z</t>
+          <t>2024-10-16T04:04:15Z</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-11-11T07:07:11Z</t>
+          <t>2025-12-06T00:53:45Z</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>cogstudio</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>RuinedFooocus</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(NVIDIA ONLY) Forget everything you thought you knew about AI art generation - RuinedFooocus is here to completely reinvent the game! This groundbreaking image creator combines the best aspects of Stable Diffusion and Midjourney into one seamless, cutting-edge experience. </t>
+        </is>
+      </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/cogstudio</t>
+          <t>https://github.com/pinokiofactory/RuinedFooocus</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-09-20T10:46:17Z</t>
+          <t>2025-04-22T14:09:26Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-11-24T01:51:51Z</t>
+          <t>2025-10-30T19:53:32Z</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-11-05T18:19:52Z</t>
+          <t>2025-10-30T19:53:29Z</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>zai-org/CogVideo</t>
+          <t>runew0lf/RuinedFooocus</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/zai-org/CogVideo</t>
+          <t>https://github.com/runew0lf/RuinedFooocus</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2022-05-29T06:46:18Z</t>
+          <t>2023-08-16T09:20:46Z</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2025-11-27T10:50:07Z</t>
+          <t>2025-11-15T08:55:10Z</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cogvideo</t>
+          <t>bolt</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
+          <t>https://github.com/pinokiofactory/bolt</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2024-10-30T04:46:10Z</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2025-12-06T21:59:36Z</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025-12-06T21:59:33Z</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>17</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>stackblitz-labs/bolt.diy</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/stackblitz-labs/bolt.diy</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2024-10-13T18:40:54Z</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2025-12-07T05:24:38Z</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ditto</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/pinokiofactory/ditto</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2024-10-15T21:29:32Z</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2025-11-06T00:05:04Z</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2024-10-15T22:47:07Z</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>yoheinakajima/ditto</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/yoheinakajima/ditto</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2024-10-15T19:45:13Z</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2025-11-11T07:07:11Z</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>cogstudio</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/pinokiofactory/cogstudio</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2024-09-20T10:46:17Z</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2025-12-05T02:53:52Z</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2025-12-05T02:53:48Z</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>37</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>zai-org/CogVideo</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/zai-org/CogVideo</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2022-05-29T06:46:18Z</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2025-12-07T02:17:26Z</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>cogvideo</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
           <t>https://github.com/pinokiofactory/cogvideo</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>2024-08-30T10:13:02Z</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2025-05-16T03:00:05Z</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>2025-03-16T23:56:15Z</t>
         </is>
       </c>
-      <c r="G95" t="n">
+      <c r="G98" t="n">
         <v>1</v>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>zai-org/CogVideo</t>
         </is>
       </c>
-      <c r="I95" s="2" t="inlineStr">
+      <c r="I98" s="2" t="inlineStr">
         <is>
           <t>https://github.com/zai-org/CogVideo</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>2022-05-29T06:46:18Z</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>2025-11-16T05:56:36Z</t>
         </is>
       </c>
-      <c r="L95" t="n">
+      <c r="L98" t="n">
         <v>102</v>
       </c>
     </row>
@@ -4858,97 +5002,102 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C48" r:id="rId47"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C49" r:id="rId48"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C50" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I50" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C51" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I51" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C52" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I52" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C53" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I53" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C54" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I54" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C55" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I55" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C56" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I56" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C57" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I57" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C58" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I58" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C59" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I59" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C60" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I60" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C61" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I61" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C62" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I62" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C63" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I63" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C64" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I64" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C65" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I65" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C66" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I66" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C67" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I67" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C68" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I68" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C69" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I69" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C70" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I70" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C71" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I71" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C72" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I72" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C73" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I73" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C74" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I74" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C75" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I75" r:id="rId100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C76" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I76" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C77" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I77" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C78" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I78" r:id="rId106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C79" r:id="rId107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I79" r:id="rId108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C80" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I80" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C81" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I81" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C82" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I82" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C83" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I83" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C84" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I84" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C85" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I85" r:id="rId120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C86" r:id="rId121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I86" r:id="rId122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C87" r:id="rId123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I87" r:id="rId124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C88" r:id="rId125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I88" r:id="rId126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C89" r:id="rId127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I89" r:id="rId128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C90" r:id="rId129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I90" r:id="rId130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C91" r:id="rId131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I91" r:id="rId132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C92" r:id="rId133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I92" r:id="rId134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C93" r:id="rId135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I93" r:id="rId136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C94" r:id="rId137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I94" r:id="rId138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C95" r:id="rId139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I95" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I51" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C52" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I52" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C53" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I53" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C54" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I54" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C55" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I55" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C56" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I56" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C57" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I57" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C58" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I58" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C59" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I59" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C60" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I60" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C61" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I61" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C62" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I62" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C63" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I63" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C64" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I64" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C65" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I65" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C66" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I66" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C67" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I67" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C68" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I68" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C69" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I69" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C70" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I70" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C71" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I71" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C72" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I72" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C73" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I73" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C74" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I74" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C75" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I75" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C76" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I76" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C77" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I77" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C78" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I78" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C79" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I79" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C80" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I80" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C81" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I81" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C82" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I82" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C83" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I83" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C84" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I84" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C85" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I85" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C86" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I86" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C87" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I87" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C88" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I88" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C89" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I89" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C90" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I90" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C91" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I91" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C92" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I92" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C93" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I93" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C94" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I94" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C95" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I95" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C96" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I96" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C97" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I97" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C98" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I98" r:id="rId145"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-12-05T20:32:47Z</t>
+          <t>2025-12-07T09:33:31Z</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-12-05T01:50:32Z</t>
+          <t>2025-12-07T19:57:51Z</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-12-02T23:07:18Z</t>
+          <t>2025-12-10T09:39:09Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-12-04T05:43:06Z</t>
+          <t>2025-12-07T14:52:56Z</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-12-06T23:38:15Z</t>
+          <t>2025-12-12T08:48:41Z</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2794,11 +2794,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2025-12-07T06:07:56Z</t>
+          <t>2025-12-13T22:27:06Z</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-12-05T02:43:51Z</t>
+          <t>2025-12-12T08:48:22Z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3072,11 +3072,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-12-06T10:04:30Z</t>
+          <t>2025-12-14T02:16:35Z</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-12-02T21:35:18Z</t>
+          <t>2025-12-12T10:04:57Z</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3516,11 +3516,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-12-07T06:28:25Z</t>
+          <t>2025-12-14T06:37:57Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3268</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="73">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-12-02T21:00:31Z</t>
+          <t>2025-12-07T17:05:59Z</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-12-02T08:09:48Z</t>
+          <t>2025-12-07T16:47:54Z</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-12-02T20:48:22Z</t>
+          <t>2025-12-11T22:17:17Z</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2025-12-07T00:08:45Z</t>
+          <t>2025-12-13T22:50:27Z</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-12-04T23:12:30Z</t>
+          <t>2025-12-07T13:45:22Z</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -4442,11 +4442,11 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2025-12-07T06:35:39Z</t>
+          <t>2025-12-14T06:36:48Z</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90">
@@ -4468,12 +4468,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-12-05T00:36:48Z</t>
+          <t>2025-12-07T19:55:02Z</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-12-05T00:36:45Z</t>
+          <t>2025-12-07T19:54:59Z</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2025-12-07T03:43:46Z</t>
+          <t>2025-12-14T04:00:35Z</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-12-02T22:18:31Z</t>
+          <t>2025-12-10T13:18:06Z</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2025-12-06T20:21:48Z</t>
+          <t>2025-12-14T05:17:46Z</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-12-05T02:53:52Z</t>
+          <t>2025-12-12T08:47:40Z</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4890,11 +4890,11 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2025-12-07T02:17:26Z</t>
+          <t>2025-12-12T15:49:04Z</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -614,12 +614,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-12-07T09:33:31Z</t>
+          <t>2025-12-15T02:06:12Z</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-12-05T20:32:43Z</t>
+          <t>2025-12-15T02:06:08Z</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-12-02T21:58:18Z</t>
+          <t>2025-12-15T14:13:11Z</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-11-17T23:33:17Z</t>
+          <t>2025-12-15T20:38:43Z</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-12-10T09:39:09Z</t>
+          <t>2025-12-20T20:47:51Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-12-02T23:07:14Z</t>
+          <t>2025-12-20T20:47:38Z</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-12-04T07:59:32Z</t>
+          <t>2025-12-18T13:01:51Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-12-07T14:52:56Z</t>
+          <t>2025-12-18T18:43:09Z</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2492,12 +2492,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-11-16T17:12:14Z</t>
+          <t>2025-12-19T04:34:35Z</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-11-16T17:12:11Z</t>
+          <t>2025-12-19T04:34:32Z</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2520,11 +2520,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-11-23T00:02:35Z</t>
+          <t>2025-12-20T14:59:59Z</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-12-12T08:48:22Z</t>
+          <t>2025-12-17T13:41:12Z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-12-14T02:16:35Z</t>
+          <t>2025-12-20T15:03:26Z</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-12-02T21:45:17Z</t>
+          <t>2025-12-17T05:52:04Z</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-12-02T21:45:13Z</t>
+          <t>2025-12-17T05:52:00Z</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3242,11 +3242,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-12-06T23:35:19Z</t>
+          <t>2025-12-20T01:57:10Z</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-12-04T20:14:10Z</t>
+          <t>2025-12-18T10:12:00Z</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3678,11 +3678,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2025-12-07T06:13:44Z</t>
+          <t>2025-12-21T03:04:16Z</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>484</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76">
@@ -4140,16 +4140,16 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-10-22T20:55:22Z</t>
+          <t>2025-12-18T21:08:21Z</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-08-20T16:40:02Z</t>
+          <t>2025-12-18T21:08:18Z</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4168,11 +4168,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-11-14T18:17:05Z</t>
+          <t>2025-12-20T09:53:51Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-12-11T22:17:17Z</t>
+          <t>2025-12-18T10:04:25Z</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-12-02T20:48:18Z</t>
+          <t>2025-12-18T10:04:19Z</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -4280,11 +4280,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2025-12-13T22:50:27Z</t>
+          <t>2025-12-20T22:41:55Z</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-12-07T13:45:22Z</t>
+          <t>2025-12-17T03:37:38Z</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2025-12-14T06:36:48Z</t>
+          <t>2025-12-21T06:03:47Z</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -4862,12 +4862,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-12-12T08:47:40Z</t>
+          <t>2025-12-18T22:30:35Z</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-12-05T02:53:48Z</t>
+          <t>2025-12-18T22:30:30Z</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2025-12-12T15:49:04Z</t>
+          <t>2025-12-20T23:28:52Z</t>
         </is>
       </c>
       <c r="L97" t="n">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-12-12T08:48:41Z</t>
+          <t>2025-12-23T20:43:25Z</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2794,11 +2794,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2025-12-13T22:27:06Z</t>
+          <t>2025-12-27T16:41:36Z</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -3542,16 +3542,16 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-12-07T17:05:59Z</t>
+          <t>2025-12-27T20:44:54Z</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-12-02T21:00:28Z</t>
+          <t>2025-12-27T20:44:51Z</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3570,11 +3570,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-12-07T16:47:54Z</t>
+          <t>2025-12-28T02:48:43Z</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-12-18T10:12:00Z</t>
+          <t>2025-12-23T04:03:27Z</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3678,11 +3678,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2025-12-21T03:04:16Z</t>
+          <t>2025-12-28T05:51:47Z</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-12-02T20:35:54Z</t>
+          <t>2025-12-27T18:38:46Z</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4002,11 +4002,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2025-12-07T03:48:23Z</t>
+          <t>2025-12-28T05:46:28Z</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-11-17T01:56:31Z</t>
+          <t>2025-12-22T18:18:40Z</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4334,11 +4334,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2025-11-23T05:57:50Z</t>
+          <t>2025-12-28T02:00:05Z</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="88">
@@ -4414,12 +4414,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-12-17T03:37:38Z</t>
+          <t>2025-12-28T01:46:43Z</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-12-04T23:12:27Z</t>
+          <t>2025-12-22T22:00:09Z</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -4442,11 +4442,11 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2025-12-21T06:03:47Z</t>
+          <t>2025-12-28T05:27:20Z</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-12-18T22:30:35Z</t>
+          <t>2025-12-24T12:00:38Z</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2025-12-20T23:28:52Z</t>
+          <t>2025-12-28T02:24:25Z</t>
         </is>
       </c>
       <c r="L97" t="n">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -810,7 +810,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-12-15T14:13:11Z</t>
+          <t>2026-01-04T05:07:11Z</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-02T06:38:24Z</t>
+          <t>2025-12-29T13:21:44Z</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-12-20T20:47:51Z</t>
+          <t>2025-12-30T08:02:35Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-11-26T23:36:51Z</t>
+          <t>2025-12-29T07:25:21Z</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-11-03T21:07:18Z</t>
+          <t>2025-12-30T00:17:54Z</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-12-12T10:04:57Z</t>
+          <t>2025-12-30T00:21:19Z</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3516,11 +3516,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-12-14T06:37:57Z</t>
+          <t>2026-01-04T06:37:34Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3320</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="73">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-12-27T20:44:54Z</t>
+          <t>2025-12-30T00:10:19Z</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-12-28T02:48:43Z</t>
+          <t>2025-12-31T09:45:40Z</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-12-02T20:58:59Z</t>
+          <t>2025-12-30T00:20:41Z</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2025-12-03T13:16:36Z</t>
+          <t>2025-12-28T22:44:57Z</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-12-23T04:03:27Z</t>
+          <t>2025-12-30T00:17:22Z</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3678,11 +3678,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2025-12-28T05:51:47Z</t>
+          <t>2026-01-04T03:02:02Z</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76">
@@ -3974,12 +3974,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-12-27T18:38:46Z</t>
+          <t>2026-01-03T13:47:18Z</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-12-02T20:35:50Z</t>
+          <t>2026-01-03T13:47:14Z</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -4002,11 +4002,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2025-12-28T05:46:28Z</t>
+          <t>2026-01-04T06:06:33Z</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-12-28T01:46:43Z</t>
+          <t>2026-01-02T21:12:38Z</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2025-12-28T05:27:20Z</t>
+          <t>2026-01-04T06:30:59Z</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-12-10T13:18:06Z</t>
+          <t>2026-01-02T20:07:27Z</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2025-12-14T05:17:46Z</t>
+          <t>2026-01-03T09:04:39Z</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -4862,12 +4862,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-12-24T12:00:38Z</t>
+          <t>2026-01-04T00:47:26Z</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-12-18T22:30:30Z</t>
+          <t>2026-01-04T00:47:22Z</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4890,11 +4890,11 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2025-12-28T02:24:25Z</t>
+          <t>2026-01-04T04:24:11Z</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
@@ -4916,12 +4916,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2025-05-16T03:00:05Z</t>
+          <t>2026-01-04T01:51:05Z</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-03-16T23:56:15Z</t>
+          <t>2026-01-04T01:51:01Z</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4944,11 +4944,11 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>2025-11-16T05:56:36Z</t>
+          <t>2026-01-04T04:24:11Z</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(NVIDIA ONLY) Welcome to Kokoro, a high-quality text-to-speech synthesis program powered by deep learning. This tool converts any text into high-fidelity speech in just a few seconds. Simply input text, select a voice, adjust the speed, and enjoy the generated audio.</t>
+          <t>Welcome to Kokoro, a high-quality text-to-speech synthesis program powered by deep learning. This tool converts any text into high-fidelity speech in just a few seconds. Simply input text, select a voice, adjust the speed, and enjoy the generated audio.</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-11-27T21:12:49Z</t>
+          <t>2026-01-08T19:42:15Z</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-27T21:12:45Z</t>
+          <t>2026-01-05T21:23:49Z</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-12-02T22:14:39Z</t>
+          <t>2026-01-09T05:42:47Z</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-12-18T13:01:51Z</t>
+          <t>2026-01-06T14:59:08Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-03-17T00:00:23Z</t>
+          <t>2026-01-06T14:59:02Z</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-11-17T22:06:21Z</t>
+          <t>2026-01-10T21:15:09Z</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-11-17T22:06:16Z</t>
+          <t>2026-01-10T21:15:05Z</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2418,414 +2418,414 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>audiocraft_plus</t>
+          <t>comfy</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/audiocraft_plus</t>
+          <t>https://github.com/pinokiofactory/comfy</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-30T17:39:46Z</t>
+          <t>2024-08-13T19:47:18Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-03-17T00:02:40Z</t>
+          <t>2026-01-06T03:51:47Z</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-03-17T00:02:36Z</t>
+          <t>2025-12-02T21:35:15Z</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>GrandaddyShmax/audiocraft_plus</t>
+          <t>Comfy-Org/ComfyUI</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/GrandaddyShmax/audiocraft_plus</t>
+          <t>https://github.com/Comfy-Org/ComfyUI</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2023-06-13T14:44:53Z</t>
+          <t>2023-01-17T03:15:56Z</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2025-11-05T05:42:24Z</t>
+          <t>2026-01-11T06:36:15Z</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>38</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>applio</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Pinokio Installer for Applio</t>
-        </is>
-      </c>
+          <t>audiocraft_plus</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/applio</t>
+          <t>https://github.com/pinokiofactory/audiocraft_plus</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-09-13T18:29:14Z</t>
+          <t>2024-07-30T17:39:46Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-12-19T04:34:35Z</t>
+          <t>2025-03-17T00:02:40Z</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-12-19T04:34:32Z</t>
+          <t>2025-03-17T00:02:36Z</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>IAHispano/Applio</t>
+          <t>GrandaddyShmax/audiocraft_plus</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/IAHispano/Applio</t>
+          <t>https://github.com/GrandaddyShmax/audiocraft_plus</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2023-08-07T22:42:16Z</t>
+          <t>2023-06-13T14:44:53Z</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-12-20T14:59:59Z</t>
+          <t>2025-11-05T05:42:24Z</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>liveportrait</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>applio</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pinokio Installer for Applio</t>
+        </is>
+      </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/liveportrait</t>
+          <t>https://github.com/pinokiofactory/applio</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-22T12:47:06Z</t>
+          <t>2024-09-13T18:29:14Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-11-28T23:23:33Z</t>
+          <t>2025-12-19T04:34:35Z</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-11-28T23:23:29Z</t>
+          <t>2025-12-19T04:34:32Z</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>KlingTeam/LivePortrait</t>
+          <t>IAHispano/Applio</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/KlingTeam/LivePortrait</t>
+          <t>https://github.com/IAHispano/Applio</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2024-07-03T16:15:03Z</t>
+          <t>2023-08-07T22:42:16Z</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2025-11-30T06:16:40Z</t>
+          <t>2025-12-20T14:59:59Z</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>279</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Orpheus-TTS-FastAPI</t>
+          <t>liveportrait</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Orpheus-TTS-FastAPI</t>
+          <t>https://github.com/pinokiofactory/liveportrait</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-03-23T05:39:00Z</t>
+          <t>2024-07-22T12:47:06Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-12-02T20:56:23Z</t>
+          <t>2026-01-09T08:10:31Z</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-12-02T20:56:20Z</t>
+          <t>2026-01-05T02:02:09Z</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Lex-au/Orpheus-FastAPI</t>
+          <t>KlingTeam/LivePortrait</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Lex-au/Orpheus-FastAPI</t>
+          <t>https://github.com/KlingTeam/LivePortrait</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2025-03-21T15:24:16Z</t>
+          <t>2024-07-03T16:15:03Z</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2025-12-05T23:32:46Z</t>
+          <t>2026-01-11T01:43:33Z</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>12</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mlx-video-transcription</t>
+          <t>Orpheus-TTS-FastAPI</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/mlx-video-transcription</t>
+          <t>https://github.com/pinokiofactory/Orpheus-TTS-FastAPI</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-08-19T17:41:12Z</t>
+          <t>2025-03-23T05:39:00Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-12-03T01:26:28Z</t>
+          <t>2025-12-02T20:56:23Z</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2024-10-03T19:11:23Z</t>
+          <t>2025-12-02T20:56:20Z</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
+          <t>Lex-au/Orpheus-FastAPI</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
+          <t>https://github.com/Lex-au/Orpheus-FastAPI</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2024-07-30T08:44:41Z</t>
+          <t>2025-03-21T15:24:16Z</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2025-12-03T01:26:57Z</t>
+          <t>2025-12-05T23:32:46Z</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cube</t>
+          <t>mlx-video-transcription</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/cube</t>
+          <t>https://github.com/pinokiofactory/mlx-video-transcription</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-03-20T21:16:36Z</t>
+          <t>2024-08-19T17:41:12Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-12-02T21:01:24Z</t>
+          <t>2026-01-09T05:42:44Z</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-12-02T21:01:20Z</t>
+          <t>2024-10-03T19:11:23Z</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Roblox/cube</t>
+          <t>RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Roblox/cube</t>
+          <t>https://github.com/RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2025-03-11T22:09:47Z</t>
+          <t>2024-07-30T08:44:41Z</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2025-12-04T19:09:56Z</t>
+          <t>2026-01-10T13:59:01Z</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ultimate-TTS-Studio</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>🟢 NVIDIA ONLY – All-in-One TTS App with Kokoro, KittenTTS, Higgs audio, Chatterbox, Fish-Speech, F5 &amp; index-tts &amp; indextts2, Supports Conversation Mode &amp; eBook-to-Audiobook. All features work across all engines in a unified interface except vibe voice which is it's own app panel.</t>
-        </is>
-      </c>
+          <t>cube</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Ultimate-TTS-Studio</t>
+          <t>https://github.com/pinokiofactory/cube</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-11-25T20:10:36Z</t>
+          <t>2025-03-20T21:16:36Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-12-23T20:43:25Z</t>
+          <t>2026-01-09T05:42:53Z</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-12-06T23:38:11Z</t>
+          <t>2025-12-02T21:01:20Z</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
+          <t>Roblox/cube</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
+          <t>https://github.com/Roblox/cube</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2025-06-06T14:54:06Z</t>
+          <t>2025-03-11T22:09:47Z</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2025-12-27T16:41:36Z</t>
+          <t>2026-01-10T14:32:05Z</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>hertz</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>Ultimate-TTS-Studio</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>🟢 NVIDIA ONLY – All-in-One TTS App with Kokoro, KittenTTS, Higgs audio, Chatterbox, Fish-Speech, F5 &amp; index-tts &amp; indextts2, Supports Conversation Mode &amp; eBook-to-Audiobook. All features work across all engines in a unified interface except vibe voice which is it's own app panel.</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/hertz</t>
+          <t>https://github.com/pinokiofactory/Ultimate-TTS-Studio</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-11-04T01:04:51Z</t>
+          <t>2025-11-25T20:10:36Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-11-05T08:54:25Z</t>
+          <t>2026-01-05T22:06:32Z</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2024-11-05T08:54:21Z</t>
+          <t>2026-01-05T22:06:28Z</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2833,111 +2833,111 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Standard-Intelligence/hertz-dev</t>
+          <t>SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Standard-Intelligence/hertz-dev</t>
+          <t>https://github.com/SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2024-11-03T14:41:39Z</t>
+          <t>2025-06-06T14:54:06Z</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2025-11-14T16:05:18Z</t>
+          <t>2026-01-10T04:20:43Z</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Hunyuan3D-2</t>
+          <t>hertz</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3D-2</t>
+          <t>https://github.com/pinokiofactory/hertz</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-01-25T04:41:01Z</t>
+          <t>2024-11-04T01:04:51Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:13Z</t>
+          <t>2024-11-05T08:54:25Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:10Z</t>
+          <t>2024-11-05T08:54:21Z</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
+          <t>Standard-Intelligence/hertz-dev</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
+          <t>https://github.com/Standard-Intelligence/hertz-dev</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2025-01-21T05:21:35Z</t>
+          <t>2024-11-03T14:41:39Z</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-11-16T06:33:02Z</t>
+          <t>2025-11-14T16:05:18Z</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hunyuan3D-2-mini</t>
+          <t>Hunyuan3D-2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3D-2-mini</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-01-23T21:29:42Z</t>
+          <t>2025-01-25T04:41:01Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-01-25T03:18:46Z</t>
+          <t>2025-11-09T20:06:13Z</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-01-25T03:50:23Z</t>
+          <t>2025-11-09T20:06:10Z</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2966,32 +2966,28 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AudioX</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>AudioX: Diffusion Transformer for Anything-to-Audio Generation</t>
-        </is>
-      </c>
+          <t>Hunyuan3D-2-mini</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/AudioX</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3D-2-mini</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-04-23T00:08:00Z</t>
+          <t>2025-01-23T21:29:42Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-07-12T12:25:25Z</t>
+          <t>2025-01-25T03:18:46Z</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-07-12T12:25:21Z</t>
+          <t>2025-01-25T03:50:23Z</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2999,528 +2995,532 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>ZeyueT/AudioX</t>
+          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ZeyueT/AudioX</t>
+          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2025-03-13T10:18:21Z</t>
+          <t>2025-01-21T05:21:35Z</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2025-11-14T16:45:52Z</t>
+          <t>2025-11-16T06:33:02Z</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>52</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RMBG-2-Studio</t>
+          <t>AudioX</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Enhanced background remove and replace app built around BRIA-RMBG-2.0.  Low VRAM/RAM | 6GB Install</t>
+          <t>AudioX: Diffusion Transformer for Anything-to-Audio Generation</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/RMBG-2-Studio</t>
+          <t>https://github.com/pinokiofactory/AudioX</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-11-15T07:13:23Z</t>
+          <t>2025-04-23T00:08:00Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-12-17T13:41:12Z</t>
+          <t>2025-07-12T12:25:25Z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-12-02T22:50:55Z</t>
+          <t>2025-07-12T12:25:21Z</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ZhengPeng7/BiRefNet</t>
+          <t>ZeyueT/AudioX</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ZhengPeng7/BiRefNet</t>
+          <t>https://github.com/ZeyueT/AudioX</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2022-08-17T09:13:39Z</t>
+          <t>2025-03-13T10:18:21Z</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-12-20T15:03:26Z</t>
+          <t>2025-11-14T16:45:52Z</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>zonos</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>RMBG-2-Studio</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Enhanced background remove and replace app built around BRIA-RMBG-2.0.  Low VRAM/RAM | 6GB Install</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/zonos</t>
+          <t>https://github.com/pinokiofactory/RMBG-2-Studio</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-02-11T09:00:12Z</t>
+          <t>2024-11-15T07:13:23Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-12-06T22:44:56Z</t>
+          <t>2026-01-06T18:02:20Z</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-12-06T22:44:52Z</t>
+          <t>2025-12-02T22:50:55Z</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Zyphra/Zonos</t>
+          <t>ZhengPeng7/BiRefNet</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Zyphra/Zonos</t>
+          <t>https://github.com/ZhengPeng7/BiRefNet</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2025-02-07T00:32:44Z</t>
+          <t>2022-08-17T09:13:39Z</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2025-12-06T07:10:48Z</t>
+          <t>2026-01-11T03:52:31Z</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ACE-Step</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>A Step Towards Music Generation Foundation Model</t>
-        </is>
-      </c>
+          <t>zonos</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/ACE-Step</t>
+          <t>https://github.com/pinokiofactory/zonos</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-05-07T11:25:33Z</t>
+          <t>2025-02-11T09:00:12Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-12-06T11:35:01Z</t>
+          <t>2025-12-06T22:44:56Z</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-12-06T11:34:57Z</t>
+          <t>2025-12-06T22:44:52Z</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>ace-step/ACE-Step</t>
+          <t>Zyphra/Zonos</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ace-step/ACE-Step</t>
+          <t>https://github.com/Zyphra/Zonos</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2025-04-28T07:03:09Z</t>
+          <t>2025-02-07T00:32:44Z</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-12-07T04:48:04Z</t>
+          <t>2025-12-06T07:10:48Z</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>118</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MagicQuill</t>
+          <t>ACE-Step</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>An intelligent, interactive Image Editing System. Easily erase and add objects on a user-friendly interface.</t>
+          <t>A Step Towards Music Generation Foundation Model</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/MagicQuill</t>
+          <t>https://github.com/pinokiofactory/ACE-Step</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-02-19T03:58:52Z</t>
+          <t>2025-05-07T11:25:33Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-12-17T05:52:04Z</t>
+          <t>2025-12-06T11:35:01Z</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-12-17T05:52:00Z</t>
+          <t>2025-12-06T11:34:57Z</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>ant-research/MagicQuill</t>
+          <t>ace-step/ACE-Step</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ant-research/MagicQuill</t>
+          <t>https://github.com/ace-step/ACE-Step</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2024-11-12T12:52:36Z</t>
+          <t>2025-04-28T07:03:09Z</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-12-20T01:57:10Z</t>
+          <t>2025-12-07T04:48:04Z</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>46</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>echomimic2</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>MagicQuill</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>An intelligent, interactive Image Editing System. Easily erase and add objects on a user-friendly interface.</t>
+        </is>
+      </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/echomimic2</t>
+          <t>https://github.com/pinokiofactory/MagicQuill</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-11-24T07:52:04Z</t>
+          <t>2025-02-19T03:58:52Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-12-06T05:47:59Z</t>
+          <t>2025-12-17T05:52:04Z</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-12-06T05:47:56Z</t>
+          <t>2025-12-17T05:52:00Z</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>antgroup/echomimic_v2</t>
+          <t>ant-research/MagicQuill</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/antgroup/echomimic_v2</t>
+          <t>https://github.com/ant-research/MagicQuill</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2024-11-20T08:35:35Z</t>
+          <t>2024-11-12T12:52:36Z</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2025-12-06T17:52:50Z</t>
+          <t>2025-12-20T01:57:10Z</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>macOS-use</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>We Make Mac apps accessible for AI agents</t>
-        </is>
-      </c>
+          <t>echomimic2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/macOS-use</t>
+          <t>https://github.com/pinokiofactory/echomimic2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-02-18T16:54:37Z</t>
+          <t>2024-11-24T07:52:04Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-11-04T13:06:11Z</t>
+          <t>2025-12-06T05:47:59Z</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-04-01T04:14:59Z</t>
+          <t>2025-12-06T05:47:56Z</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>browser-use/macOS-use</t>
+          <t>antgroup/echomimic_v2</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/browser-use/macOS-use</t>
+          <t>https://github.com/antgroup/echomimic_v2</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2025-01-23T00:35:15Z</t>
+          <t>2024-11-20T08:35:35Z</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-11-14T12:34:29Z</t>
+          <t>2025-12-06T17:52:50Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>browser-use</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>macOS-use</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>We Make Mac apps accessible for AI agents</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/browser-use</t>
+          <t>https://github.com/pinokiofactory/macOS-use</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-01-19T21:55:50Z</t>
+          <t>2025-02-18T16:54:37Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-11-19T15:34:36Z</t>
+          <t>2025-11-04T13:06:11Z</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-04-01T04:25:12Z</t>
+          <t>2025-04-01T04:14:59Z</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>browser-use/web-ui</t>
+          <t>browser-use/macOS-use</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/browser-use/web-ui</t>
+          <t>https://github.com/browser-use/macOS-use</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2025-01-02T01:29:44Z</t>
+          <t>2025-01-23T00:35:15Z</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2025-11-22T16:44:52Z</t>
+          <t>2025-11-14T12:34:29Z</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>299</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>uno</t>
+          <t>browser-use</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/uno</t>
+          <t>https://github.com/pinokiofactory/browser-use</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-04-10T18:31:57Z</t>
+          <t>2025-01-19T21:55:50Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-12-02T20:55:29Z</t>
+          <t>2025-11-19T15:34:36Z</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-12-02T20:55:25Z</t>
+          <t>2025-04-01T04:25:12Z</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>bytedance/UNO</t>
+          <t>browser-use/web-ui</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/bytedance/UNO</t>
+          <t>https://github.com/browser-use/web-ui</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2025-04-01T13:25:11Z</t>
+          <t>2025-01-02T01:29:44Z</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2025-12-04T05:12:09Z</t>
+          <t>2025-11-22T16:44:52Z</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>28</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>comfy</t>
+          <t>uno</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/comfy</t>
+          <t>https://github.com/pinokiofactory/uno</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-08-13T19:47:18Z</t>
+          <t>2025-04-10T18:31:57Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-12-30T00:21:19Z</t>
+          <t>2025-12-02T20:55:29Z</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-12-02T21:35:15Z</t>
+          <t>2025-12-02T20:55:25Z</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>comfyanonymous/ComfyUI</t>
+          <t>bytedance/UNO</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/comfyanonymous/ComfyUI</t>
+          <t>https://github.com/bytedance/UNO</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2023-01-17T03:15:56Z</t>
+          <t>2025-04-01T13:25:11Z</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2026-01-04T06:37:34Z</t>
+          <t>2025-12-04T05:12:09Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3415</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-12-30T00:20:41Z</t>
+          <t>2026-01-07T22:36:38Z</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2025-12-28T22:44:57Z</t>
+          <t>2026-01-09T15:05:42Z</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-12-30T00:17:22Z</t>
+          <t>2026-01-10T00:25:45Z</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-12-04T20:14:06Z</t>
+          <t>2026-01-09T19:12:56Z</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3678,11 +3678,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2026-01-04T03:02:02Z</t>
+          <t>2026-01-11T06:29:19Z</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>524</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-12-18T21:08:21Z</t>
+          <t>2026-01-09T00:52:04Z</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-12-18T21:08:18Z</t>
+          <t>2026-01-09T00:52:01Z</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -4168,11 +4168,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2025-12-20T09:53:51Z</t>
+          <t>2026-01-10T08:17:47Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85">
@@ -4306,12 +4306,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-12-22T18:18:40Z</t>
+          <t>2026-01-07T01:28:48Z</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-11-17T01:56:27Z</t>
+          <t>2026-01-07T01:28:45Z</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2025-12-28T02:00:05Z</t>
+          <t>2026-01-11T03:02:46Z</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025-12-06T21:59:36Z</t>
+          <t>2026-01-06T23:18:55Z</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4782,11 +4782,11 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2025-12-07T05:24:38Z</t>
+          <t>2026-01-11T01:43:29Z</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2026-01-04T00:47:26Z</t>
+          <t>2026-01-10T09:42:52Z</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2026-01-04T04:24:11Z</t>
+          <t>2026-01-11T06:29:08Z</t>
         </is>
       </c>
       <c r="L97" t="n">

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-12-29T13:21:44Z</t>
+          <t>2026-01-13T16:59:17Z</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-03T03:55:09Z</t>
+          <t>2026-01-13T16:59:11Z</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-12-07T19:57:51Z</t>
+          <t>2026-01-15T18:34:00Z</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-11-27T21:34:34Z</t>
+          <t>2026-01-16T04:36:18Z</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-12-18T18:43:09Z</t>
+          <t>2026-01-12T03:44:31Z</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2418,468 +2418,472 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>comfy</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
+          <t>SongGeneration-Studio-MLX</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Tencent SongGeneration Studio MLX</t>
+        </is>
+      </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/comfy</t>
+          <t>https://github.com/pinokiofactory/SongGeneration-Studio-MLX</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-08-13T19:47:18Z</t>
+          <t>2026-01-17T09:12:39Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2026-01-06T03:51:47Z</t>
+          <t>2026-01-17T14:29:21Z</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-12-02T21:35:15Z</t>
+          <t>2026-01-17T14:29:18Z</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Comfy-Org/ComfyUI</t>
+          <t>CharafChnioune/SongGeneration-Studio-MLX</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Comfy-Org/ComfyUI</t>
+          <t>https://github.com/CharafChnioune/SongGeneration-Studio-MLX</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2023-01-17T03:15:56Z</t>
+          <t>2026-01-16T21:45:05Z</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2026-01-11T06:36:15Z</t>
+          <t>2026-01-17T22:52:18Z</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>audiocraft_plus</t>
+          <t>comfy</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/audiocraft_plus</t>
+          <t>https://github.com/pinokiofactory/comfy</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-30T17:39:46Z</t>
+          <t>2024-08-13T19:47:18Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-03-17T00:02:40Z</t>
+          <t>2026-01-14T11:37:40Z</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-03-17T00:02:36Z</t>
+          <t>2025-12-02T21:35:15Z</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>GrandaddyShmax/audiocraft_plus</t>
+          <t>Comfy-Org/ComfyUI</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/GrandaddyShmax/audiocraft_plus</t>
+          <t>https://github.com/Comfy-Org/ComfyUI</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2023-06-13T14:44:53Z</t>
+          <t>2023-01-17T03:15:56Z</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-11-05T05:42:24Z</t>
+          <t>2026-01-18T06:40:45Z</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>38</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>applio</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Pinokio Installer for Applio</t>
-        </is>
-      </c>
+          <t>audiocraft_plus</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/applio</t>
+          <t>https://github.com/pinokiofactory/audiocraft_plus</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-09-13T18:29:14Z</t>
+          <t>2024-07-30T17:39:46Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-12-19T04:34:35Z</t>
+          <t>2025-03-17T00:02:40Z</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-12-19T04:34:32Z</t>
+          <t>2025-03-17T00:02:36Z</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>IAHispano/Applio</t>
+          <t>GrandaddyShmax/audiocraft_plus</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/IAHispano/Applio</t>
+          <t>https://github.com/GrandaddyShmax/audiocraft_plus</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2023-08-07T22:42:16Z</t>
+          <t>2023-06-13T14:44:53Z</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2025-12-20T14:59:59Z</t>
+          <t>2025-11-05T05:42:24Z</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>liveportrait</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>applio</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pinokio Installer for Applio</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/liveportrait</t>
+          <t>https://github.com/pinokiofactory/applio</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-22T12:47:06Z</t>
+          <t>2024-09-13T18:29:14Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2026-01-09T08:10:31Z</t>
+          <t>2025-12-19T04:34:35Z</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2026-01-05T02:02:09Z</t>
+          <t>2025-12-19T04:34:32Z</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>KlingTeam/LivePortrait</t>
+          <t>IAHispano/Applio</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/KlingTeam/LivePortrait</t>
+          <t>https://github.com/IAHispano/Applio</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2024-07-03T16:15:03Z</t>
+          <t>2023-08-07T22:42:16Z</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2026-01-11T01:43:33Z</t>
+          <t>2025-12-20T14:59:59Z</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>284</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Orpheus-TTS-FastAPI</t>
+          <t>liveportrait</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Orpheus-TTS-FastAPI</t>
+          <t>https://github.com/pinokiofactory/liveportrait</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-03-23T05:39:00Z</t>
+          <t>2024-07-22T12:47:06Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-12-02T20:56:23Z</t>
+          <t>2026-01-09T08:10:31Z</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-12-02T20:56:20Z</t>
+          <t>2026-01-05T02:02:09Z</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Lex-au/Orpheus-FastAPI</t>
+          <t>KlingTeam/LivePortrait</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Lex-au/Orpheus-FastAPI</t>
+          <t>https://github.com/KlingTeam/LivePortrait</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2025-03-21T15:24:16Z</t>
+          <t>2024-07-03T16:15:03Z</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2025-12-05T23:32:46Z</t>
+          <t>2026-01-11T01:43:33Z</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>12</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mlx-video-transcription</t>
+          <t>Orpheus-TTS-FastAPI</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/mlx-video-transcription</t>
+          <t>https://github.com/pinokiofactory/Orpheus-TTS-FastAPI</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-08-19T17:41:12Z</t>
+          <t>2025-03-23T05:39:00Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2026-01-09T05:42:44Z</t>
+          <t>2025-12-02T20:56:23Z</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2024-10-03T19:11:23Z</t>
+          <t>2025-12-02T20:56:20Z</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
+          <t>Lex-au/Orpheus-FastAPI</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
+          <t>https://github.com/Lex-au/Orpheus-FastAPI</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2024-07-30T08:44:41Z</t>
+          <t>2025-03-21T15:24:16Z</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2026-01-10T13:59:01Z</t>
+          <t>2025-12-05T23:32:46Z</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cube</t>
+          <t>mlx-video-transcription</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/cube</t>
+          <t>https://github.com/pinokiofactory/mlx-video-transcription</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-03-20T21:16:36Z</t>
+          <t>2024-08-19T17:41:12Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2026-01-09T05:42:53Z</t>
+          <t>2026-01-09T05:42:44Z</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-12-02T21:01:20Z</t>
+          <t>2024-10-03T19:11:23Z</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Roblox/cube</t>
+          <t>RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Roblox/cube</t>
+          <t>https://github.com/RayFernando1337/MLX-Auto-Subtitled-Video-Generator</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2025-03-11T22:09:47Z</t>
+          <t>2024-07-30T08:44:41Z</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2026-01-10T14:32:05Z</t>
+          <t>2026-01-10T13:59:01Z</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ultimate-TTS-Studio</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>🟢 NVIDIA ONLY – All-in-One TTS App with Kokoro, KittenTTS, Higgs audio, Chatterbox, Fish-Speech, F5 &amp; index-tts &amp; indextts2, Supports Conversation Mode &amp; eBook-to-Audiobook. All features work across all engines in a unified interface except vibe voice which is it's own app panel.</t>
-        </is>
-      </c>
+          <t>cube</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Ultimate-TTS-Studio</t>
+          <t>https://github.com/pinokiofactory/cube</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-11-25T20:10:36Z</t>
+          <t>2025-03-20T21:16:36Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2026-01-05T22:06:32Z</t>
+          <t>2026-01-09T05:42:53Z</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2026-01-05T22:06:28Z</t>
+          <t>2025-12-02T21:01:20Z</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
+          <t>Roblox/cube</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
+          <t>https://github.com/Roblox/cube</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2025-06-06T14:54:06Z</t>
+          <t>2025-03-11T22:09:47Z</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2026-01-10T04:20:43Z</t>
+          <t>2026-01-10T14:32:05Z</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>hertz</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
+          <t>Ultimate-TTS-Studio</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>🟢 NVIDIA ONLY – All-in-One TTS App with Kokoro, KittenTTS, Higgs audio, Chatterbox, Fish-Speech, F5 &amp; index-tts &amp; indextts2, Supports Conversation Mode &amp; eBook-to-Audiobook. All features work across all engines in a unified interface except vibe voice which is it's own app panel.</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/hertz</t>
+          <t>https://github.com/pinokiofactory/Ultimate-TTS-Studio</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-11-04T01:04:51Z</t>
+          <t>2025-11-25T20:10:36Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-11-05T08:54:25Z</t>
+          <t>2026-01-16T04:08:37Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2024-11-05T08:54:21Z</t>
+          <t>2026-01-05T22:06:28Z</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2887,111 +2891,111 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Standard-Intelligence/hertz-dev</t>
+          <t>SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Standard-Intelligence/hertz-dev</t>
+          <t>https://github.com/SUP3RMASS1VE/Ultimate-TTS-Studio-SUP3R-Edition</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2024-11-03T14:41:39Z</t>
+          <t>2025-06-06T14:54:06Z</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-11-14T16:05:18Z</t>
+          <t>2026-01-18T02:21:39Z</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hunyuan3D-2</t>
+          <t>hertz</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3D-2</t>
+          <t>https://github.com/pinokiofactory/hertz</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-01-25T04:41:01Z</t>
+          <t>2024-11-04T01:04:51Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:13Z</t>
+          <t>2024-11-05T08:54:25Z</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-11-09T20:06:10Z</t>
+          <t>2024-11-05T08:54:21Z</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
+          <t>Standard-Intelligence/hertz-dev</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
+          <t>https://github.com/Standard-Intelligence/hertz-dev</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2025-01-21T05:21:35Z</t>
+          <t>2024-11-03T14:41:39Z</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2025-11-16T06:33:02Z</t>
+          <t>2025-11-14T16:05:18Z</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hunyuan3D-2-mini</t>
+          <t>Hunyuan3D-2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3D-2-mini</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-01-23T21:29:42Z</t>
+          <t>2025-01-25T04:41:01Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-01-25T03:18:46Z</t>
+          <t>2025-11-09T20:06:13Z</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-01-25T03:50:23Z</t>
+          <t>2025-11-09T20:06:10Z</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3020,32 +3024,28 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AudioX</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>AudioX: Diffusion Transformer for Anything-to-Audio Generation</t>
-        </is>
-      </c>
+          <t>Hunyuan3D-2-mini</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/AudioX</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3D-2-mini</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-04-23T00:08:00Z</t>
+          <t>2025-01-23T21:29:42Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-07-12T12:25:25Z</t>
+          <t>2025-01-25T03:18:46Z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-07-12T12:25:21Z</t>
+          <t>2025-01-25T03:50:23Z</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3053,771 +3053,775 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ZeyueT/AudioX</t>
+          <t>Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ZeyueT/AudioX</t>
+          <t>https://github.com/Tencent-Hunyuan/Hunyuan3D-2</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2025-03-13T10:18:21Z</t>
+          <t>2025-01-21T05:21:35Z</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-11-14T16:45:52Z</t>
+          <t>2025-11-16T06:33:02Z</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>52</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RMBG-2-Studio</t>
+          <t>AudioX</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Enhanced background remove and replace app built around BRIA-RMBG-2.0.  Low VRAM/RAM | 6GB Install</t>
+          <t>AudioX: Diffusion Transformer for Anything-to-Audio Generation</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/RMBG-2-Studio</t>
+          <t>https://github.com/pinokiofactory/AudioX</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-11-15T07:13:23Z</t>
+          <t>2025-04-23T00:08:00Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2026-01-06T18:02:20Z</t>
+          <t>2025-07-12T12:25:25Z</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-12-02T22:50:55Z</t>
+          <t>2025-07-12T12:25:21Z</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ZhengPeng7/BiRefNet</t>
+          <t>ZeyueT/AudioX</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ZhengPeng7/BiRefNet</t>
+          <t>https://github.com/ZeyueT/AudioX</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2022-08-17T09:13:39Z</t>
+          <t>2025-03-13T10:18:21Z</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2026-01-11T03:52:31Z</t>
+          <t>2025-11-14T16:45:52Z</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>zonos</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
+          <t>RMBG-2-Studio</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Enhanced background remove and replace app built around BRIA-RMBG-2.0.  Low VRAM/RAM | 6GB Install</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/zonos</t>
+          <t>https://github.com/pinokiofactory/RMBG-2-Studio</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-02-11T09:00:12Z</t>
+          <t>2024-11-15T07:13:23Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-12-06T22:44:56Z</t>
+          <t>2026-01-06T18:02:20Z</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-12-06T22:44:52Z</t>
+          <t>2025-12-02T22:50:55Z</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Zyphra/Zonos</t>
+          <t>ZhengPeng7/BiRefNet</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/Zyphra/Zonos</t>
+          <t>https://github.com/ZhengPeng7/BiRefNet</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2025-02-07T00:32:44Z</t>
+          <t>2022-08-17T09:13:39Z</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-12-06T07:10:48Z</t>
+          <t>2026-01-11T03:52:31Z</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ACE-Step</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>A Step Towards Music Generation Foundation Model</t>
-        </is>
-      </c>
+          <t>zonos</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/ACE-Step</t>
+          <t>https://github.com/pinokiofactory/zonos</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-05-07T11:25:33Z</t>
+          <t>2025-02-11T09:00:12Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-12-06T11:35:01Z</t>
+          <t>2025-12-06T22:44:56Z</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-12-06T11:34:57Z</t>
+          <t>2025-12-06T22:44:52Z</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>ace-step/ACE-Step</t>
+          <t>Zyphra/Zonos</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ace-step/ACE-Step</t>
+          <t>https://github.com/Zyphra/Zonos</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2025-04-28T07:03:09Z</t>
+          <t>2025-02-07T00:32:44Z</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-12-07T04:48:04Z</t>
+          <t>2025-12-06T07:10:48Z</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>118</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MagicQuill</t>
+          <t>ACE-Step</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>An intelligent, interactive Image Editing System. Easily erase and add objects on a user-friendly interface.</t>
+          <t>A Step Towards Music Generation Foundation Model</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/MagicQuill</t>
+          <t>https://github.com/pinokiofactory/ACE-Step</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-02-19T03:58:52Z</t>
+          <t>2025-05-07T11:25:33Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-12-17T05:52:04Z</t>
+          <t>2025-12-06T11:35:01Z</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-12-17T05:52:00Z</t>
+          <t>2025-12-06T11:34:57Z</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>ant-research/MagicQuill</t>
+          <t>ace-step/ACE-Step</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/ant-research/MagicQuill</t>
+          <t>https://github.com/ace-step/ACE-Step</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2024-11-12T12:52:36Z</t>
+          <t>2025-04-28T07:03:09Z</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2025-12-20T01:57:10Z</t>
+          <t>2025-12-07T04:48:04Z</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>46</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>echomimic2</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>MagicQuill</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>An intelligent, interactive Image Editing System. Easily erase and add objects on a user-friendly interface.</t>
+        </is>
+      </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/echomimic2</t>
+          <t>https://github.com/pinokiofactory/MagicQuill</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-11-24T07:52:04Z</t>
+          <t>2025-02-19T03:58:52Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-12-06T05:47:59Z</t>
+          <t>2026-01-11T20:08:02Z</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-12-06T05:47:56Z</t>
+          <t>2026-01-11T20:07:58Z</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>antgroup/echomimic_v2</t>
+          <t>ant-research/MagicQuill</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/antgroup/echomimic_v2</t>
+          <t>https://github.com/ant-research/MagicQuill</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2024-11-20T08:35:35Z</t>
+          <t>2024-11-12T12:52:36Z</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2025-12-06T17:52:50Z</t>
+          <t>2026-01-13T22:00:43Z</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>macOS-use</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>We Make Mac apps accessible for AI agents</t>
-        </is>
-      </c>
+          <t>echomimic2</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/macOS-use</t>
+          <t>https://github.com/pinokiofactory/echomimic2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-02-18T16:54:37Z</t>
+          <t>2024-11-24T07:52:04Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-11-04T13:06:11Z</t>
+          <t>2025-12-06T05:47:59Z</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-04-01T04:14:59Z</t>
+          <t>2025-12-06T05:47:56Z</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>browser-use/macOS-use</t>
+          <t>antgroup/echomimic_v2</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/browser-use/macOS-use</t>
+          <t>https://github.com/antgroup/echomimic_v2</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2025-01-23T00:35:15Z</t>
+          <t>2024-11-20T08:35:35Z</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2025-11-14T12:34:29Z</t>
+          <t>2025-12-06T17:52:50Z</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>browser-use</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>macOS-use</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>We Make Mac apps accessible for AI agents</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/browser-use</t>
+          <t>https://github.com/pinokiofactory/macOS-use</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-01-19T21:55:50Z</t>
+          <t>2025-02-18T16:54:37Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-11-19T15:34:36Z</t>
+          <t>2025-11-04T13:06:11Z</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-04-01T04:25:12Z</t>
+          <t>2025-04-01T04:14:59Z</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>browser-use/web-ui</t>
+          <t>browser-use/macOS-use</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/browser-use/web-ui</t>
+          <t>https://github.com/browser-use/macOS-use</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2025-01-02T01:29:44Z</t>
+          <t>2025-01-23T00:35:15Z</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2025-11-22T16:44:52Z</t>
+          <t>2025-11-14T12:34:29Z</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>299</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>uno</t>
+          <t>browser-use</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/uno</t>
+          <t>https://github.com/pinokiofactory/browser-use</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-04-10T18:31:57Z</t>
+          <t>2025-01-19T21:55:50Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-12-02T20:55:29Z</t>
+          <t>2025-11-19T15:34:36Z</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-12-02T20:55:25Z</t>
+          <t>2025-04-01T04:25:12Z</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>bytedance/UNO</t>
+          <t>browser-use/web-ui</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/bytedance/UNO</t>
+          <t>https://github.com/browser-use/web-ui</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2025-04-01T13:25:11Z</t>
+          <t>2025-01-02T01:29:44Z</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2025-12-04T05:12:09Z</t>
+          <t>2025-11-22T16:44:52Z</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>28</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Hunyuan3d-2-lowvram</t>
+          <t>uno</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Hunyuan3d-2-lowvram</t>
+          <t>https://github.com/pinokiofactory/uno</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-01-25T04:44:25Z</t>
+          <t>2025-04-10T18:31:57Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-12-30T00:10:19Z</t>
+          <t>2025-12-02T20:55:29Z</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-12-27T20:44:51Z</t>
+          <t>2025-12-02T20:55:25Z</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>deepbeepmeep/Hunyuan3D-2GP</t>
+          <t>bytedance/UNO</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/Hunyuan3D-2GP</t>
+          <t>https://github.com/bytedance/UNO</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2025-01-22T01:50:03Z</t>
+          <t>2025-04-01T13:25:11Z</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-12-31T09:45:40Z</t>
+          <t>2025-12-04T05:12:09Z</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>hunyuanvideo</t>
+          <t>Hunyuan3d-2-lowvram</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/hunyuanvideo</t>
+          <t>https://github.com/pinokiofactory/Hunyuan3d-2-lowvram</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-12-11T01:55:53Z</t>
+          <t>2025-01-25T04:44:25Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2026-01-07T22:36:38Z</t>
+          <t>2026-01-18T02:36:25Z</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-12-02T20:58:56Z</t>
+          <t>2025-12-27T20:44:51Z</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>deepbeepmeep/HunyuanVideoGP</t>
+          <t>deepbeepmeep/Hunyuan3D-2GP</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/HunyuanVideoGP</t>
+          <t>https://github.com/deepbeepmeep/Hunyuan3D-2GP</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2024-12-10T18:34:42Z</t>
+          <t>2025-01-22T01:50:03Z</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2026-01-09T15:05:42Z</t>
+          <t>2026-01-18T03:01:59Z</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>wan</t>
+          <t>hunyuanvideo</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/wan</t>
+          <t>https://github.com/pinokiofactory/hunyuanvideo</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-03T17:32:45Z</t>
+          <t>2024-12-11T01:55:53Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2026-01-10T00:25:45Z</t>
+          <t>2026-01-07T22:36:38Z</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2026-01-09T19:12:56Z</t>
+          <t>2025-12-02T20:58:56Z</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>deepbeepmeep/Wan2GP</t>
+          <t>deepbeepmeep/HunyuanVideoGP</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/Wan2GP</t>
+          <t>https://github.com/deepbeepmeep/HunyuanVideoGP</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2025-02-27T23:52:36Z</t>
+          <t>2024-12-10T18:34:42Z</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2026-01-11T06:29:19Z</t>
+          <t>2026-01-09T15:05:42Z</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>543</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>yue</t>
+          <t>wan</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/yue</t>
+          <t>https://github.com/pinokiofactory/wan</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-01-29T11:22:39Z</t>
+          <t>2025-03-03T17:32:45Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-12-02T21:56:08Z</t>
+          <t>2026-01-15T18:33:28Z</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-12-02T21:56:04Z</t>
+          <t>2026-01-14T23:51:12Z</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>deepbeepmeep/YuEGP</t>
+          <t>deepbeepmeep/Wan2GP</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepbeepmeep/YuEGP</t>
+          <t>https://github.com/deepbeepmeep/Wan2GP</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2025-01-28T07:23:51Z</t>
+          <t>2025-02-27T23:52:36Z</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2025-12-06T23:11:18Z</t>
+          <t>2026-01-18T05:16:25Z</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>21</v>
+        <v>588</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>janus</t>
+          <t>yue</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/janus</t>
+          <t>https://github.com/pinokiofactory/yue</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-01-27T18:23:47Z</t>
+          <t>2025-01-29T11:22:39Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-01-28T02:37:49Z</t>
+          <t>2025-12-02T21:56:08Z</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-01-28T02:37:46Z</t>
+          <t>2025-12-02T21:56:04Z</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>deepseek-ai/Janus</t>
+          <t>deepbeepmeep/YuEGP</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/deepseek-ai/Janus</t>
+          <t>https://github.com/deepbeepmeep/YuEGP</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2024-10-18T03:48:16Z</t>
+          <t>2025-01-28T07:23:51Z</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2025-11-15T15:45:09Z</t>
+          <t>2025-12-06T23:11:18Z</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>177</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>janus</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/diamond</t>
+          <t>https://github.com/pinokiofactory/janus</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-10-12T15:37:19Z</t>
+          <t>2025-01-27T18:23:47Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-12-02T23:46:53Z</t>
+          <t>2025-01-28T02:37:49Z</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-12-02T23:46:49Z</t>
+          <t>2025-01-28T02:37:46Z</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3825,833 +3829,829 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>eloialonso/diamond</t>
+          <t>deepseek-ai/Janus</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/eloialonso/diamond</t>
+          <t>https://github.com/deepseek-ai/Janus</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2024-05-19T22:31:40Z</t>
+          <t>2024-10-18T03:48:16Z</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2025-12-06T01:55:14Z</t>
+          <t>2025-11-15T15:45:09Z</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>7</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AllTalk-TTS</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/AllTalk-TTS</t>
+          <t>https://github.com/pinokiofactory/diamond</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-02-05T16:24:30Z</t>
+          <t>2024-10-12T15:37:19Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-04-05T16:19:34Z</t>
+          <t>2025-12-02T23:46:53Z</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-03-29T16:44:51Z</t>
+          <t>2025-12-02T23:46:49Z</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>erew123/alltalk_tts</t>
+          <t>eloialonso/diamond</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/erew123/alltalk_tts</t>
+          <t>https://github.com/eloialonso/diamond</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2023-12-08T09:35:19Z</t>
+          <t>2024-05-19T22:31:40Z</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2025-11-15T23:50:46Z</t>
+          <t>2025-12-06T01:55:14Z</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>oasis</t>
+          <t>AllTalk-TTS</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/oasis</t>
+          <t>https://github.com/pinokiofactory/AllTalk-TTS</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-10-31T23:24:32Z</t>
+          <t>2025-02-05T16:24:30Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-10-31T23:47:38Z</t>
+          <t>2025-04-05T16:19:34Z</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2024-10-31T23:47:35Z</t>
+          <t>2025-03-29T16:44:51Z</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>etched-ai/open-oasis</t>
+          <t>erew123/alltalk_tts</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/etched-ai/open-oasis</t>
+          <t>https://github.com/erew123/alltalk_tts</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2024-10-31T09:10:45Z</t>
+          <t>2023-12-08T09:35:19Z</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2025-11-14T05:41:47Z</t>
+          <t>2025-11-15T23:50:46Z</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>openaudio</t>
+          <t>oasis</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/openaudio</t>
+          <t>https://github.com/pinokiofactory/oasis</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-11-02T08:47:31Z</t>
+          <t>2024-10-31T23:24:32Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2026-01-03T13:47:18Z</t>
+          <t>2024-10-31T23:47:38Z</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2026-01-03T13:47:14Z</t>
+          <t>2024-10-31T23:47:35Z</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>fishaudio/fish-speech</t>
+          <t>etched-ai/open-oasis</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/fishaudio/fish-speech</t>
+          <t>https://github.com/etched-ai/open-oasis</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2023-10-10T03:16:51Z</t>
+          <t>2024-10-31T09:10:45Z</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2026-01-04T06:06:33Z</t>
+          <t>2025-11-14T05:41:47Z</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mochi</t>
+          <t>openaudio</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/mochi</t>
+          <t>https://github.com/pinokiofactory/openaudio</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-10-23T18:51:07Z</t>
+          <t>2024-11-02T08:47:31Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-10-29T03:03:08Z</t>
+          <t>2026-01-03T13:47:18Z</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2024-10-29T03:03:04Z</t>
+          <t>2026-01-03T13:47:14Z</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>genmoai/mochi</t>
+          <t>fishaudio/fish-speech</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/genmoai/mochi</t>
+          <t>https://github.com/fishaudio/fish-speech</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2024-09-11T02:55:33Z</t>
+          <t>2023-10-10T03:16:51Z</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2025-11-15T23:14:45Z</t>
+          <t>2026-01-04T06:06:33Z</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>instantir</t>
+          <t>mochi</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/instantir</t>
+          <t>https://github.com/pinokiofactory/mochi</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-11-08T08:05:55Z</t>
+          <t>2024-10-23T18:51:07Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-12-02T22:52:18Z</t>
+          <t>2024-10-29T03:03:08Z</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-12-02T22:52:15Z</t>
+          <t>2024-10-29T03:03:04Z</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>instantX-research/InstantIR</t>
+          <t>genmoai/mochi</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/instantX-research/InstantIR</t>
+          <t>https://github.com/genmoai/mochi</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2024-10-20T03:17:01Z</t>
+          <t>2024-09-11T02:55:33Z</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2025-11-26T08:31:35Z</t>
+          <t>2025-11-15T23:14:45Z</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>whisper-webui</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Pinokio Installer for Whisper-Webui</t>
-        </is>
-      </c>
+          <t>instantir</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/whisper-webui</t>
+          <t>https://github.com/pinokiofactory/instantir</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-09-21T20:42:20Z</t>
+          <t>2024-11-08T08:05:55Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2026-01-09T00:52:04Z</t>
+          <t>2025-12-02T22:52:18Z</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2026-01-09T00:52:01Z</t>
+          <t>2025-12-02T22:52:15Z</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>jhj0517/Whisper-WebUI</t>
+          <t>instantX-research/InstantIR</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/jhj0517/Whisper-WebUI</t>
+          <t>https://github.com/instantX-research/InstantIR</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2023-03-02T13:42:01Z</t>
+          <t>2024-10-20T03:17:01Z</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2026-01-10T08:17:47Z</t>
+          <t>2025-11-26T08:31:35Z</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>134</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>pyramidflow</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
+          <t>whisper-webui</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Pinokio Installer for Whisper-Webui</t>
+        </is>
+      </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/pyramidflow</t>
+          <t>https://github.com/pinokiofactory/whisper-webui</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-11-16T08:35:22Z</t>
+          <t>2024-09-21T20:42:20Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-12-04T18:28:05Z</t>
+          <t>2026-01-09T00:52:04Z</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-12-04T18:28:01Z</t>
+          <t>2026-01-09T00:52:01Z</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>jy0205/Pyramid-Flow</t>
+          <t>jhj0517/Whisper-WebUI</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/jy0205/Pyramid-Flow</t>
+          <t>https://github.com/jhj0517/Whisper-WebUI</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2024-10-06T13:06:31Z</t>
+          <t>2023-03-02T13:42:01Z</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2025-12-06T20:01:25Z</t>
+          <t>2026-01-10T08:17:47Z</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Frame-Pack</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>(NVIDIA) FramePack is a next-frame (next-frame-section) prediction neural network structure that generates videos progressively.</t>
-        </is>
-      </c>
+          <t>pyramidflow</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Frame-Pack</t>
+          <t>https://github.com/pinokiofactory/pyramidflow</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-04-17T11:43:03Z</t>
+          <t>2024-11-16T08:35:22Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-12-18T10:04:25Z</t>
+          <t>2025-12-04T18:28:05Z</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-12-18T10:04:19Z</t>
+          <t>2025-12-04T18:28:01Z</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>lllyasviel/FramePack</t>
+          <t>jy0205/Pyramid-Flow</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/lllyasviel/FramePack</t>
+          <t>https://github.com/jy0205/Pyramid-Flow</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2025-04-12T14:45:22Z</t>
+          <t>2024-10-06T13:06:31Z</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2025-12-20T22:41:55Z</t>
+          <t>2025-12-06T20:01:25Z</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>472</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>stable-diffusion-webui-forge</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
+          <t>Frame-Pack</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>(NVIDIA) FramePack is a next-frame (next-frame-section) prediction neural network structure that generates videos progressively.</t>
+        </is>
+      </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/stable-diffusion-webui-forge</t>
+          <t>https://github.com/pinokiofactory/Frame-Pack</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-08-12T12:38:49Z</t>
+          <t>2025-04-17T11:43:03Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2026-01-07T01:28:48Z</t>
+          <t>2025-12-18T10:04:25Z</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2026-01-07T01:28:45Z</t>
+          <t>2025-12-18T10:04:19Z</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>lllyasviel/stable-diffusion-webui-forge</t>
+          <t>lllyasviel/FramePack</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/lllyasviel/stable-diffusion-webui-forge</t>
+          <t>https://github.com/lllyasviel/FramePack</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2024-01-14T11:39:30Z</t>
+          <t>2025-04-12T14:45:22Z</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2026-01-11T03:02:46Z</t>
+          <t>2025-12-20T22:41:55Z</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1126</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>omniparser</t>
+          <t>stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/omniparser</t>
+          <t>https://github.com/pinokiofactory/stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-10-26T06:04:17Z</t>
+          <t>2024-08-12T12:38:49Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-10-28T04:49:07Z</t>
+          <t>2026-01-07T01:28:48Z</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2024-10-26T08:03:10Z</t>
+          <t>2026-01-07T01:28:45Z</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>microsoft/OmniParser</t>
+          <t>lllyasviel/stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/microsoft/OmniParser</t>
+          <t>https://github.com/lllyasviel/stable-diffusion-webui-forge</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2024-09-20T05:18:18Z</t>
+          <t>2024-01-14T11:39:30Z</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2025-11-16T06:25:49Z</t>
+          <t>2026-01-11T03:02:46Z</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>225</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>vibevoice-realtime</t>
+          <t>omniparser</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/vibevoice-realtime</t>
+          <t>https://github.com/pinokiofactory/omniparser</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025-12-04T21:57:09Z</t>
+          <t>2024-10-26T06:04:17Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2026-01-02T21:12:38Z</t>
+          <t>2024-10-28T04:49:07Z</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-12-22T22:00:09Z</t>
+          <t>2024-10-26T08:03:10Z</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>microsoft/VibeVoice</t>
+          <t>microsoft/OmniParser</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/microsoft/VibeVoice</t>
+          <t>https://github.com/microsoft/OmniParser</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2025-08-25T13:24:01Z</t>
+          <t>2024-09-20T05:18:18Z</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2026-01-04T06:30:59Z</t>
+          <t>2025-11-16T06:25:49Z</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>68</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dia</t>
+          <t>vibevoice-realtime</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/dia</t>
+          <t>https://github.com/pinokiofactory/vibevoice-realtime</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-04-22T14:57:53Z</t>
+          <t>2025-12-04T21:57:09Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-12-07T19:55:02Z</t>
+          <t>2026-01-15T10:37:50Z</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-12-07T19:54:59Z</t>
+          <t>2025-12-22T22:00:09Z</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>nari-labs/dia</t>
+          <t>microsoft/VibeVoice</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/nari-labs/dia</t>
+          <t>https://github.com/microsoft/VibeVoice</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2025-04-19T07:15:57Z</t>
+          <t>2025-08-25T13:24:01Z</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2025-12-14T04:00:35Z</t>
+          <t>2026-01-18T03:58:49Z</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>clarity-refiners-ui</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Creative Image Enhancer/Upscaler. Powered By Refiners.  8GB VRAM | 10GB Install</t>
-        </is>
-      </c>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/clarity-refiners-ui</t>
+          <t>https://github.com/pinokiofactory/dia</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-11-12T07:03:48Z</t>
+          <t>2025-04-22T14:57:53Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2026-01-02T20:07:27Z</t>
+          <t>2025-12-07T19:55:02Z</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-12-02T22:18:28Z</t>
+          <t>2025-12-07T19:54:59Z</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>philz1337x/clarity-upscaler</t>
+          <t>nari-labs/dia</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/philz1337x/clarity-upscaler</t>
+          <t>https://github.com/nari-labs/dia</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2024-03-15T15:21:40Z</t>
+          <t>2025-04-19T07:15:57Z</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2026-01-03T09:04:39Z</t>
+          <t>2025-12-14T04:00:35Z</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Allegro-txt2vid</t>
+          <t>clarity-refiners-ui</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Allegro is a powerful text-to-video model that generates high-quality videos up to 6 seconds at 15 FPS and 720p resolution from simple text input.</t>
+          <t>Creative Image Enhancer/Upscaler. Powered By Refiners.  8GB VRAM | 10GB Install</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Allegro-txt2vid</t>
+          <t>https://github.com/pinokiofactory/clarity-refiners-ui</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-10-25T06:33:03Z</t>
+          <t>2024-11-12T07:03:48Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-11-05T23:56:50Z</t>
+          <t>2026-01-02T20:07:27Z</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2024-11-05T23:56:47Z</t>
+          <t>2025-12-02T22:18:28Z</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>rhymes-ai/Allegro</t>
+          <t>philz1337x/clarity-upscaler</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/rhymes-ai/Allegro</t>
+          <t>https://github.com/philz1337x/clarity-upscaler</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2024-10-16T04:04:15Z</t>
+          <t>2024-03-15T15:21:40Z</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2025-11-07T08:32:13Z</t>
+          <t>2026-01-03T09:04:39Z</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Allegro-txt2vid-install</t>
+          <t>Allegro-txt2vid</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Allegro-txt2vid. WARNING: takes a long time to generate a result, 1hr on a 3090. 12GB+ VRAM | 32GB+ RAM | 30GB Download. Check the README for details</t>
+          <t>Allegro is a powerful text-to-video model that generates high-quality videos up to 6 seconds at 15 FPS and 720p resolution from simple text input.</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/Allegro-txt2vid-install</t>
+          <t>https://github.com/pinokiofactory/Allegro-txt2vid</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-10-27T14:58:05Z</t>
+          <t>2024-10-25T06:33:03Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-12-04T05:36:24Z</t>
+          <t>2024-11-05T23:56:50Z</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-12-04T05:36:20Z</t>
+          <t>2024-11-05T23:56:47Z</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2025-12-06T00:53:45Z</t>
+          <t>2025-11-07T08:32:13Z</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -4680,32 +4680,32 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RuinedFooocus</t>
+          <t>Allegro-txt2vid-install</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">(NVIDIA ONLY) Forget everything you thought you knew about AI art generation - RuinedFooocus is here to completely reinvent the game! This groundbreaking image creator combines the best aspects of Stable Diffusion and Midjourney into one seamless, cutting-edge experience. </t>
+          <t>Allegro-txt2vid. WARNING: takes a long time to generate a result, 1hr on a 3090. 12GB+ VRAM | 32GB+ RAM | 30GB Download. Check the README for details</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/RuinedFooocus</t>
+          <t>https://github.com/pinokiofactory/Allegro-txt2vid-install</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-04-22T14:09:26Z</t>
+          <t>2024-10-27T14:58:05Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-10-30T19:53:32Z</t>
+          <t>2025-12-04T05:36:24Z</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-10-30T19:53:29Z</t>
+          <t>2025-12-04T05:36:20Z</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4713,241 +4713,299 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>runew0lf/RuinedFooocus</t>
+          <t>rhymes-ai/Allegro</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/runew0lf/RuinedFooocus</t>
+          <t>https://github.com/rhymes-ai/Allegro</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2023-08-16T09:20:46Z</t>
+          <t>2024-10-16T04:04:15Z</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2025-11-15T08:55:10Z</t>
+          <t>2025-12-06T00:53:45Z</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bolt</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
+          <t>RuinedFooocus</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(NVIDIA ONLY) Forget everything you thought you knew about AI art generation - RuinedFooocus is here to completely reinvent the game! This groundbreaking image creator combines the best aspects of Stable Diffusion and Midjourney into one seamless, cutting-edge experience. </t>
+        </is>
+      </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/bolt</t>
+          <t>https://github.com/pinokiofactory/RuinedFooocus</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-10-30T04:46:10Z</t>
+          <t>2025-04-22T14:09:26Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2026-01-06T23:18:55Z</t>
+          <t>2025-10-30T19:53:32Z</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-12-06T21:59:33Z</t>
+          <t>2025-10-30T19:53:29Z</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>stackblitz-labs/bolt.diy</t>
+          <t>runew0lf/RuinedFooocus</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/stackblitz-labs/bolt.diy</t>
+          <t>https://github.com/runew0lf/RuinedFooocus</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>2024-10-13T18:40:54Z</t>
+          <t>2023-08-16T09:20:46Z</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2026-01-11T01:43:29Z</t>
+          <t>2025-11-15T08:55:10Z</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ditto</t>
+          <t>bolt</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/ditto</t>
+          <t>https://github.com/pinokiofactory/bolt</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-10-15T21:29:32Z</t>
+          <t>2024-10-30T04:46:10Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2025-11-06T00:05:04Z</t>
+          <t>2026-01-11T08:23:24Z</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2024-10-15T22:47:07Z</t>
+          <t>2025-12-06T21:59:33Z</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>yoheinakajima/ditto</t>
+          <t>stackblitz-labs/bolt.diy</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/yoheinakajima/ditto</t>
+          <t>https://github.com/stackblitz-labs/bolt.diy</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2024-10-15T19:45:13Z</t>
+          <t>2024-10-13T18:40:54Z</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2025-11-11T07:07:11Z</t>
+          <t>2026-01-18T05:04:40Z</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>cogstudio</t>
+          <t>ditto</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/pinokiofactory/cogstudio</t>
+          <t>https://github.com/pinokiofactory/ditto</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-09-20T10:46:17Z</t>
+          <t>2024-10-15T21:29:32Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2026-01-10T09:42:52Z</t>
+          <t>2025-11-06T00:05:04Z</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2026-01-04T00:47:22Z</t>
+          <t>2024-10-15T22:47:07Z</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>zai-org/CogVideo</t>
+          <t>yoheinakajima/ditto</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>https://github.com/zai-org/CogVideo</t>
+          <t>https://github.com/yoheinakajima/ditto</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>2022-05-29T06:46:18Z</t>
+          <t>2024-10-15T19:45:13Z</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2026-01-11T06:29:08Z</t>
+          <t>2025-11-11T07:07:11Z</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>cogvideo</t>
+          <t>cogstudio</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
+          <t>https://github.com/pinokiofactory/cogstudio</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2024-09-20T10:46:17Z</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2026-01-13T11:25:28Z</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2026-01-04T00:47:22Z</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>37</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>zai-org/CogVideo</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/zai-org/CogVideo</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2022-05-29T06:46:18Z</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2026-01-18T01:58:21Z</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>cogvideo</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
           <t>https://github.com/pinokiofactory/cogvideo</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>2024-08-30T10:13:02Z</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2026-01-04T01:51:05Z</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>2026-01-04T01:51:01Z</t>
         </is>
       </c>
-      <c r="G98" t="n">
+      <c r="G99" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>zai-org/CogVideo</t>
         </is>
       </c>
-      <c r="I98" s="2" t="inlineStr">
+      <c r="I99" s="2" t="inlineStr">
         <is>
           <t>https://github.com/zai-org/CogVideo</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>2022-05-29T06:46:18Z</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>2026-01-04T04:24:11Z</t>
         </is>
       </c>
-      <c r="L98" t="n">
+      <c r="L99" t="n">
         <v>105</v>
       </c>
     </row>
@@ -5098,6 +5156,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I97" r:id="rId143"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C98" r:id="rId144"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I98" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C99" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I99" r:id="rId147"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pinokio_repos.xlsx
+++ b/pinokio_repos.xlsx
@@ -614,12 +614,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-12-15T02:06:12Z</t>
+          <t>2026-01-18T13:15:57Z</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-12-15T02:06:08Z</t>
+          <t>2026-01-18T13:15:52Z</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -730,7 +730,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-12-01T21:07:49Z</t>
+          <t>2026-01-24T16:44:46Z</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-12-30T08:02:35Z</t>
+          <t>2026-01-23T21:14:27Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2026-01-06T14:59:08Z</t>
+          <t>2026-01-24T02:56:20Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-09-08T21:05:58Z</t>
+          <t>2026-01-24T23:57:24Z</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2658,12 +2658,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2026-01-09T08:10:31Z</t>
+          <t>2026-01-25T06:00:38Z</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2026-01-05T02:02:09Z</t>
+          <t>2026-01-25T06:00:34Z</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2026-01-11T01:43:33Z</t>
+          <t>2026-01-25T04:17:48Z</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-12-02T20:56:23Z</t>
+          <t>2026-01-24T23:02:12Z</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2740,11 +2740,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2025-12-05T23:32:46Z</t>
+          <t>2026-01-24T18:58:41Z</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2026-01-09T05:42:53Z</t>
+          <t>2026-01-24T17:31:53Z</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2026-01-10T14:32:05Z</t>
+          <t>2026-01-24T17:32:07Z</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2026-01-16T04:08:37Z</t>
+          <t>2026-01-21T16:57:23Z</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2026-01-18T02:21:39Z</t>
+          <t>2026-01-25T02:33:03Z</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2026-01-07T22:36:38Z</t>
+          <t>2026-01-19T16:49:14Z</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2026-01-09T15:05:42Z</t>
+          <t>2026-01-21T10:14:46Z</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2026-01-15T18:33:28Z</t>
+          <t>2026-01-18T21:13:14Z</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3736,11 +3736,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2026-01-18T05:16:25Z</t>
+          <t>2026-01-25T06:27:26Z</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>588</v>
+        <v>612</v>
       </c>
     </row>
     <row r="77">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-12-02T23:46:53Z</t>
+          <t>2026-01-24T06:17:09Z</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3898,11 +3898,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2025-12-06T01:55:14Z</t>
+          <t>2026-01-23T09:30:32Z</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2026-01-09T00:52:04Z</t>
+          <t>2026-01-20T23:36:49Z</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4226,11 +4226,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2026-01-10T08:17:47Z</t>
+          <t>2026-01-24T00:59:46Z</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2026-01-15T10:37:50Z</t>
+          <t>2026-01-24T21:46:05Z</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4500,11 +4500,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2026-01-18T03:58:49Z</t>
+          <t>2026-01-25T06:33:29Z</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91">
